--- a/Resources/stock_data.xlsx
+++ b/Resources/stock_data.xlsx
@@ -513,7 +513,7 @@
         <v>119.0800018310547</v>
       </c>
       <c r="F4">
-        <v>109.3490982055664</v>
+        <v>109.3490905761719</v>
       </c>
       <c r="G4">
         <v>76444800</v>
@@ -536,7 +536,7 @@
         <v>124.5199966430664</v>
       </c>
       <c r="F5">
-        <v>114.3445358276367</v>
+        <v>114.3445434570312</v>
       </c>
       <c r="G5">
         <v>59249900</v>
@@ -559,7 +559,7 @@
         <v>127.0699996948242</v>
       </c>
       <c r="F6">
-        <v>116.6861572265625</v>
+        <v>116.686164855957</v>
       </c>
       <c r="G6">
         <v>32440000</v>
@@ -582,7 +582,7 @@
         <v>136.0200042724609</v>
       </c>
       <c r="F7">
-        <v>124.9047927856445</v>
+        <v>124.9048004150391</v>
       </c>
       <c r="G7">
         <v>89435700</v>
@@ -605,7 +605,7 @@
         <v>138.6399993896484</v>
       </c>
       <c r="F8">
-        <v>128.2275085449219</v>
+        <v>128.2275238037109</v>
       </c>
       <c r="G8">
         <v>95234800</v>
@@ -628,7 +628,7 @@
         <v>133.7899932861328</v>
       </c>
       <c r="F9">
-        <v>123.7417984008789</v>
+        <v>123.7418212890625</v>
       </c>
       <c r="G9">
         <v>62217500</v>
@@ -651,7 +651,7 @@
         <v>128.6699981689453</v>
       </c>
       <c r="F10">
-        <v>119.0063400268555</v>
+        <v>119.0063323974609</v>
       </c>
       <c r="G10">
         <v>71694400</v>
@@ -674,7 +674,7 @@
         <v>137.9799957275391</v>
       </c>
       <c r="F11">
-        <v>127.6171188354492</v>
+        <v>127.6171340942383</v>
       </c>
       <c r="G11">
         <v>56405900</v>
@@ -697,7 +697,7 @@
         <v>141.25</v>
       </c>
       <c r="F12">
-        <v>130.6415405273438</v>
+        <v>130.6415252685547</v>
       </c>
       <c r="G12">
         <v>46600000</v>
@@ -743,7 +743,7 @@
         <v>147.1699981689453</v>
       </c>
       <c r="F14">
-        <v>136.1169128417969</v>
+        <v>136.1169281005859</v>
       </c>
       <c r="G14">
         <v>80741100</v>
@@ -789,7 +789,7 @@
         <v>156.1499938964844</v>
       </c>
       <c r="F16">
-        <v>144.4224548339844</v>
+        <v>144.4224395751953</v>
       </c>
       <c r="G16">
         <v>72335300</v>
@@ -812,7 +812,7 @@
         <v>155.1399993896484</v>
       </c>
       <c r="F17">
-        <v>143.4883270263672</v>
+        <v>143.4883422851562</v>
       </c>
       <c r="G17">
         <v>115176400</v>
@@ -858,7 +858,7 @@
         <v>153.7100067138672</v>
       </c>
       <c r="F19">
-        <v>142.1657409667969</v>
+        <v>142.1657562255859</v>
       </c>
       <c r="G19">
         <v>64052800</v>
@@ -881,7 +881,7 @@
         <v>156.2799987792969</v>
       </c>
       <c r="F20">
-        <v>144.5426940917969</v>
+        <v>144.5427093505859</v>
       </c>
       <c r="G20">
         <v>67941000</v>
@@ -904,7 +904,7 @@
         <v>153.3000030517578</v>
       </c>
       <c r="F21">
-        <v>142.6215972900391</v>
+        <v>142.6216125488281</v>
       </c>
       <c r="G21">
         <v>79794100</v>
@@ -927,7 +927,7 @@
         <v>150.1900024414062</v>
       </c>
       <c r="F22">
-        <v>139.7282562255859</v>
+        <v>139.7282409667969</v>
       </c>
       <c r="G22">
         <v>67151600</v>
@@ -996,7 +996,7 @@
         <v>164.0099945068359</v>
       </c>
       <c r="F25">
-        <v>152.5855712890625</v>
+        <v>152.5855560302734</v>
       </c>
       <c r="G25">
         <v>69826700</v>
@@ -1019,7 +1019,7 @@
         <v>162.6600036621094</v>
       </c>
       <c r="F26">
-        <v>151.3296051025391</v>
+        <v>151.3296203613281</v>
       </c>
       <c r="G26">
         <v>54938800</v>
@@ -1088,7 +1088,7 @@
         <v>160.2899932861328</v>
       </c>
       <c r="F29">
-        <v>149.1247100830078</v>
+        <v>149.1246948242188</v>
       </c>
       <c r="G29">
         <v>55818500</v>
@@ -1111,7 +1111,7 @@
         <v>147.9199981689453</v>
       </c>
       <c r="F30">
-        <v>137.6163940429688</v>
+        <v>137.6163482666016</v>
       </c>
       <c r="G30">
         <v>143042700</v>
@@ -1157,7 +1157,7 @@
         <v>156.0299987792969</v>
       </c>
       <c r="F32">
-        <v>145.1614379882812</v>
+        <v>145.1614532470703</v>
       </c>
       <c r="G32">
         <v>63088900</v>
@@ -1203,7 +1203,7 @@
         <v>151.9100036621094</v>
       </c>
       <c r="F34">
-        <v>142.1428375244141</v>
+        <v>142.1428527832031</v>
       </c>
       <c r="G34">
         <v>82776900</v>
@@ -1226,7 +1226,7 @@
         <v>150.6399993896484</v>
       </c>
       <c r="F35">
-        <v>140.9544830322266</v>
+        <v>140.9545135498047</v>
       </c>
       <c r="G35">
         <v>69494200</v>
@@ -1249,7 +1249,7 @@
         <v>151.7799987792969</v>
       </c>
       <c r="F36">
-        <v>142.0211944580078</v>
+        <v>142.0212249755859</v>
       </c>
       <c r="G36">
         <v>47512700</v>
@@ -1295,7 +1295,7 @@
         <v>159.9799957275391</v>
       </c>
       <c r="F38">
-        <v>149.6939849853516</v>
+        <v>149.6939544677734</v>
       </c>
       <c r="G38">
         <v>45165500</v>
@@ -1318,7 +1318,7 @@
         <v>154.7200012207031</v>
       </c>
       <c r="F39">
-        <v>144.7721862792969</v>
+        <v>144.7721710205078</v>
       </c>
       <c r="G39">
         <v>42660300</v>
@@ -1364,7 +1364,7 @@
         <v>159.4900054931641</v>
       </c>
       <c r="F41">
-        <v>149.2354736328125</v>
+        <v>149.2354888916016</v>
       </c>
       <c r="G41">
         <v>45781300</v>
@@ -1387,7 +1387,7 @@
         <v>157.3600006103516</v>
       </c>
       <c r="F42">
-        <v>147.242431640625</v>
+        <v>147.2424163818359</v>
       </c>
       <c r="G42">
         <v>33354200</v>
@@ -1410,7 +1410,7 @@
         <v>157.6799926757812</v>
       </c>
       <c r="F43">
-        <v>147.5418548583984</v>
+        <v>147.5418395996094</v>
       </c>
       <c r="G43">
         <v>69892400</v>
@@ -1433,7 +1433,7 @@
         <v>163.0399932861328</v>
       </c>
       <c r="F44">
-        <v>152.5572357177734</v>
+        <v>152.5572204589844</v>
       </c>
       <c r="G44">
         <v>58494500</v>
@@ -1456,7 +1456,7 @@
         <v>167.1300048828125</v>
       </c>
       <c r="F45">
-        <v>156.3842468261719</v>
+        <v>156.3842926025391</v>
       </c>
       <c r="G45">
         <v>58832100</v>
@@ -1479,7 +1479,7 @@
         <v>170.2200012207031</v>
       </c>
       <c r="F46">
-        <v>159.2755889892578</v>
+        <v>159.2756042480469</v>
       </c>
       <c r="G46">
         <v>53491000</v>
@@ -1502,7 +1502,7 @@
         <v>166.6100006103516</v>
       </c>
       <c r="F47">
-        <v>156.8371124267578</v>
+        <v>156.8370971679688</v>
       </c>
       <c r="G47">
         <v>77385000</v>
@@ -1548,7 +1548,7 @@
         <v>169.8899993896484</v>
       </c>
       <c r="F49">
-        <v>159.9247283935547</v>
+        <v>159.9246978759766</v>
       </c>
       <c r="G49">
         <v>43374300</v>
@@ -1571,7 +1571,7 @@
         <v>168.0500030517578</v>
       </c>
       <c r="F50">
-        <v>158.1926574707031</v>
+        <v>158.192626953125</v>
       </c>
       <c r="G50">
         <v>40561800</v>
@@ -1617,7 +1617,7 @@
         <v>160.9199981689453</v>
       </c>
       <c r="F52">
-        <v>151.4808959960938</v>
+        <v>151.4808654785156</v>
       </c>
       <c r="G52">
         <v>46424300</v>
@@ -1640,7 +1640,7 @@
         <v>161.9299926757812</v>
       </c>
       <c r="F53">
-        <v>152.4316253662109</v>
+        <v>152.431640625</v>
       </c>
       <c r="G53">
         <v>50153400</v>
@@ -1663,7 +1663,7 @@
         <v>158.2899932861328</v>
       </c>
       <c r="F54">
-        <v>149.0051422119141</v>
+        <v>149.0051574707031</v>
       </c>
       <c r="G54">
         <v>68932100</v>
@@ -1686,7 +1686,7 @@
         <v>159.8200073242188</v>
       </c>
       <c r="F55">
-        <v>150.4454040527344</v>
+        <v>150.4454345703125</v>
       </c>
       <c r="G55">
         <v>54338800</v>
@@ -1709,7 +1709,7 @@
         <v>156.7599945068359</v>
       </c>
       <c r="F56">
-        <v>147.5648803710938</v>
+        <v>147.5648651123047</v>
       </c>
       <c r="G56">
         <v>86271600</v>
@@ -1732,7 +1732,7 @@
         <v>157.2599945068359</v>
       </c>
       <c r="F57">
-        <v>148.0355682373047</v>
+        <v>148.0355834960938</v>
       </c>
       <c r="G57">
         <v>41767500</v>
@@ -1755,7 +1755,7 @@
         <v>158.3500061035156</v>
       </c>
       <c r="F58">
-        <v>149.0616455078125</v>
+        <v>149.0616302490234</v>
       </c>
       <c r="G58">
         <v>31683400</v>
@@ -1801,7 +1801,7 @@
         <v>157.8899993896484</v>
       </c>
       <c r="F60">
-        <v>149.51953125</v>
+        <v>149.5195007324219</v>
       </c>
       <c r="G60">
         <v>91126400</v>
@@ -1847,7 +1847,7 @@
         <v>146.6100006103516</v>
       </c>
       <c r="F62">
-        <v>138.8375091552734</v>
+        <v>138.8375244140625</v>
       </c>
       <c r="G62">
         <v>99750200</v>
@@ -1916,7 +1916,7 @@
         <v>152.1399993896484</v>
       </c>
       <c r="F65">
-        <v>144.0743408203125</v>
+        <v>144.0743255615234</v>
       </c>
       <c r="G65">
         <v>58703800</v>
@@ -1962,7 +1962,7 @@
         <v>134.3999938964844</v>
       </c>
       <c r="F67">
-        <v>127.2748031616211</v>
+        <v>127.2748413085938</v>
       </c>
       <c r="G67">
         <v>125218100</v>
@@ -1985,7 +1985,7 @@
         <v>128.8899993896484</v>
       </c>
       <c r="F68">
-        <v>122.0569458007812</v>
+        <v>122.0569305419922</v>
       </c>
       <c r="G68">
         <v>99970100</v>
@@ -2008,7 +2008,7 @@
         <v>140.1000061035156</v>
       </c>
       <c r="F69">
-        <v>132.6726379394531</v>
+        <v>132.6726531982422</v>
       </c>
       <c r="G69">
         <v>91945400</v>
@@ -2054,7 +2054,7 @@
         <v>135.3099975585938</v>
       </c>
       <c r="F71">
-        <v>128.1365814208984</v>
+        <v>128.1365966796875</v>
       </c>
       <c r="G71">
         <v>63980800</v>
@@ -2123,7 +2123,7 @@
         <v>126.8099975585938</v>
       </c>
       <c r="F74">
-        <v>120.9773406982422</v>
+        <v>120.9773254394531</v>
       </c>
       <c r="G74">
         <v>66773000</v>
@@ -2192,7 +2192,7 @@
         <v>119.0899963378906</v>
       </c>
       <c r="F77">
-        <v>113.6124114990234</v>
+        <v>113.612419128418</v>
       </c>
       <c r="G77">
         <v>72087000</v>
@@ -2238,7 +2238,7 @@
         <v>131.2700042724609</v>
       </c>
       <c r="F79">
-        <v>125.2322082519531</v>
+        <v>125.2322235107422</v>
       </c>
       <c r="G79">
         <v>83650700</v>
@@ -2261,7 +2261,7 @@
         <v>130.1600036621094</v>
       </c>
       <c r="F80">
-        <v>124.1732635498047</v>
+        <v>124.1732559204102</v>
       </c>
       <c r="G80">
         <v>44753800</v>
@@ -2284,7 +2284,7 @@
         <v>119.5500030517578</v>
       </c>
       <c r="F81">
-        <v>114.0512619018555</v>
+        <v>114.0512542724609</v>
       </c>
       <c r="G81">
         <v>52973100</v>
@@ -2330,7 +2330,7 @@
         <v>117.3199996948242</v>
       </c>
       <c r="F83">
-        <v>111.9238357543945</v>
+        <v>111.923828125</v>
       </c>
       <c r="G83">
         <v>48215800</v>
@@ -2353,7 +2353,7 @@
         <v>114.0500030517578</v>
       </c>
       <c r="F84">
-        <v>108.8042373657227</v>
+        <v>108.8042449951172</v>
       </c>
       <c r="G84">
         <v>57956000</v>
@@ -2399,7 +2399,7 @@
         <v>112.9499969482422</v>
       </c>
       <c r="F86">
-        <v>108.7080001831055</v>
+        <v>108.7079925537109</v>
       </c>
       <c r="G86">
         <v>77239000</v>
@@ -2445,7 +2445,7 @@
         <v>115.3600006103516</v>
       </c>
       <c r="F88">
-        <v>111.027473449707</v>
+        <v>111.0274810791016</v>
       </c>
       <c r="G88">
         <v>52735800</v>
@@ -2491,7 +2491,7 @@
         <v>122.129997253418</v>
       </c>
       <c r="F90">
-        <v>117.5432281494141</v>
+        <v>117.5432205200195</v>
       </c>
       <c r="G90">
         <v>55005200</v>
@@ -2560,7 +2560,7 @@
         <v>113.7099990844727</v>
       </c>
       <c r="F93">
-        <v>109.4394454956055</v>
+        <v>109.439453125</v>
       </c>
       <c r="G93">
         <v>50247400</v>
@@ -2583,7 +2583,7 @@
         <v>119.1699981689453</v>
       </c>
       <c r="F94">
-        <v>114.6943817138672</v>
+        <v>114.6943893432617</v>
       </c>
       <c r="G94">
         <v>41134500</v>
@@ -2629,7 +2629,7 @@
         <v>109.1399993896484</v>
       </c>
       <c r="F96">
-        <v>105.0410919189453</v>
+        <v>105.0410766601562</v>
       </c>
       <c r="G96">
         <v>60249700</v>
@@ -2698,7 +2698,7 @@
         <v>111.1900024414062</v>
       </c>
       <c r="F99">
-        <v>107.971549987793</v>
+        <v>107.9715423583984</v>
       </c>
       <c r="G99">
         <v>90638200</v>
@@ -2744,7 +2744,7 @@
         <v>126.0800018310547</v>
       </c>
       <c r="F101">
-        <v>122.4305419921875</v>
+        <v>122.4305572509766</v>
       </c>
       <c r="G101">
         <v>58167400</v>
@@ -2767,7 +2767,7 @@
         <v>130.6799926757812</v>
       </c>
       <c r="F102">
-        <v>126.8973846435547</v>
+        <v>126.8973922729492</v>
       </c>
       <c r="G102">
         <v>70655800</v>
@@ -2790,7 +2790,7 @@
         <v>135.3000030517578</v>
       </c>
       <c r="F103">
-        <v>131.3836517333984</v>
+        <v>131.3836669921875</v>
       </c>
       <c r="G103">
         <v>58445600</v>
@@ -2813,7 +2813,7 @@
         <v>133.8399963378906</v>
       </c>
       <c r="F104">
-        <v>129.9659271240234</v>
+        <v>129.9659118652344</v>
       </c>
       <c r="G104">
         <v>51306000</v>
@@ -2836,7 +2836,7 @@
         <v>136.7400054931641</v>
       </c>
       <c r="F105">
-        <v>132.781982421875</v>
+        <v>132.7819976806641</v>
       </c>
       <c r="G105">
         <v>27522900</v>
@@ -2905,7 +2905,7 @@
         <v>129.2899932861328</v>
       </c>
       <c r="F108">
-        <v>125.5476226806641</v>
+        <v>125.5476150512695</v>
       </c>
       <c r="G108">
         <v>62054600</v>
@@ -2928,7 +2928,7 @@
         <v>131.2799987792969</v>
       </c>
       <c r="F109">
-        <v>127.4800262451172</v>
+        <v>127.4800338745117</v>
       </c>
       <c r="G109">
         <v>39358900</v>
@@ -2951,7 +2951,7 @@
         <v>134.1000061035156</v>
       </c>
       <c r="F110">
-        <v>130.2184143066406</v>
+        <v>130.2183990478516</v>
       </c>
       <c r="G110">
         <v>30116400</v>
@@ -2974,7 +2974,7 @@
         <v>137.9400024414062</v>
       </c>
       <c r="F111">
-        <v>133.9472351074219</v>
+        <v>133.947265625</v>
       </c>
       <c r="G111">
         <v>41152800</v>
@@ -2997,7 +2997,7 @@
         <v>143.0099945068359</v>
       </c>
       <c r="F112">
-        <v>139.8962707519531</v>
+        <v>139.8962554931641</v>
       </c>
       <c r="G112">
         <v>57436400</v>
@@ -3043,7 +3043,7 @@
         <v>140.3200073242188</v>
       </c>
       <c r="F114">
-        <v>137.2648468017578</v>
+        <v>137.2648620605469</v>
       </c>
       <c r="G114">
         <v>41376600</v>
@@ -3112,7 +3112,7 @@
         <v>142.2400054931641</v>
       </c>
       <c r="F117">
-        <v>139.1430511474609</v>
+        <v>139.14306640625</v>
       </c>
       <c r="G117">
         <v>39226400</v>
@@ -3135,7 +3135,7 @@
         <v>140.9299926757812</v>
       </c>
       <c r="F118">
-        <v>137.861572265625</v>
+        <v>137.8615570068359</v>
       </c>
       <c r="G118">
         <v>38298700</v>
@@ -3204,7 +3204,7 @@
         <v>125.8099975585938</v>
       </c>
       <c r="F121">
-        <v>123.0707702636719</v>
+        <v>123.0707626342773</v>
       </c>
       <c r="G121">
         <v>169784300</v>
@@ -3250,7 +3250,7 @@
         <v>130.3099975585938</v>
       </c>
       <c r="F123">
-        <v>127.4728012084961</v>
+        <v>127.4727783203125</v>
       </c>
       <c r="G123">
         <v>69509600</v>
@@ -3273,7 +3273,7 @@
         <v>127.4700012207031</v>
       </c>
       <c r="F124">
-        <v>124.6946258544922</v>
+        <v>124.6946334838867</v>
       </c>
       <c r="G124">
         <v>41730200</v>
@@ -3342,7 +3342,7 @@
         <v>138.2400054931641</v>
       </c>
       <c r="F127">
-        <v>136.2914276123047</v>
+        <v>136.2914428710938</v>
       </c>
       <c r="G127">
         <v>51535800</v>
@@ -3411,7 +3411,7 @@
         <v>139.1799926757812</v>
       </c>
       <c r="F130">
-        <v>137.2181701660156</v>
+        <v>137.2181549072266</v>
       </c>
       <c r="G130">
         <v>51318500</v>
@@ -4183,7 +4183,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="F5">
-        <v>4.889560222625732</v>
+        <v>4.889559745788574</v>
       </c>
       <c r="G5">
         <v>3562334</v>
@@ -4252,7 +4252,7 @@
         <v>5.130000114440918</v>
       </c>
       <c r="F8">
-        <v>4.805257320404053</v>
+        <v>4.805257797241211</v>
       </c>
       <c r="G8">
         <v>3872765</v>
@@ -4275,7 +4275,7 @@
         <v>5.349999904632568</v>
       </c>
       <c r="F9">
-        <v>5.011330127716064</v>
+        <v>5.011330604553223</v>
       </c>
       <c r="G9">
         <v>3719475</v>
@@ -4298,7 +4298,7 @@
         <v>5.599999904632568</v>
       </c>
       <c r="F10">
-        <v>5.245505332946777</v>
+        <v>5.245504856109619</v>
       </c>
       <c r="G10">
         <v>3062961</v>
@@ -4390,7 +4390,7 @@
         <v>6.130000114440918</v>
       </c>
       <c r="F14">
-        <v>5.741954326629639</v>
+        <v>5.741955280303955</v>
       </c>
       <c r="G14">
         <v>8420047</v>
@@ -4413,7 +4413,7 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>5.62018346786499</v>
+        <v>5.620183944702148</v>
       </c>
       <c r="G15">
         <v>4444072</v>
@@ -4482,7 +4482,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="F18">
-        <v>6.110270500183105</v>
+        <v>6.110270023345947</v>
       </c>
       <c r="G18">
         <v>2319901</v>
@@ -4505,7 +4505,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F19">
-        <v>5.864726066589355</v>
+        <v>5.864727020263672</v>
       </c>
       <c r="G19">
         <v>2265263</v>
@@ -4528,7 +4528,7 @@
         <v>6.400000095367432</v>
       </c>
       <c r="F20">
-        <v>6.044162273406982</v>
+        <v>6.044162750244141</v>
       </c>
       <c r="G20">
         <v>1955728</v>
@@ -4551,7 +4551,7 @@
         <v>6.400000095367432</v>
       </c>
       <c r="F21">
-        <v>6.044162273406982</v>
+        <v>6.044162750244141</v>
       </c>
       <c r="G21">
         <v>2196859</v>
@@ -4574,7 +4574,7 @@
         <v>6.429999828338623</v>
       </c>
       <c r="F22">
-        <v>6.072494506835938</v>
+        <v>6.072494983673096</v>
       </c>
       <c r="G22">
         <v>5175548</v>
@@ -4597,7 +4597,7 @@
         <v>6.389999866485596</v>
       </c>
       <c r="F23">
-        <v>6.034718990325928</v>
+        <v>6.034718036651611</v>
       </c>
       <c r="G23">
         <v>3905980</v>
@@ -4620,7 +4620,7 @@
         <v>6.110000133514404</v>
       </c>
       <c r="F24">
-        <v>5.770287036895752</v>
+        <v>5.770286560058594</v>
       </c>
       <c r="G24">
         <v>2786533</v>
@@ -4643,7 +4643,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="F25">
-        <v>5.638070583343506</v>
+        <v>5.638070106506348</v>
       </c>
       <c r="G25">
         <v>2046243</v>
@@ -4735,7 +4735,7 @@
         <v>5.909999847412109</v>
       </c>
       <c r="F29">
-        <v>5.581406116485596</v>
+        <v>5.581406593322754</v>
       </c>
       <c r="G29">
         <v>4842921</v>
@@ -4758,7 +4758,7 @@
         <v>6.190000057220459</v>
       </c>
       <c r="F30">
-        <v>5.84583854675293</v>
+        <v>5.845838069915771</v>
       </c>
       <c r="G30">
         <v>5795530</v>
@@ -4781,7 +4781,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F31">
-        <v>5.864726066589355</v>
+        <v>5.864727020263672</v>
       </c>
       <c r="G31">
         <v>3410297</v>
@@ -4804,7 +4804,7 @@
         <v>5.610000133514404</v>
       </c>
       <c r="F32">
-        <v>5.298086643218994</v>
+        <v>5.298086166381836</v>
       </c>
       <c r="G32">
         <v>5700607</v>
@@ -4896,7 +4896,7 @@
         <v>5.159999847412109</v>
       </c>
       <c r="F36">
-        <v>4.873106002807617</v>
+        <v>4.873105525970459</v>
       </c>
       <c r="G36">
         <v>5012367</v>
@@ -4919,7 +4919,7 @@
         <v>5.139999866485596</v>
       </c>
       <c r="F37">
-        <v>4.854218006134033</v>
+        <v>4.854218482971191</v>
       </c>
       <c r="G37">
         <v>4751818</v>
@@ -4942,7 +4942,7 @@
         <v>5.210000038146973</v>
       </c>
       <c r="F38">
-        <v>4.920325756072998</v>
+        <v>4.920326232910156</v>
       </c>
       <c r="G38">
         <v>3825185</v>
@@ -4965,7 +4965,7 @@
         <v>5.269999980926514</v>
       </c>
       <c r="F39">
-        <v>4.976990222930908</v>
+        <v>4.97698974609375</v>
       </c>
       <c r="G39">
         <v>3673336</v>
@@ -4988,7 +4988,7 @@
         <v>5.510000228881836</v>
       </c>
       <c r="F40">
-        <v>5.203646183013916</v>
+        <v>5.203646659851074</v>
       </c>
       <c r="G40">
         <v>6483678</v>
@@ -5034,7 +5034,7 @@
         <v>5.550000190734863</v>
       </c>
       <c r="F42">
-        <v>5.288985252380371</v>
+        <v>5.288985729217529</v>
       </c>
       <c r="G42">
         <v>5093076</v>
@@ -5057,7 +5057,7 @@
         <v>5.329999923706055</v>
       </c>
       <c r="F43">
-        <v>5.079331398010254</v>
+        <v>5.079331874847412</v>
       </c>
       <c r="G43">
         <v>10472098</v>
@@ -5103,7 +5103,7 @@
         <v>5.260000228881836</v>
       </c>
       <c r="F45">
-        <v>5.01262378692627</v>
+        <v>5.012624263763428</v>
       </c>
       <c r="G45">
         <v>3758169</v>
@@ -5149,7 +5149,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="F47">
-        <v>5.212747097015381</v>
+        <v>5.212747573852539</v>
       </c>
       <c r="G47">
         <v>4140158</v>
@@ -5195,7 +5195,7 @@
         <v>5.420000076293945</v>
       </c>
       <c r="F49">
-        <v>5.165098667144775</v>
+        <v>5.165099143981934</v>
       </c>
       <c r="G49">
         <v>2540789</v>
@@ -5241,7 +5241,7 @@
         <v>5.489999771118164</v>
       </c>
       <c r="F51">
-        <v>5.231806755065918</v>
+        <v>5.23180627822876</v>
       </c>
       <c r="G51">
         <v>6442965</v>
@@ -5264,7 +5264,7 @@
         <v>5.659999847412109</v>
       </c>
       <c r="F52">
-        <v>5.39381217956543</v>
+        <v>5.393811225891113</v>
       </c>
       <c r="G52">
         <v>6292827</v>
@@ -5287,7 +5287,7 @@
         <v>5.630000114440918</v>
       </c>
       <c r="F53">
-        <v>5.365222454071045</v>
+        <v>5.365222930908203</v>
       </c>
       <c r="G53">
         <v>3193234</v>
@@ -5356,7 +5356,7 @@
         <v>5.579999923706055</v>
       </c>
       <c r="F56">
-        <v>5.317574024200439</v>
+        <v>5.317574501037598</v>
       </c>
       <c r="G56">
         <v>6398249</v>
@@ -5379,7 +5379,7 @@
         <v>5.130000114440918</v>
       </c>
       <c r="F57">
-        <v>4.88873815536499</v>
+        <v>4.888737678527832</v>
       </c>
       <c r="G57">
         <v>15775523</v>
@@ -5402,7 +5402,7 @@
         <v>5.670000076293945</v>
       </c>
       <c r="F58">
-        <v>5.403341293334961</v>
+        <v>5.403341770172119</v>
       </c>
       <c r="G58">
         <v>4097658</v>
@@ -5448,7 +5448,7 @@
         <v>5.210000038146973</v>
       </c>
       <c r="F60">
-        <v>4.964974880218506</v>
+        <v>4.964975357055664</v>
       </c>
       <c r="G60">
         <v>5101769</v>
@@ -5494,7 +5494,7 @@
         <v>5.150000095367432</v>
       </c>
       <c r="F62">
-        <v>4.907797336578369</v>
+        <v>4.907796859741211</v>
       </c>
       <c r="G62">
         <v>5528722</v>
@@ -5678,7 +5678,7 @@
         <v>4.820000171661377</v>
       </c>
       <c r="F70">
-        <v>4.647704601287842</v>
+        <v>4.647705078125</v>
       </c>
       <c r="G70">
         <v>6598635</v>
@@ -5701,7 +5701,7 @@
         <v>4.820000171661377</v>
       </c>
       <c r="F71">
-        <v>4.647704601287842</v>
+        <v>4.647705078125</v>
       </c>
       <c r="G71">
         <v>2308819</v>
@@ -5839,7 +5839,7 @@
         <v>4.949999809265137</v>
       </c>
       <c r="F77">
-        <v>4.77305793762207</v>
+        <v>4.773057460784912</v>
       </c>
       <c r="G77">
         <v>2875323</v>
@@ -5977,7 +5977,7 @@
         <v>3.849999904632568</v>
       </c>
       <c r="F83">
-        <v>3.712378263473511</v>
+        <v>3.712378025054932</v>
       </c>
       <c r="G83">
         <v>6314870</v>
@@ -6046,7 +6046,7 @@
         <v>3.25</v>
       </c>
       <c r="F86">
-        <v>3.133825778961182</v>
+        <v>3.133826017379761</v>
       </c>
       <c r="G86">
         <v>16116772</v>
@@ -6115,7 +6115,7 @@
         <v>3.829999923706055</v>
       </c>
       <c r="F89">
-        <v>3.693093299865723</v>
+        <v>3.693093061447144</v>
       </c>
       <c r="G89">
         <v>5250847</v>
@@ -6207,7 +6207,7 @@
         <v>3.910000085830688</v>
       </c>
       <c r="F93">
-        <v>3.770233392715454</v>
+        <v>3.770233631134033</v>
       </c>
       <c r="G93">
         <v>4114681</v>
@@ -6299,7 +6299,7 @@
         <v>3.460000038146973</v>
       </c>
       <c r="F97">
-        <v>3.381020307540894</v>
+        <v>3.381020069122314</v>
       </c>
       <c r="G97">
         <v>2755690</v>
@@ -6322,7 +6322,7 @@
         <v>3.480000019073486</v>
       </c>
       <c r="F98">
-        <v>3.400563478469849</v>
+        <v>3.400563716888428</v>
       </c>
       <c r="G98">
         <v>2083158</v>
@@ -6391,7 +6391,7 @@
         <v>3.269999980926514</v>
       </c>
       <c r="F101">
-        <v>3.195357084274292</v>
+        <v>3.195357322692871</v>
       </c>
       <c r="G101">
         <v>4246774</v>
@@ -6529,7 +6529,7 @@
         <v>3.619999885559082</v>
       </c>
       <c r="F107">
-        <v>3.537367582321167</v>
+        <v>3.537367820739746</v>
       </c>
       <c r="G107">
         <v>2372694</v>
@@ -6552,7 +6552,7 @@
         <v>3.740000009536743</v>
       </c>
       <c r="F108">
-        <v>3.654628753662109</v>
+        <v>3.65462851524353</v>
       </c>
       <c r="G108">
         <v>3850330</v>
@@ -6667,7 +6667,7 @@
         <v>3.940000057220459</v>
       </c>
       <c r="F113">
-        <v>3.850063562393188</v>
+        <v>3.850063323974609</v>
       </c>
       <c r="G113">
         <v>4134137</v>
@@ -6690,7 +6690,7 @@
         <v>3.960000038146973</v>
       </c>
       <c r="F114">
-        <v>3.869606971740723</v>
+        <v>3.869606733322144</v>
       </c>
       <c r="G114">
         <v>2276124</v>
@@ -6759,7 +6759,7 @@
         <v>3.529999971389771</v>
       </c>
       <c r="F117">
-        <v>3.449422359466553</v>
+        <v>3.449422121047974</v>
       </c>
       <c r="G117">
         <v>2753501</v>
@@ -6805,7 +6805,7 @@
         <v>3.410000085830688</v>
       </c>
       <c r="F119">
-        <v>3.332161426544189</v>
+        <v>3.332161664962769</v>
       </c>
       <c r="G119">
         <v>4072129</v>
@@ -7761,7 +7761,7 @@
         <v>150.2700042724609</v>
       </c>
       <c r="F2">
-        <v>138.6172027587891</v>
+        <v>138.6171722412109</v>
       </c>
       <c r="G2">
         <v>31541300</v>
@@ -7784,7 +7784,7 @@
         <v>152.9499969482422</v>
       </c>
       <c r="F3">
-        <v>141.0893707275391</v>
+        <v>141.08935546875</v>
       </c>
       <c r="G3">
         <v>36784900</v>
@@ -7807,7 +7807,7 @@
         <v>154.5099945068359</v>
       </c>
       <c r="F4">
-        <v>142.5283813476562</v>
+        <v>142.5283966064453</v>
       </c>
       <c r="G4">
         <v>51703500</v>
@@ -7830,7 +7830,7 @@
         <v>152.4700012207031</v>
       </c>
       <c r="F5">
-        <v>140.6465759277344</v>
+        <v>140.6465911865234</v>
       </c>
       <c r="G5">
         <v>19315100</v>
@@ -7876,7 +7876,7 @@
         <v>160.0399932861328</v>
       </c>
       <c r="F7">
-        <v>147.6295471191406</v>
+        <v>147.6295623779297</v>
       </c>
       <c r="G7">
         <v>45574400</v>
@@ -7899,7 +7899,7 @@
         <v>160.3000030517578</v>
       </c>
       <c r="F8">
-        <v>147.8694000244141</v>
+        <v>147.869384765625</v>
       </c>
       <c r="G8">
         <v>38274100</v>
@@ -7922,7 +7922,7 @@
         <v>163.5500030517578</v>
       </c>
       <c r="F9">
-        <v>150.8673706054688</v>
+        <v>150.8673553466797</v>
       </c>
       <c r="G9">
         <v>30852500</v>
@@ -8014,7 +8014,7 @@
         <v>162.9799957275391</v>
       </c>
       <c r="F13">
-        <v>150.3415832519531</v>
+        <v>150.3415679931641</v>
       </c>
       <c r="G13">
         <v>25712800</v>
@@ -8106,7 +8106,7 @@
         <v>160.0399932861328</v>
       </c>
       <c r="F17">
-        <v>148.5501403808594</v>
+        <v>148.5501251220703</v>
       </c>
       <c r="G17">
         <v>37587900</v>
@@ -8129,7 +8129,7 @@
         <v>164.9299926757812</v>
       </c>
       <c r="F18">
-        <v>153.0890655517578</v>
+        <v>153.0890808105469</v>
       </c>
       <c r="G18">
         <v>34981500</v>
@@ -8198,7 +8198,7 @@
         <v>162.2400054931641</v>
       </c>
       <c r="F21">
-        <v>150.5921936035156</v>
+        <v>150.5921783447266</v>
       </c>
       <c r="G21">
         <v>47739200</v>
@@ -8221,7 +8221,7 @@
         <v>165.5200042724609</v>
       </c>
       <c r="F22">
-        <v>153.6367340087891</v>
+        <v>153.63671875</v>
       </c>
       <c r="G22">
         <v>41985700</v>
@@ -8244,7 +8244,7 @@
         <v>162.7299957275391</v>
       </c>
       <c r="F23">
-        <v>151.0470123291016</v>
+        <v>151.0469970703125</v>
       </c>
       <c r="G23">
         <v>35166900</v>
@@ -8267,7 +8267,7 @@
         <v>168.5</v>
       </c>
       <c r="F24">
-        <v>156.4027557373047</v>
+        <v>156.4027709960938</v>
       </c>
       <c r="G24">
         <v>35412000</v>
@@ -8336,7 +8336,7 @@
         <v>169.25</v>
       </c>
       <c r="F27">
-        <v>157.0989074707031</v>
+        <v>157.0989227294922</v>
       </c>
       <c r="G27">
         <v>32881700</v>
@@ -8428,7 +8428,7 @@
         <v>164.2100067138672</v>
       </c>
       <c r="F31">
-        <v>153.3717498779297</v>
+        <v>153.3717041015625</v>
       </c>
       <c r="G31">
         <v>32226500</v>
@@ -8474,7 +8474,7 @@
         <v>169.75</v>
       </c>
       <c r="F33">
-        <v>158.5460510253906</v>
+        <v>158.5460357666016</v>
       </c>
       <c r="G33">
         <v>24268400</v>
@@ -8520,7 +8520,7 @@
         <v>171.7899932861328</v>
       </c>
       <c r="F35">
-        <v>160.4513854980469</v>
+        <v>160.4514007568359</v>
       </c>
       <c r="G35">
         <v>36004500</v>
@@ -8566,7 +8566,7 @@
         <v>173.1100006103516</v>
       </c>
       <c r="F37">
-        <v>161.6842651367188</v>
+        <v>161.6842956542969</v>
       </c>
       <c r="G37">
         <v>23419700</v>
@@ -8589,7 +8589,7 @@
         <v>176.25</v>
       </c>
       <c r="F38">
-        <v>164.6170196533203</v>
+        <v>164.6170349121094</v>
       </c>
       <c r="G38">
         <v>22032300</v>
@@ -8635,7 +8635,7 @@
         <v>172.9299926757812</v>
       </c>
       <c r="F40">
-        <v>161.5161743164062</v>
+        <v>161.5161590576172</v>
       </c>
       <c r="G40">
         <v>29974500</v>
@@ -8658,7 +8658,7 @@
         <v>175.0399932861328</v>
       </c>
       <c r="F41">
-        <v>164.4583892822266</v>
+        <v>164.4583587646484</v>
       </c>
       <c r="G41">
         <v>24328100</v>
@@ -8704,7 +8704,7 @@
         <v>164.75</v>
       </c>
       <c r="F43">
-        <v>154.7904357910156</v>
+        <v>154.7904815673828</v>
       </c>
       <c r="G43">
         <v>38553600</v>
@@ -8727,7 +8727,7 @@
         <v>164.3600006103516</v>
       </c>
       <c r="F44">
-        <v>154.4240417480469</v>
+        <v>154.4240264892578</v>
       </c>
       <c r="G44">
         <v>28688700</v>
@@ -8750,7 +8750,7 @@
         <v>160.4700012207031</v>
       </c>
       <c r="F45">
-        <v>150.7691650390625</v>
+        <v>150.7691955566406</v>
       </c>
       <c r="G45">
         <v>34050600</v>
@@ -8773,7 +8773,7 @@
         <v>160.9299926757812</v>
       </c>
       <c r="F46">
-        <v>151.2013854980469</v>
+        <v>151.2013549804688</v>
       </c>
       <c r="G46">
         <v>30714700</v>
@@ -8796,7 +8796,7 @@
         <v>161.3000030517578</v>
       </c>
       <c r="F47">
-        <v>151.5490112304688</v>
+        <v>151.5489959716797</v>
       </c>
       <c r="G47">
         <v>29186700</v>
@@ -8819,7 +8819,7 @@
         <v>163.7200012207031</v>
       </c>
       <c r="F48">
-        <v>153.8226928710938</v>
+        <v>153.8227233886719</v>
       </c>
       <c r="G48">
         <v>32378400</v>
@@ -8842,7 +8842,7 @@
         <v>162.8800048828125</v>
       </c>
       <c r="F49">
-        <v>153.0335083007812</v>
+        <v>153.0334777832031</v>
       </c>
       <c r="G49">
         <v>35478900</v>
@@ -8888,7 +8888,7 @@
         <v>165.0099945068359</v>
       </c>
       <c r="F51">
-        <v>155.0347290039062</v>
+        <v>155.0347137451172</v>
       </c>
       <c r="G51">
         <v>41030700</v>
@@ -8911,7 +8911,7 @@
         <v>162.8899993896484</v>
       </c>
       <c r="F52">
-        <v>153.0428771972656</v>
+        <v>153.0428924560547</v>
       </c>
       <c r="G52">
         <v>34484800</v>
@@ -8934,7 +8934,7 @@
         <v>159.1999969482422</v>
       </c>
       <c r="F53">
-        <v>149.575927734375</v>
+        <v>149.5759582519531</v>
       </c>
       <c r="G53">
         <v>29122500</v>
@@ -8957,7 +8957,7 @@
         <v>159.3800048828125</v>
       </c>
       <c r="F54">
-        <v>150.7259368896484</v>
+        <v>150.7259216308594</v>
       </c>
       <c r="G54">
         <v>54091200</v>
@@ -9049,7 +9049,7 @@
         <v>171.0700073242188</v>
       </c>
       <c r="F58">
-        <v>161.7811889648438</v>
+        <v>161.7811737060547</v>
       </c>
       <c r="G58">
         <v>19195100</v>
@@ -9095,7 +9095,7 @@
         <v>167.8399963378906</v>
       </c>
       <c r="F60">
-        <v>158.7265625</v>
+        <v>158.7265472412109</v>
       </c>
       <c r="G60">
         <v>36162800</v>
@@ -9164,7 +9164,7 @@
         <v>171.6300048828125</v>
       </c>
       <c r="F63">
-        <v>162.3107757568359</v>
+        <v>162.3107604980469</v>
       </c>
       <c r="G63">
         <v>36224900</v>
@@ -9187,7 +9187,7 @@
         <v>167.7100067138672</v>
       </c>
       <c r="F64">
-        <v>158.6036376953125</v>
+        <v>158.6036224365234</v>
       </c>
       <c r="G64">
         <v>41229900</v>
@@ -9210,7 +9210,7 @@
         <v>163.3600006103516</v>
       </c>
       <c r="F65">
-        <v>154.4898071289062</v>
+        <v>154.4898376464844</v>
       </c>
       <c r="G65">
         <v>36732200</v>
@@ -9279,7 +9279,7 @@
         <v>169.3500061035156</v>
       </c>
       <c r="F68">
-        <v>161.1826324462891</v>
+        <v>161.1826477050781</v>
       </c>
       <c r="G68">
         <v>41371300</v>
@@ -9325,7 +9325,7 @@
         <v>176.9199981689453</v>
       </c>
       <c r="F70">
-        <v>168.3875427246094</v>
+        <v>168.3875274658203</v>
       </c>
       <c r="G70">
         <v>31093000</v>
@@ -9371,7 +9371,7 @@
         <v>182.1199951171875</v>
       </c>
       <c r="F72">
-        <v>173.3367462158203</v>
+        <v>173.3367614746094</v>
       </c>
       <c r="G72">
         <v>39167300</v>
@@ -9394,7 +9394,7 @@
         <v>179.8999938964844</v>
       </c>
       <c r="F73">
-        <v>171.2238311767578</v>
+        <v>171.2238159179688</v>
       </c>
       <c r="G73">
         <v>23720800</v>
@@ -9440,7 +9440,7 @@
         <v>180.4600067138672</v>
       </c>
       <c r="F75">
-        <v>171.7568054199219</v>
+        <v>171.7568359375</v>
       </c>
       <c r="G75">
         <v>50323600</v>
@@ -9463,7 +9463,7 @@
         <v>176.3699951171875</v>
       </c>
       <c r="F76">
-        <v>167.8640594482422</v>
+        <v>167.8640747070312</v>
       </c>
       <c r="G76">
         <v>32490300</v>
@@ -9509,7 +9509,7 @@
         <v>176.9799957275391</v>
       </c>
       <c r="F78">
-        <v>168.4446563720703</v>
+        <v>168.4446411132812</v>
       </c>
       <c r="G78">
         <v>34273200</v>
@@ -9555,7 +9555,7 @@
         <v>176.4199981689453</v>
       </c>
       <c r="F80">
-        <v>168.9906463623047</v>
+        <v>168.9906311035156</v>
       </c>
       <c r="G80">
         <v>34467500</v>
@@ -9578,7 +9578,7 @@
         <v>172.5500030517578</v>
       </c>
       <c r="F81">
-        <v>165.2836303710938</v>
+        <v>165.2836151123047</v>
       </c>
       <c r="G81">
         <v>27324300</v>
@@ -9601,7 +9601,7 @@
         <v>169.4600067138672</v>
       </c>
       <c r="F82">
-        <v>162.3237457275391</v>
+        <v>162.32373046875</v>
       </c>
       <c r="G82">
         <v>42453200</v>
@@ -9624,7 +9624,7 @@
         <v>182.2899932861328</v>
       </c>
       <c r="F83">
-        <v>174.6134338378906</v>
+        <v>174.6134490966797</v>
       </c>
       <c r="G83">
         <v>38410700</v>
@@ -9670,7 +9670,7 @@
         <v>178.2799987792969</v>
       </c>
       <c r="F85">
-        <v>170.7722930908203</v>
+        <v>170.7723236083984</v>
       </c>
       <c r="G85">
         <v>20566100</v>
@@ -9693,7 +9693,7 @@
         <v>178.2299957275391</v>
       </c>
       <c r="F86">
-        <v>170.7244110107422</v>
+        <v>170.7244262695312</v>
       </c>
       <c r="G86">
         <v>24696400</v>
@@ -9808,7 +9808,7 @@
         <v>169.3099975585938</v>
       </c>
       <c r="F91">
-        <v>162.1800689697266</v>
+        <v>162.1800537109375</v>
       </c>
       <c r="G91">
         <v>41372800</v>
@@ -9854,7 +9854,7 @@
         <v>162.7400054931641</v>
       </c>
       <c r="F93">
-        <v>156.9341583251953</v>
+        <v>156.9341430664062</v>
       </c>
       <c r="G93">
         <v>34287500</v>
@@ -9877,7 +9877,7 @@
         <v>165.7100067138672</v>
       </c>
       <c r="F94">
-        <v>159.7981872558594</v>
+        <v>159.7981719970703</v>
       </c>
       <c r="G94">
         <v>23324200</v>
@@ -9969,7 +9969,7 @@
         <v>160.1999969482422</v>
       </c>
       <c r="F98">
-        <v>154.4847564697266</v>
+        <v>154.4847412109375</v>
       </c>
       <c r="G98">
         <v>31686700</v>
@@ -9992,7 +9992,7 @@
         <v>164.4600067138672</v>
       </c>
       <c r="F99">
-        <v>158.5927886962891</v>
+        <v>158.5927734375</v>
       </c>
       <c r="G99">
         <v>28019200</v>
@@ -10015,7 +10015,7 @@
         <v>168.7100067138672</v>
       </c>
       <c r="F100">
-        <v>162.691162109375</v>
+        <v>162.6911773681641</v>
       </c>
       <c r="G100">
         <v>41786500</v>
@@ -10107,7 +10107,7 @@
         <v>176.1999969482422</v>
       </c>
       <c r="F104">
-        <v>169.9139556884766</v>
+        <v>169.9139251708984</v>
       </c>
       <c r="G104">
         <v>32453200</v>
@@ -10153,7 +10153,7 @@
         <v>178.8800048828125</v>
       </c>
       <c r="F106">
-        <v>173.6117248535156</v>
+        <v>173.6117401123047</v>
       </c>
       <c r="G106">
         <v>38278100</v>
@@ -10222,7 +10222,7 @@
         <v>177.4799957275391</v>
       </c>
       <c r="F109">
-        <v>172.2529602050781</v>
+        <v>172.2529449462891</v>
       </c>
       <c r="G109">
         <v>26775200</v>
@@ -10245,7 +10245,7 @@
         <v>176.6499938964844</v>
       </c>
       <c r="F110">
-        <v>171.4473876953125</v>
+        <v>171.4474029541016</v>
       </c>
       <c r="G110">
         <v>12758100</v>
@@ -10268,7 +10268,7 @@
         <v>180.25</v>
       </c>
       <c r="F111">
-        <v>174.9413909912109</v>
+        <v>174.9413757324219</v>
       </c>
       <c r="G111">
         <v>28095000</v>
@@ -10314,7 +10314,7 @@
         <v>168.7400054931641</v>
       </c>
       <c r="F113">
-        <v>163.7703857421875</v>
+        <v>163.7703704833984</v>
       </c>
       <c r="G113">
         <v>28661200</v>
@@ -10337,7 +10337,7 @@
         <v>168.2299957275391</v>
       </c>
       <c r="F114">
-        <v>163.2753753662109</v>
+        <v>163.275390625</v>
       </c>
       <c r="G114">
         <v>39071200</v>
@@ -10383,7 +10383,7 @@
         <v>162.1499938964844</v>
       </c>
       <c r="F116">
-        <v>157.3744354248047</v>
+        <v>157.3744506835938</v>
       </c>
       <c r="G116">
         <v>35364000</v>
@@ -10406,7 +10406,7 @@
         <v>160.3899993896484</v>
       </c>
       <c r="F117">
-        <v>155.6662750244141</v>
+        <v>155.6662902832031</v>
       </c>
       <c r="G117">
         <v>48931400</v>
@@ -10429,7 +10429,7 @@
         <v>155.9700012207031</v>
       </c>
       <c r="F118">
-        <v>152.4652099609375</v>
+        <v>152.4652404785156</v>
       </c>
       <c r="G118">
         <v>37318900</v>
@@ -10613,7 +10613,7 @@
         <v>162.6900024414062</v>
       </c>
       <c r="F126">
-        <v>159.0342407226562</v>
+        <v>159.0342254638672</v>
       </c>
       <c r="G126">
         <v>45882900</v>
@@ -10682,7 +10682,7 @@
         <v>160.7799987792969</v>
       </c>
       <c r="F129">
-        <v>157.1671447753906</v>
+        <v>157.1671295166016</v>
       </c>
       <c r="G129">
         <v>27043800</v>
@@ -10866,7 +10866,7 @@
         <v>159.25</v>
       </c>
       <c r="F137">
-        <v>156.8460693359375</v>
+        <v>156.8460540771484</v>
       </c>
       <c r="G137">
         <v>24612500</v>
@@ -10935,7 +10935,7 @@
         <v>174.4799957275391</v>
       </c>
       <c r="F140">
-        <v>171.8461456298828</v>
+        <v>171.8461608886719</v>
       </c>
       <c r="G140">
         <v>69818900</v>
@@ -10958,7 +10958,7 @@
         <v>169.0399932861328</v>
       </c>
       <c r="F141">
-        <v>166.48828125</v>
+        <v>166.4882659912109</v>
       </c>
       <c r="G141">
         <v>93877700</v>
@@ -11004,7 +11004,7 @@
         <v>172.4900054931641</v>
       </c>
       <c r="F143">
-        <v>169.8861999511719</v>
+        <v>169.8862152099609</v>
       </c>
       <c r="G143">
         <v>359349100</v>
@@ -11431,7 +11431,7 @@
         <v>213.1000061035156</v>
       </c>
       <c r="F3">
-        <v>194.9062652587891</v>
+        <v>194.90625</v>
       </c>
       <c r="G3">
         <v>26251044</v>
@@ -11454,7 +11454,7 @@
         <v>223.1999969482422</v>
       </c>
       <c r="F4">
-        <v>204.1439514160156</v>
+        <v>204.1439361572266</v>
       </c>
       <c r="G4">
         <v>32560146</v>
@@ -11477,7 +11477,7 @@
         <v>213</v>
       </c>
       <c r="F5">
-        <v>194.8147888183594</v>
+        <v>194.8148040771484</v>
       </c>
       <c r="G5">
         <v>11678498</v>
@@ -11523,7 +11523,7 @@
         <v>212.8249969482422</v>
       </c>
       <c r="F7">
-        <v>194.6547088623047</v>
+        <v>194.6547241210938</v>
       </c>
       <c r="G7">
         <v>24624456</v>
@@ -11546,7 +11546,7 @@
         <v>221.3249969482422</v>
       </c>
       <c r="F8">
-        <v>202.4290466308594</v>
+        <v>202.4290161132812</v>
       </c>
       <c r="G8">
         <v>22185856</v>
@@ -11569,7 +11569,7 @@
         <v>222.25</v>
       </c>
       <c r="F9">
-        <v>203.2750396728516</v>
+        <v>203.2750701904297</v>
       </c>
       <c r="G9">
         <v>18708636</v>
@@ -11615,7 +11615,7 @@
         <v>220.1999969482422</v>
       </c>
       <c r="F11">
-        <v>201.4000854492188</v>
+        <v>201.4000701904297</v>
       </c>
       <c r="G11">
         <v>27789084</v>
@@ -11661,7 +11661,7 @@
         <v>227.625</v>
       </c>
       <c r="F13">
-        <v>208.191162109375</v>
+        <v>208.1911468505859</v>
       </c>
       <c r="G13">
         <v>20011152</v>
@@ -11684,7 +11684,7 @@
         <v>218.9750061035156</v>
       </c>
       <c r="F14">
-        <v>200.2796630859375</v>
+        <v>200.2796783447266</v>
       </c>
       <c r="G14">
         <v>21142096</v>
@@ -11753,7 +11753,7 @@
         <v>220.3500061035156</v>
       </c>
       <c r="F17">
-        <v>201.5372924804688</v>
+        <v>201.5372772216797</v>
       </c>
       <c r="G17">
         <v>24172638</v>
@@ -11914,7 +11914,7 @@
         <v>231.8000030517578</v>
       </c>
       <c r="F24">
-        <v>218.0049133300781</v>
+        <v>218.0048980712891</v>
       </c>
       <c r="G24">
         <v>23259736</v>
@@ -11937,7 +11937,7 @@
         <v>239.4250030517578</v>
       </c>
       <c r="F25">
-        <v>225.1761322021484</v>
+        <v>225.1761169433594</v>
       </c>
       <c r="G25">
         <v>12790722</v>
@@ -11960,7 +11960,7 @@
         <v>248.3999938964844</v>
       </c>
       <c r="F26">
-        <v>233.6169738769531</v>
+        <v>233.6169891357422</v>
       </c>
       <c r="G26">
         <v>22975490</v>
@@ -11983,7 +11983,7 @@
         <v>241.3249969482422</v>
       </c>
       <c r="F27">
-        <v>226.9630432128906</v>
+        <v>226.9630279541016</v>
       </c>
       <c r="G27">
         <v>21292490</v>
@@ -12006,7 +12006,7 @@
         <v>245.7749938964844</v>
       </c>
       <c r="F28">
-        <v>231.1482086181641</v>
+        <v>231.148193359375</v>
       </c>
       <c r="G28">
         <v>14811804</v>
@@ -12075,7 +12075,7 @@
         <v>255.5</v>
       </c>
       <c r="F31">
-        <v>240.2944488525391</v>
+        <v>240.29443359375</v>
       </c>
       <c r="G31">
         <v>12673374</v>
@@ -12098,7 +12098,7 @@
         <v>265.2000122070312</v>
       </c>
       <c r="F32">
-        <v>249.4172058105469</v>
+        <v>249.4171752929688</v>
       </c>
       <c r="G32">
         <v>17841906</v>
@@ -12144,7 +12144,7 @@
         <v>277.8999938964844</v>
       </c>
       <c r="F34">
-        <v>261.361328125</v>
+        <v>261.3613586425781</v>
       </c>
       <c r="G34">
         <v>15925108</v>
@@ -12190,7 +12190,7 @@
         <v>290</v>
       </c>
       <c r="F36">
-        <v>272.7412109375</v>
+        <v>272.7412414550781</v>
       </c>
       <c r="G36">
         <v>16186308</v>
@@ -12213,7 +12213,7 @@
         <v>313.4500122070312</v>
       </c>
       <c r="F37">
-        <v>294.795654296875</v>
+        <v>294.7956848144531</v>
       </c>
       <c r="G37">
         <v>28785100</v>
@@ -12259,7 +12259,7 @@
         <v>340.2999877929688</v>
       </c>
       <c r="F39">
-        <v>320.0477600097656</v>
+        <v>320.0477294921875</v>
       </c>
       <c r="G39">
         <v>19284208</v>
@@ -12282,7 +12282,7 @@
         <v>322.5</v>
       </c>
       <c r="F40">
-        <v>306.6234741210938</v>
+        <v>306.6234436035156</v>
       </c>
       <c r="G40">
         <v>18327436</v>
@@ -12305,7 +12305,7 @@
         <v>314.7999877929688</v>
       </c>
       <c r="F41">
-        <v>299.3025207519531</v>
+        <v>299.302490234375</v>
       </c>
       <c r="G41">
         <v>28320982</v>
@@ -12328,7 +12328,7 @@
         <v>313.75</v>
       </c>
       <c r="F42">
-        <v>298.30419921875</v>
+        <v>298.3042297363281</v>
       </c>
       <c r="G42">
         <v>14873886</v>
@@ -12351,7 +12351,7 @@
         <v>321.7000122070312</v>
       </c>
       <c r="F43">
-        <v>305.8628540039062</v>
+        <v>305.8628845214844</v>
       </c>
       <c r="G43">
         <v>21196624</v>
@@ -12420,7 +12420,7 @@
         <v>316.1000061035156</v>
       </c>
       <c r="F46">
-        <v>300.5385131835938</v>
+        <v>300.5385437011719</v>
       </c>
       <c r="G46">
         <v>15185078</v>
@@ -12466,7 +12466,7 @@
         <v>338.7000122070312</v>
       </c>
       <c r="F48">
-        <v>322.0259704589844</v>
+        <v>322.0259399414062</v>
       </c>
       <c r="G48">
         <v>15170696</v>
@@ -12535,7 +12535,7 @@
         <v>366.6499938964844</v>
       </c>
       <c r="F51">
-        <v>348.5999755859375</v>
+        <v>348.5999450683594</v>
       </c>
       <c r="G51">
         <v>25697038</v>
@@ -12650,7 +12650,7 @@
         <v>382.4500122070312</v>
       </c>
       <c r="F56">
-        <v>363.6221313476562</v>
+        <v>363.6221618652344</v>
       </c>
       <c r="G56">
         <v>23956748</v>
@@ -12696,7 +12696,7 @@
         <v>367.5</v>
       </c>
       <c r="F58">
-        <v>349.4081115722656</v>
+        <v>349.4081420898438</v>
       </c>
       <c r="G58">
         <v>7893718</v>
@@ -12788,7 +12788,7 @@
         <v>319.4500122070312</v>
       </c>
       <c r="F62">
-        <v>303.7236022949219</v>
+        <v>303.7236328125</v>
       </c>
       <c r="G62">
         <v>24952192</v>
@@ -12903,7 +12903,7 @@
         <v>350.5</v>
       </c>
       <c r="F67">
-        <v>333.2450561523438</v>
+        <v>333.2450256347656</v>
       </c>
       <c r="G67">
         <v>25233938</v>
@@ -12926,7 +12926,7 @@
         <v>346.2999877929688</v>
       </c>
       <c r="F68">
-        <v>329.2517395019531</v>
+        <v>329.2517700195312</v>
       </c>
       <c r="G68">
         <v>24902986</v>
@@ -12972,7 +12972,7 @@
         <v>358.7999877929688</v>
       </c>
       <c r="F70">
-        <v>341.1364440917969</v>
+        <v>341.1364135742188</v>
       </c>
       <c r="G70">
         <v>15873872</v>
@@ -12995,7 +12995,7 @@
         <v>379.75</v>
       </c>
       <c r="F71">
-        <v>368.011962890625</v>
+        <v>368.0119934082031</v>
       </c>
       <c r="G71">
         <v>18017808</v>
@@ -13018,7 +13018,7 @@
         <v>412.4500122070312</v>
       </c>
       <c r="F72">
-        <v>399.7012329101562</v>
+        <v>399.7012634277344</v>
       </c>
       <c r="G72">
         <v>23722024</v>
@@ -13064,7 +13064,7 @@
         <v>383.2000122070312</v>
       </c>
       <c r="F74">
-        <v>371.3553771972656</v>
+        <v>371.3553466796875</v>
       </c>
       <c r="G74">
         <v>15583102</v>
@@ -13156,7 +13156,7 @@
         <v>380.6499938964844</v>
       </c>
       <c r="F78">
-        <v>368.8841857910156</v>
+        <v>368.8841552734375</v>
       </c>
       <c r="G78">
         <v>18228142</v>
@@ -13225,7 +13225,7 @@
         <v>392.7999877929688</v>
       </c>
       <c r="F81">
-        <v>380.6586303710938</v>
+        <v>380.6585998535156</v>
       </c>
       <c r="G81">
         <v>12562776</v>
@@ -13248,7 +13248,7 @@
         <v>373.5499877929688</v>
       </c>
       <c r="F82">
-        <v>362.0036315917969</v>
+        <v>362.0036010742188</v>
       </c>
       <c r="G82">
         <v>22779458</v>
@@ -13294,7 +13294,7 @@
         <v>392.2999877929688</v>
       </c>
       <c r="F84">
-        <v>380.174072265625</v>
+        <v>380.1741027832031</v>
       </c>
       <c r="G84">
         <v>16491888</v>
@@ -13317,7 +13317,7 @@
         <v>399.5</v>
       </c>
       <c r="F85">
-        <v>387.1515197753906</v>
+        <v>387.1515502929688</v>
       </c>
       <c r="G85">
         <v>13076196</v>
@@ -13340,7 +13340,7 @@
         <v>418.5499877929688</v>
       </c>
       <c r="F86">
-        <v>405.6126708984375</v>
+        <v>405.6127014160156</v>
       </c>
       <c r="G86">
         <v>13431448</v>
@@ -13386,7 +13386,7 @@
         <v>427</v>
       </c>
       <c r="F88">
-        <v>413.801513671875</v>
+        <v>413.8014831542969</v>
       </c>
       <c r="G88">
         <v>13636710</v>
@@ -13524,7 +13524,7 @@
         <v>399.8999938964844</v>
       </c>
       <c r="F94">
-        <v>391.7483215332031</v>
+        <v>391.748291015625</v>
       </c>
       <c r="G94">
         <v>10796064</v>
@@ -13547,7 +13547,7 @@
         <v>374.75</v>
       </c>
       <c r="F95">
-        <v>367.1109924316406</v>
+        <v>367.1109619140625</v>
       </c>
       <c r="G95">
         <v>18372094</v>
@@ -13800,7 +13800,7 @@
         <v>448.5</v>
       </c>
       <c r="F106">
-        <v>439.3576049804688</v>
+        <v>439.3576354980469</v>
       </c>
       <c r="G106">
         <v>21573290</v>
@@ -13823,7 +13823,7 @@
         <v>460.8500061035156</v>
       </c>
       <c r="F107">
-        <v>451.4559020996094</v>
+        <v>451.4558715820312</v>
       </c>
       <c r="G107">
         <v>14350026</v>
@@ -13915,7 +13915,7 @@
         <v>483.75</v>
       </c>
       <c r="F111">
-        <v>473.8890991210938</v>
+        <v>473.8890686035156</v>
       </c>
       <c r="G111">
         <v>12333580</v>
@@ -13938,7 +13938,7 @@
         <v>468.2999877929688</v>
       </c>
       <c r="F112">
-        <v>458.7540283203125</v>
+        <v>458.7539978027344</v>
       </c>
       <c r="G112">
         <v>20317294</v>
@@ -13984,7 +13984,7 @@
         <v>473.9500122070312</v>
       </c>
       <c r="F114">
-        <v>464.2888488769531</v>
+        <v>464.2888793945312</v>
       </c>
       <c r="G114">
         <v>11295582</v>
@@ -14007,7 +14007,7 @@
         <v>470.75</v>
       </c>
       <c r="F115">
-        <v>461.1540832519531</v>
+        <v>461.154052734375</v>
       </c>
       <c r="G115">
         <v>23093928</v>
@@ -14030,7 +14030,7 @@
         <v>484.2000122070312</v>
       </c>
       <c r="F116">
-        <v>474.3298950195312</v>
+        <v>474.3299255371094</v>
       </c>
       <c r="G116">
         <v>15580320</v>
@@ -14076,7 +14076,7 @@
         <v>498.5499877929688</v>
       </c>
       <c r="F118">
-        <v>488.3873596191406</v>
+        <v>488.3873901367188</v>
       </c>
       <c r="G118">
         <v>13301030</v>
@@ -14099,7 +14099,7 @@
         <v>504.6000061035156</v>
       </c>
       <c r="F119">
-        <v>494.3140563964844</v>
+        <v>494.3140869140625</v>
       </c>
       <c r="G119">
         <v>18860396</v>
@@ -14145,7 +14145,7 @@
         <v>488.7999877929688</v>
       </c>
       <c r="F121">
-        <v>478.8361206054688</v>
+        <v>478.8361511230469</v>
       </c>
       <c r="G121">
         <v>19239172</v>
@@ -15078,7 +15078,7 @@
         <v>5016.9501953125</v>
       </c>
       <c r="F3">
-        <v>4866.33251953125</v>
+        <v>4866.33203125</v>
       </c>
       <c r="G3">
         <v>6803360</v>
@@ -15170,7 +15170,7 @@
         <v>5338.25</v>
       </c>
       <c r="F7">
-        <v>5177.9853515625</v>
+        <v>5177.98583984375</v>
       </c>
       <c r="G7">
         <v>3744026</v>
@@ -15193,7 +15193,7 @@
         <v>5212.7998046875</v>
       </c>
       <c r="F8">
-        <v>5056.30224609375</v>
+        <v>5056.30126953125</v>
       </c>
       <c r="G8">
         <v>3377924</v>
@@ -15239,7 +15239,7 @@
         <v>4602.7001953125</v>
       </c>
       <c r="F10">
-        <v>4464.51806640625</v>
+        <v>4464.5185546875</v>
       </c>
       <c r="G10">
         <v>5767464</v>
@@ -15262,7 +15262,7 @@
         <v>4800.89990234375</v>
       </c>
       <c r="F11">
-        <v>4656.76806640625</v>
+        <v>4656.767578125</v>
       </c>
       <c r="G11">
         <v>13420292</v>
@@ -15285,7 +15285,7 @@
         <v>4792</v>
       </c>
       <c r="F12">
-        <v>4648.13525390625</v>
+        <v>4648.134765625</v>
       </c>
       <c r="G12">
         <v>5771222</v>
@@ -15331,7 +15331,7 @@
         <v>4426.5498046875</v>
       </c>
       <c r="F14">
-        <v>4293.65673828125</v>
+        <v>4293.65625</v>
       </c>
       <c r="G14">
         <v>6407582</v>
@@ -15354,7 +15354,7 @@
         <v>4492.5</v>
       </c>
       <c r="F15">
-        <v>4357.62646484375</v>
+        <v>4357.6259765625</v>
       </c>
       <c r="G15">
         <v>5696725</v>
@@ -15400,7 +15400,7 @@
         <v>4274.4501953125</v>
       </c>
       <c r="F17">
-        <v>4146.123046875</v>
+        <v>4146.12353515625</v>
       </c>
       <c r="G17">
         <v>5434765</v>
@@ -15423,7 +15423,7 @@
         <v>4406</v>
       </c>
       <c r="F18">
-        <v>4273.72412109375</v>
+        <v>4273.7236328125</v>
       </c>
       <c r="G18">
         <v>3981677</v>
@@ -15469,7 +15469,7 @@
         <v>4760.2998046875</v>
       </c>
       <c r="F20">
-        <v>4617.38671875</v>
+        <v>4617.38720703125</v>
       </c>
       <c r="G20">
         <v>4610946</v>
@@ -15492,7 +15492,7 @@
         <v>4893.25</v>
       </c>
       <c r="F21">
-        <v>4746.345703125</v>
+        <v>4746.34521484375</v>
       </c>
       <c r="G21">
         <v>10035929</v>
@@ -15561,7 +15561,7 @@
         <v>5174.7001953125</v>
       </c>
       <c r="F24">
-        <v>5019.345703125</v>
+        <v>5019.34619140625</v>
       </c>
       <c r="G24">
         <v>4507960</v>
@@ -15607,7 +15607,7 @@
         <v>5216.4501953125</v>
       </c>
       <c r="F26">
-        <v>5059.8427734375</v>
+        <v>5059.84228515625</v>
       </c>
       <c r="G26">
         <v>4685899</v>
@@ -15653,7 +15653,7 @@
         <v>5255</v>
       </c>
       <c r="F28">
-        <v>5097.23486328125</v>
+        <v>5097.2353515625</v>
       </c>
       <c r="G28">
         <v>3129221</v>
@@ -15676,7 +15676,7 @@
         <v>5453</v>
       </c>
       <c r="F29">
-        <v>5289.291015625</v>
+        <v>5289.29052734375</v>
       </c>
       <c r="G29">
         <v>3392550</v>
@@ -15722,7 +15722,7 @@
         <v>5309.2998046875</v>
       </c>
       <c r="F31">
-        <v>5149.904296875</v>
+        <v>5149.90478515625</v>
       </c>
       <c r="G31">
         <v>2083742</v>
@@ -15768,7 +15768,7 @@
         <v>5460.2998046875</v>
       </c>
       <c r="F33">
-        <v>5296.37158203125</v>
+        <v>5296.37109375</v>
       </c>
       <c r="G33">
         <v>1926120</v>
@@ -15906,7 +15906,7 @@
         <v>4556</v>
       </c>
       <c r="F39">
-        <v>4459.94287109375</v>
+        <v>4459.9423828125</v>
       </c>
       <c r="G39">
         <v>2225907</v>
@@ -15975,7 +15975,7 @@
         <v>4912.0498046875</v>
       </c>
       <c r="F42">
-        <v>4808.48583984375</v>
+        <v>4808.4853515625</v>
       </c>
       <c r="G42">
         <v>1898853</v>
@@ -15998,7 +15998,7 @@
         <v>4884.5498046875</v>
       </c>
       <c r="F43">
-        <v>4781.56591796875</v>
+        <v>4781.56494140625</v>
       </c>
       <c r="G43">
         <v>1680299</v>
@@ -16044,7 +16044,7 @@
         <v>4955.85009765625</v>
       </c>
       <c r="F45">
-        <v>4851.36279296875</v>
+        <v>4851.3623046875</v>
       </c>
       <c r="G45">
         <v>2304721</v>
@@ -16090,7 +16090,7 @@
         <v>4958.7001953125</v>
       </c>
       <c r="F47">
-        <v>4854.15234375</v>
+        <v>4854.15283203125</v>
       </c>
       <c r="G47">
         <v>1507208</v>
@@ -16113,7 +16113,7 @@
         <v>4637.4501953125</v>
       </c>
       <c r="F48">
-        <v>4539.67626953125</v>
+        <v>4539.67529296875</v>
       </c>
       <c r="G48">
         <v>2069263</v>
@@ -16136,7 +16136,7 @@
         <v>4659.2001953125</v>
       </c>
       <c r="F49">
-        <v>4560.96728515625</v>
+        <v>4560.966796875</v>
       </c>
       <c r="G49">
         <v>3148247</v>
@@ -16182,7 +16182,7 @@
         <v>4843.25</v>
       </c>
       <c r="F51">
-        <v>4741.13623046875</v>
+        <v>4741.13671875</v>
       </c>
       <c r="G51">
         <v>1380975</v>
@@ -16251,7 +16251,7 @@
         <v>4596.5</v>
       </c>
       <c r="F54">
-        <v>4499.58935546875</v>
+        <v>4499.5888671875</v>
       </c>
       <c r="G54">
         <v>2823950</v>
@@ -16366,7 +16366,7 @@
         <v>4708.39990234375</v>
       </c>
       <c r="F59">
-        <v>4609.12939453125</v>
+        <v>4609.1298828125</v>
       </c>
       <c r="G59">
         <v>1731607</v>
@@ -16458,7 +16458,7 @@
         <v>4351.9501953125</v>
       </c>
       <c r="F63">
-        <v>4260.1953125</v>
+        <v>4260.19482421875</v>
       </c>
       <c r="G63">
         <v>1763749</v>
@@ -16527,7 +16527,7 @@
         <v>4176.60009765625</v>
       </c>
       <c r="F66">
-        <v>4088.5419921875</v>
+        <v>4088.54248046875</v>
       </c>
       <c r="G66">
         <v>2442835</v>
@@ -16642,7 +16642,7 @@
         <v>4279.4501953125</v>
       </c>
       <c r="F71">
-        <v>4189.22314453125</v>
+        <v>4189.2236328125</v>
       </c>
       <c r="G71">
         <v>2460407</v>
@@ -16780,7 +16780,7 @@
         <v>3924.300048828125</v>
       </c>
       <c r="F77">
-        <v>3841.561279296875</v>
+        <v>3841.5615234375</v>
       </c>
       <c r="G77">
         <v>1163469</v>
@@ -16826,7 +16826,7 @@
         <v>4390.5</v>
       </c>
       <c r="F79">
-        <v>4297.93212890625</v>
+        <v>4297.931640625</v>
       </c>
       <c r="G79">
         <v>2981371</v>
@@ -16849,7 +16849,7 @@
         <v>4340</v>
       </c>
       <c r="F80">
-        <v>4248.49658203125</v>
+        <v>4248.4970703125</v>
       </c>
       <c r="G80">
         <v>1908032</v>
@@ -16872,7 +16872,7 @@
         <v>4351.5498046875</v>
       </c>
       <c r="F81">
-        <v>4259.80322265625</v>
+        <v>4259.802734375</v>
       </c>
       <c r="G81">
         <v>2449278</v>
@@ -16895,7 +16895,7 @@
         <v>4146.7001953125</v>
       </c>
       <c r="F82">
-        <v>4059.272705078125</v>
+        <v>4059.2724609375</v>
       </c>
       <c r="G82">
         <v>2395188</v>
@@ -16941,7 +16941,7 @@
         <v>4385.89990234375</v>
       </c>
       <c r="F84">
-        <v>4293.4287109375</v>
+        <v>4293.42919921875</v>
       </c>
       <c r="G84">
         <v>1670207</v>
@@ -16987,7 +16987,7 @@
         <v>4546</v>
       </c>
       <c r="F86">
-        <v>4450.1533203125</v>
+        <v>4450.15380859375</v>
       </c>
       <c r="G86">
         <v>2939761</v>
@@ -22349,7 +22349,7 @@
         <v>41.68000030517578</v>
       </c>
       <c r="F2">
-        <v>36.52040100097656</v>
+        <v>36.52040481567383</v>
       </c>
       <c r="G2">
         <v>117604900</v>
@@ -22372,7 +22372,7 @@
         <v>43.79999923706055</v>
       </c>
       <c r="F3">
-        <v>38.37796783447266</v>
+        <v>38.37797546386719</v>
       </c>
       <c r="G3">
         <v>158835500</v>
@@ -22395,7 +22395,7 @@
         <v>42.72999954223633</v>
       </c>
       <c r="F4">
-        <v>37.4404296875</v>
+        <v>37.44042205810547</v>
       </c>
       <c r="G4">
         <v>159807800</v>
@@ -22418,7 +22418,7 @@
         <v>41.59999847412109</v>
       </c>
       <c r="F5">
-        <v>36.4503059387207</v>
+        <v>36.45030212402344</v>
       </c>
       <c r="G5">
         <v>76787300</v>
@@ -22441,7 +22441,7 @@
         <v>41.22000122070312</v>
       </c>
       <c r="F6">
-        <v>36.11735534667969</v>
+        <v>36.11735153198242</v>
       </c>
       <c r="G6">
         <v>90759000</v>
@@ -22464,7 +22464,7 @@
         <v>45.45999908447266</v>
       </c>
       <c r="F7">
-        <v>39.83247375488281</v>
+        <v>39.83247756958008</v>
       </c>
       <c r="G7">
         <v>166440900</v>
@@ -22487,7 +22487,7 @@
         <v>47.88999938964844</v>
       </c>
       <c r="F8">
-        <v>41.96165466308594</v>
+        <v>41.96166610717773</v>
       </c>
       <c r="G8">
         <v>182047700</v>
@@ -22533,7 +22533,7 @@
         <v>44.84000015258789</v>
       </c>
       <c r="F10">
-        <v>39.28923034667969</v>
+        <v>39.28922653198242</v>
       </c>
       <c r="G10">
         <v>146711200</v>
@@ -22556,7 +22556,7 @@
         <v>49.95000076293945</v>
       </c>
       <c r="F11">
-        <v>43.76665115356445</v>
+        <v>43.76665496826172</v>
       </c>
       <c r="G11">
         <v>145072500</v>
@@ -22648,7 +22648,7 @@
         <v>60.93000030517578</v>
       </c>
       <c r="F15">
-        <v>54.29407119750977</v>
+        <v>54.29407501220703</v>
       </c>
       <c r="G15">
         <v>206227100</v>
@@ -22671,7 +22671,7 @@
         <v>61.97000122070312</v>
       </c>
       <c r="F16">
-        <v>55.22080612182617</v>
+        <v>55.22080993652344</v>
       </c>
       <c r="G16">
         <v>150604900</v>
@@ -22717,7 +22717,7 @@
         <v>57.70999908447266</v>
       </c>
       <c r="F18">
-        <v>51.42476272583008</v>
+        <v>51.42476654052734</v>
       </c>
       <c r="G18">
         <v>158312600</v>
@@ -22763,7 +22763,7 @@
         <v>55.86999893188477</v>
       </c>
       <c r="F20">
-        <v>49.78515625</v>
+        <v>49.78516387939453</v>
       </c>
       <c r="G20">
         <v>106596100</v>
@@ -22786,7 +22786,7 @@
         <v>56.65999984741211</v>
       </c>
       <c r="F21">
-        <v>50.48911666870117</v>
+        <v>50.48912048339844</v>
       </c>
       <c r="G21">
         <v>113662800</v>
@@ -22809,7 +22809,7 @@
         <v>55.56999969482422</v>
       </c>
       <c r="F22">
-        <v>49.51782989501953</v>
+        <v>49.5178337097168</v>
       </c>
       <c r="G22">
         <v>96469000</v>
@@ -22832,7 +22832,7 @@
         <v>57.2400016784668</v>
       </c>
       <c r="F23">
-        <v>51.00595474243164</v>
+        <v>51.00595855712891</v>
       </c>
       <c r="G23">
         <v>117929000</v>
@@ -22855,7 +22855,7 @@
         <v>62.43000030517578</v>
       </c>
       <c r="F24">
-        <v>55.63069915771484</v>
+        <v>55.63071441650391</v>
       </c>
       <c r="G24">
         <v>136005400</v>
@@ -22901,7 +22901,7 @@
         <v>58.91999816894531</v>
       </c>
       <c r="F26">
-        <v>53.26784515380859</v>
+        <v>53.26785278320312</v>
       </c>
       <c r="G26">
         <v>120828300</v>
@@ -22993,7 +22993,7 @@
         <v>60.40000152587891</v>
       </c>
       <c r="F30">
-        <v>54.60587692260742</v>
+        <v>54.60587310791016</v>
       </c>
       <c r="G30">
         <v>140600000</v>
@@ -23016,7 +23016,7 @@
         <v>64.66000366210938</v>
       </c>
       <c r="F31">
-        <v>58.45721435546875</v>
+        <v>58.45721817016602</v>
       </c>
       <c r="G31">
         <v>116994100</v>
@@ -23039,7 +23039,7 @@
         <v>63.16999816894531</v>
       </c>
       <c r="F32">
-        <v>57.11014556884766</v>
+        <v>57.11014175415039</v>
       </c>
       <c r="G32">
         <v>95110400</v>
@@ -23062,7 +23062,7 @@
         <v>61.22999954223633</v>
       </c>
       <c r="F33">
-        <v>55.35625076293945</v>
+        <v>55.35624313354492</v>
       </c>
       <c r="G33">
         <v>82804100</v>
@@ -23085,7 +23085,7 @@
         <v>57.31999969482422</v>
       </c>
       <c r="F34">
-        <v>51.82133865356445</v>
+        <v>51.82133102416992</v>
       </c>
       <c r="G34">
         <v>103430900</v>
@@ -23108,7 +23108,7 @@
         <v>57.04000091552734</v>
       </c>
       <c r="F35">
-        <v>51.56819534301758</v>
+        <v>51.56819915771484</v>
       </c>
       <c r="G35">
         <v>113215900</v>
@@ -23131,7 +23131,7 @@
         <v>57.56999969482422</v>
       </c>
       <c r="F36">
-        <v>52.04734802246094</v>
+        <v>52.04735565185547</v>
       </c>
       <c r="G36">
         <v>99364900</v>
@@ -23154,7 +23154,7 @@
         <v>57.86000061035156</v>
       </c>
       <c r="F37">
-        <v>52.30953216552734</v>
+        <v>52.30953598022461</v>
       </c>
       <c r="G37">
         <v>90019000</v>
@@ -23177,7 +23177,7 @@
         <v>56.77000045776367</v>
       </c>
       <c r="F38">
-        <v>51.3240966796875</v>
+        <v>51.32409286499023</v>
       </c>
       <c r="G38">
         <v>91735500</v>
@@ -23200,7 +23200,7 @@
         <v>52.7400016784668</v>
       </c>
       <c r="F39">
-        <v>48.40237426757812</v>
+        <v>48.40237045288086</v>
       </c>
       <c r="G39">
         <v>102935500</v>
@@ -23246,7 +23246,7 @@
         <v>54.86999893188477</v>
       </c>
       <c r="F41">
-        <v>50.35718154907227</v>
+        <v>50.3571891784668</v>
       </c>
       <c r="G41">
         <v>99967600</v>
@@ -23269,7 +23269,7 @@
         <v>53.97999954223633</v>
       </c>
       <c r="F42">
-        <v>49.54039001464844</v>
+        <v>49.54038619995117</v>
       </c>
       <c r="G42">
         <v>67345600</v>
@@ -23292,7 +23292,7 @@
         <v>55.15999984741211</v>
       </c>
       <c r="F43">
-        <v>50.62333679199219</v>
+        <v>50.62334060668945</v>
       </c>
       <c r="G43">
         <v>113141100</v>
@@ -23315,7 +23315,7 @@
         <v>57.59000015258789</v>
       </c>
       <c r="F44">
-        <v>52.85347747802734</v>
+        <v>52.85348129272461</v>
       </c>
       <c r="G44">
         <v>118340500</v>
@@ -23338,7 +23338,7 @@
         <v>60.93000030517578</v>
       </c>
       <c r="F45">
-        <v>55.91877746582031</v>
+        <v>55.91878509521484</v>
       </c>
       <c r="G45">
         <v>149711200</v>
@@ -23361,7 +23361,7 @@
         <v>62.18000030517578</v>
       </c>
       <c r="F46">
-        <v>57.06597518920898</v>
+        <v>57.06597137451172</v>
       </c>
       <c r="G46">
         <v>130573700</v>
@@ -23384,7 +23384,7 @@
         <v>62.59000015258789</v>
       </c>
       <c r="F47">
-        <v>57.44225692749023</v>
+        <v>57.4422492980957</v>
       </c>
       <c r="G47">
         <v>91998900</v>
@@ -23407,7 +23407,7 @@
         <v>63.11999893188477</v>
       </c>
       <c r="F48">
-        <v>57.92865753173828</v>
+        <v>57.92866134643555</v>
       </c>
       <c r="G48">
         <v>82352600</v>
@@ -23430,7 +23430,7 @@
         <v>64.47000122070312</v>
       </c>
       <c r="F49">
-        <v>59.16764068603516</v>
+        <v>59.16762542724609</v>
       </c>
       <c r="G49">
         <v>105882100</v>
@@ -23453,7 +23453,7 @@
         <v>65.01999664306641</v>
       </c>
       <c r="F50">
-        <v>59.67239761352539</v>
+        <v>59.67239379882812</v>
       </c>
       <c r="G50">
         <v>89614400</v>
@@ -23476,7 +23476,7 @@
         <v>63.81999969482422</v>
       </c>
       <c r="F51">
-        <v>58.57109451293945</v>
+        <v>58.57109069824219</v>
       </c>
       <c r="G51">
         <v>88132700</v>
@@ -23522,7 +23522,7 @@
         <v>61.25</v>
       </c>
       <c r="F53">
-        <v>56.96791458129883</v>
+        <v>56.96791076660156</v>
       </c>
       <c r="G53">
         <v>84029600</v>
@@ -23545,7 +23545,7 @@
         <v>60.88999938964844</v>
       </c>
       <c r="F54">
-        <v>56.63308715820312</v>
+        <v>56.63308334350586</v>
       </c>
       <c r="G54">
         <v>135787500</v>
@@ -23568,7 +23568,7 @@
         <v>63.0099983215332</v>
       </c>
       <c r="F55">
-        <v>58.60487365722656</v>
+        <v>58.6048698425293</v>
       </c>
       <c r="G55">
         <v>92078000</v>
@@ -23591,7 +23591,7 @@
         <v>60.02999877929688</v>
       </c>
       <c r="F56">
-        <v>55.83320617675781</v>
+        <v>55.83320236206055</v>
       </c>
       <c r="G56">
         <v>125832600</v>
@@ -23614,7 +23614,7 @@
         <v>61.02000045776367</v>
       </c>
       <c r="F57">
-        <v>56.75399780273438</v>
+        <v>56.75399398803711</v>
       </c>
       <c r="G57">
         <v>69219800</v>
@@ -23637,7 +23637,7 @@
         <v>61.18999862670898</v>
       </c>
       <c r="F58">
-        <v>56.912109375</v>
+        <v>56.91210556030273</v>
       </c>
       <c r="G58">
         <v>64120600</v>
@@ -23683,7 +23683,7 @@
         <v>71.87000274658203</v>
       </c>
       <c r="F60">
-        <v>66.84545135498047</v>
+        <v>66.845458984375</v>
       </c>
       <c r="G60">
         <v>122797600</v>
@@ -23706,7 +23706,7 @@
         <v>72.16999816894531</v>
       </c>
       <c r="F61">
-        <v>67.12448120117188</v>
+        <v>67.12447357177734</v>
       </c>
       <c r="G61">
         <v>122042600</v>
@@ -23729,7 +23729,7 @@
         <v>75.27999877929688</v>
       </c>
       <c r="F62">
-        <v>70.01704406738281</v>
+        <v>70.01705932617188</v>
       </c>
       <c r="G62">
         <v>175808200</v>
@@ -23752,7 +23752,7 @@
         <v>81.41000366210938</v>
       </c>
       <c r="F63">
-        <v>75.71848297119141</v>
+        <v>75.71849822998047</v>
       </c>
       <c r="G63">
         <v>188144800</v>
@@ -23775,7 +23775,7 @@
         <v>80.20999908447266</v>
       </c>
       <c r="F64">
-        <v>74.60238647460938</v>
+        <v>74.60239410400391</v>
       </c>
       <c r="G64">
         <v>179941400</v>
@@ -23798,7 +23798,7 @@
         <v>77.36000061035156</v>
       </c>
       <c r="F65">
-        <v>72.74928283691406</v>
+        <v>72.74929046630859</v>
       </c>
       <c r="G65">
         <v>128595300</v>
@@ -23821,7 +23821,7 @@
         <v>77.83999633789062</v>
       </c>
       <c r="F66">
-        <v>73.20067596435547</v>
+        <v>73.20066833496094</v>
       </c>
       <c r="G66">
         <v>135843000</v>
@@ -23867,7 +23867,7 @@
         <v>84.91999816894531</v>
       </c>
       <c r="F68">
-        <v>79.85871124267578</v>
+        <v>79.85870361328125</v>
       </c>
       <c r="G68">
         <v>272704500</v>
@@ -23890,7 +23890,7 @@
         <v>78.66999816894531</v>
       </c>
       <c r="F69">
-        <v>73.981201171875</v>
+        <v>73.98121643066406</v>
       </c>
       <c r="G69">
         <v>198736200</v>
@@ -23913,7 +23913,7 @@
         <v>85.19999694824219</v>
       </c>
       <c r="F70">
-        <v>80.12203216552734</v>
+        <v>80.12201690673828</v>
       </c>
       <c r="G70">
         <v>126207700</v>
@@ -23982,7 +23982,7 @@
         <v>87.83000183105469</v>
       </c>
       <c r="F73">
-        <v>82.59528350830078</v>
+        <v>82.59526824951172</v>
       </c>
       <c r="G73">
         <v>88117500</v>
@@ -24028,7 +24028,7 @@
         <v>85.25</v>
       </c>
       <c r="F75">
-        <v>80.16903686523438</v>
+        <v>80.16904449462891</v>
       </c>
       <c r="G75">
         <v>167753100</v>
@@ -24051,7 +24051,7 @@
         <v>91.69000244140625</v>
       </c>
       <c r="F76">
-        <v>86.22522735595703</v>
+        <v>86.22521209716797</v>
       </c>
       <c r="G76">
         <v>187064400</v>
@@ -24097,7 +24097,7 @@
         <v>91.86000061035156</v>
       </c>
       <c r="F78">
-        <v>87.26994323730469</v>
+        <v>87.26993560791016</v>
       </c>
       <c r="G78">
         <v>127855500</v>
@@ -24120,7 +24120,7 @@
         <v>97.58999633789062</v>
       </c>
       <c r="F79">
-        <v>92.71363067626953</v>
+        <v>92.713623046875</v>
       </c>
       <c r="G79">
         <v>131384000</v>
@@ -24143,7 +24143,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="F80">
-        <v>94.138671875</v>
+        <v>94.13867950439453</v>
       </c>
       <c r="G80">
         <v>110830800</v>
@@ -24304,7 +24304,7 @@
         <v>87.08000183105469</v>
       </c>
       <c r="F87">
-        <v>82.72879791259766</v>
+        <v>82.72879028320312</v>
       </c>
       <c r="G87">
         <v>91084300</v>
@@ -24373,7 +24373,7 @@
         <v>94</v>
       </c>
       <c r="F90">
-        <v>89.30301666259766</v>
+        <v>89.30300903320312</v>
       </c>
       <c r="G90">
         <v>85700000</v>
@@ -24396,7 +24396,7 @@
         <v>94.08000183105469</v>
       </c>
       <c r="F91">
-        <v>90.24744415283203</v>
+        <v>90.24745178222656</v>
       </c>
       <c r="G91">
         <v>82370400</v>
@@ -24419,7 +24419,7 @@
         <v>97.87000274658203</v>
       </c>
       <c r="F92">
-        <v>93.88304901123047</v>
+        <v>93.883056640625</v>
       </c>
       <c r="G92">
         <v>87672000</v>
@@ -24442,7 +24442,7 @@
         <v>95.58999633789062</v>
       </c>
       <c r="F93">
-        <v>91.69593048095703</v>
+        <v>91.6959228515625</v>
       </c>
       <c r="G93">
         <v>93116700</v>
@@ -24511,7 +24511,7 @@
         <v>85.75</v>
       </c>
       <c r="F96">
-        <v>82.25678253173828</v>
+        <v>82.25679016113281</v>
       </c>
       <c r="G96">
         <v>91265200</v>
@@ -24534,7 +24534,7 @@
         <v>87.30999755859375</v>
       </c>
       <c r="F97">
-        <v>83.75323486328125</v>
+        <v>83.75322723388672</v>
       </c>
       <c r="G97">
         <v>98147600</v>
@@ -24557,7 +24557,7 @@
         <v>101.0299987792969</v>
       </c>
       <c r="F98">
-        <v>96.91432189941406</v>
+        <v>96.91431427001953</v>
       </c>
       <c r="G98">
         <v>134505000</v>
@@ -24580,7 +24580,7 @@
         <v>99.19000244140625</v>
       </c>
       <c r="F99">
-        <v>95.14927673339844</v>
+        <v>95.14928436279297</v>
       </c>
       <c r="G99">
         <v>84467100</v>
@@ -24649,7 +24649,7 @@
         <v>112.3099975585938</v>
       </c>
       <c r="F102">
-        <v>107.7347946166992</v>
+        <v>107.7348022460938</v>
       </c>
       <c r="G102">
         <v>103914300</v>
@@ -24672,7 +24672,7 @@
         <v>113.9499969482422</v>
       </c>
       <c r="F103">
-        <v>109.307991027832</v>
+        <v>109.3079986572266</v>
       </c>
       <c r="G103">
         <v>90857400</v>
@@ -24695,7 +24695,7 @@
         <v>112.0800018310547</v>
       </c>
       <c r="F104">
-        <v>107.5141830444336</v>
+        <v>107.5141754150391</v>
       </c>
       <c r="G104">
         <v>81664000</v>
@@ -24718,7 +24718,7 @@
         <v>113.2099990844727</v>
       </c>
       <c r="F105">
-        <v>109.4723892211914</v>
+        <v>109.4723815917969</v>
       </c>
       <c r="G105">
         <v>57374800</v>
@@ -24741,7 +24741,7 @@
         <v>109.8600006103516</v>
       </c>
       <c r="F106">
-        <v>106.2329788208008</v>
+        <v>106.2329864501953</v>
       </c>
       <c r="G106">
         <v>90273500</v>
@@ -24764,7 +24764,7 @@
         <v>103.5400009155273</v>
       </c>
       <c r="F107">
-        <v>100.1216430664062</v>
+        <v>100.1216354370117</v>
       </c>
       <c r="G107">
         <v>102973400</v>
@@ -24833,7 +24833,7 @@
         <v>110.3000030517578</v>
       </c>
       <c r="F110">
-        <v>106.6584548950195</v>
+        <v>106.6584625244141</v>
       </c>
       <c r="G110">
         <v>44997800</v>
@@ -24856,7 +24856,7 @@
         <v>110.5299987792969</v>
       </c>
       <c r="F111">
-        <v>106.880859375</v>
+        <v>106.8808670043945</v>
       </c>
       <c r="G111">
         <v>65499300</v>
@@ -24879,7 +24879,7 @@
         <v>113.1500015258789</v>
       </c>
       <c r="F112">
-        <v>109.4143600463867</v>
+        <v>109.4143676757812</v>
       </c>
       <c r="G112">
         <v>77148300</v>
@@ -24925,7 +24925,7 @@
         <v>115.6100006103516</v>
       </c>
       <c r="F114">
-        <v>111.7931442260742</v>
+        <v>111.7931518554688</v>
       </c>
       <c r="G114">
         <v>78281000</v>
@@ -24948,7 +24948,7 @@
         <v>111.9199981689453</v>
       </c>
       <c r="F115">
-        <v>108.224967956543</v>
+        <v>108.2249755859375</v>
       </c>
       <c r="G115">
         <v>110787500</v>
@@ -24971,7 +24971,7 @@
         <v>119.1699981689453</v>
       </c>
       <c r="F116">
-        <v>115.2356185913086</v>
+        <v>115.2356109619141</v>
       </c>
       <c r="G116">
         <v>90686100</v>
@@ -25040,7 +25040,7 @@
         <v>112.8099975585938</v>
       </c>
       <c r="F119">
-        <v>109.9249954223633</v>
+        <v>109.9249877929688</v>
       </c>
       <c r="G119">
         <v>66364100</v>
@@ -25132,7 +25132,7 @@
         <v>109.6600036621094</v>
       </c>
       <c r="F123">
-        <v>106.8555526733398</v>
+        <v>106.8555450439453</v>
       </c>
       <c r="G123">
         <v>66068800</v>
@@ -25178,7 +25178,7 @@
         <v>116.0500030517578</v>
       </c>
       <c r="F125">
-        <v>113.0821304321289</v>
+        <v>113.0821380615234</v>
       </c>
       <c r="G125">
         <v>59614600</v>
@@ -25247,7 +25247,7 @@
         <v>108.6800003051758</v>
       </c>
       <c r="F128">
-        <v>105.9006118774414</v>
+        <v>105.9006195068359</v>
       </c>
       <c r="G128">
         <v>90033300</v>
@@ -25270,7 +25270,7 @@
         <v>105.7799987792969</v>
       </c>
       <c r="F129">
-        <v>103.0747833251953</v>
+        <v>103.0747756958008</v>
       </c>
       <c r="G129">
         <v>67217600</v>
@@ -25293,7 +25293,7 @@
         <v>106.2600021362305</v>
       </c>
       <c r="F130">
-        <v>103.5425033569336</v>
+        <v>103.5425109863281</v>
       </c>
       <c r="G130">
         <v>67938800</v>
@@ -25362,7 +25362,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F133">
-        <v>105.551643371582</v>
+        <v>105.5516357421875</v>
       </c>
       <c r="G133">
         <v>64633600</v>
@@ -25431,7 +25431,7 @@
         <v>107.25</v>
       </c>
       <c r="F136">
-        <v>105.4140319824219</v>
+        <v>105.4140396118164</v>
       </c>
       <c r="G136">
         <v>65502100</v>
@@ -25454,7 +25454,7 @@
         <v>103.1600036621094</v>
       </c>
       <c r="F137">
-        <v>101.3940582275391</v>
+        <v>101.3940505981445</v>
       </c>
       <c r="G137">
         <v>59776200</v>
@@ -25500,7 +25500,7 @@
         <v>103.8899993896484</v>
       </c>
       <c r="F139">
-        <v>102.1115570068359</v>
+        <v>102.1115493774414</v>
       </c>
       <c r="G139">
         <v>91065400</v>
@@ -25546,7 +25546,7 @@
         <v>107.4199981689453</v>
       </c>
       <c r="F141">
-        <v>105.5811233520508</v>
+        <v>105.5811157226562</v>
       </c>
       <c r="G141">
         <v>82414600</v>
@@ -26088,7 +26088,7 @@
         <v>287.8999938964844</v>
       </c>
       <c r="F6">
-        <v>285.4738159179688</v>
+        <v>285.4738464355469</v>
       </c>
       <c r="G6">
         <v>6829150</v>
@@ -26180,7 +26180,7 @@
         <v>266.7999877929688</v>
       </c>
       <c r="F10">
-        <v>264.5516662597656</v>
+        <v>264.5516357421875</v>
       </c>
       <c r="G10">
         <v>21048730</v>
@@ -26226,7 +26226,7 @@
         <v>260.2000122070312</v>
       </c>
       <c r="F12">
-        <v>258.0072937011719</v>
+        <v>258.0072631835938</v>
       </c>
       <c r="G12">
         <v>22484275</v>
@@ -26272,7 +26272,7 @@
         <v>230.8999938964844</v>
       </c>
       <c r="F14">
-        <v>228.9541931152344</v>
+        <v>228.9541778564453</v>
       </c>
       <c r="G14">
         <v>24269195</v>
@@ -26295,7 +26295,7 @@
         <v>208.5</v>
       </c>
       <c r="F15">
-        <v>206.7429504394531</v>
+        <v>206.7429656982422</v>
       </c>
       <c r="G15">
         <v>20268320</v>
@@ -26341,7 +26341,7 @@
         <v>223.1000061035156</v>
       </c>
       <c r="F17">
-        <v>221.2199401855469</v>
+        <v>221.2199249267578</v>
       </c>
       <c r="G17">
         <v>22177220</v>
@@ -26387,7 +26387,7 @@
         <v>260.3999938964844</v>
       </c>
       <c r="F19">
-        <v>258.2055969238281</v>
+        <v>258.20556640625</v>
       </c>
       <c r="G19">
         <v>12848330</v>
@@ -26410,7 +26410,7 @@
         <v>250.9600067138672</v>
       </c>
       <c r="F20">
-        <v>248.8451385498047</v>
+        <v>248.8451538085938</v>
       </c>
       <c r="G20">
         <v>15536010</v>
@@ -29712,7 +29712,7 @@
         <v>533.966796875</v>
       </c>
       <c r="F5">
-        <v>173.0670013427734</v>
+        <v>173.0670166015625</v>
       </c>
       <c r="G5">
         <v>5506662</v>
@@ -29804,7 +29804,7 @@
         <v>377.3635864257812</v>
       </c>
       <c r="F9">
-        <v>140.7570343017578</v>
+        <v>140.7570190429688</v>
       </c>
       <c r="G9">
         <v>4637217</v>
@@ -29827,7 +29827,7 @@
         <v>382.6665954589844</v>
       </c>
       <c r="F10">
-        <v>142.7350463867188</v>
+        <v>142.7350616455078</v>
       </c>
       <c r="G10">
         <v>4554543</v>
@@ -29942,7 +29942,7 @@
         <v>434</v>
       </c>
       <c r="F15">
-        <v>161.8824768066406</v>
+        <v>161.8824615478516</v>
       </c>
       <c r="G15">
         <v>2442336</v>
@@ -30011,7 +30011,7 @@
         <v>374.1817932128906</v>
       </c>
       <c r="F18">
-        <v>139.5702056884766</v>
+        <v>139.5702209472656</v>
       </c>
       <c r="G18">
         <v>3332056</v>
@@ -30080,7 +30080,7 @@
         <v>357.6362915039062</v>
       </c>
       <c r="F21">
-        <v>133.3987274169922</v>
+        <v>133.3987121582031</v>
       </c>
       <c r="G21">
         <v>2448932</v>
@@ -30149,7 +30149,7 @@
         <v>368.6665954589844</v>
       </c>
       <c r="F24">
-        <v>137.5130462646484</v>
+        <v>137.5130310058594</v>
       </c>
       <c r="G24">
         <v>1981822</v>
@@ -30195,7 +30195,7 @@
         <v>345.3333129882812</v>
       </c>
       <c r="F26">
-        <v>128.8096923828125</v>
+        <v>128.8097076416016</v>
       </c>
       <c r="G26">
         <v>2579341</v>
@@ -30264,7 +30264,7 @@
         <v>353.1817932128906</v>
       </c>
       <c r="F29">
-        <v>131.7371978759766</v>
+        <v>131.7371826171875</v>
       </c>
       <c r="G29">
         <v>2061983</v>
@@ -30310,7 +30310,7 @@
         <v>345.3333129882812</v>
       </c>
       <c r="F31">
-        <v>128.8096923828125</v>
+        <v>128.8097076416016</v>
       </c>
       <c r="G31">
         <v>2393569</v>
@@ -30379,7 +30379,7 @@
         <v>295.9089965820312</v>
       </c>
       <c r="F34">
-        <v>110.3743743896484</v>
+        <v>110.3743667602539</v>
       </c>
       <c r="G34">
         <v>3241774</v>
@@ -30402,7 +30402,7 @@
         <v>285.3030090332031</v>
       </c>
       <c r="F35">
-        <v>106.418327331543</v>
+        <v>106.4183349609375</v>
       </c>
       <c r="G35">
         <v>3449745</v>
@@ -30471,7 +30471,7 @@
         <v>390.5151062011719</v>
       </c>
       <c r="F38">
-        <v>145.6625671386719</v>
+        <v>145.6625518798828</v>
       </c>
       <c r="G38">
         <v>9416191</v>
@@ -30632,7 +30632,7 @@
         <v>401.3333129882812</v>
       </c>
       <c r="F45">
-        <v>149.6977691650391</v>
+        <v>149.69775390625</v>
       </c>
       <c r="G45">
         <v>5516708</v>
@@ -30678,7 +30678,7 @@
         <v>405.5757141113281</v>
       </c>
       <c r="F47">
-        <v>151.2801666259766</v>
+        <v>151.2801818847656</v>
       </c>
       <c r="G47">
         <v>2835555</v>
@@ -30701,7 +30701,7 @@
         <v>398.3635864257812</v>
       </c>
       <c r="F48">
-        <v>148.5900421142578</v>
+        <v>148.5900573730469</v>
       </c>
       <c r="G48">
         <v>3539943</v>
@@ -30816,7 +30816,7 @@
         <v>384.1514892578125</v>
       </c>
       <c r="F53">
-        <v>143.2889099121094</v>
+        <v>143.2889251708984</v>
       </c>
       <c r="G53">
         <v>2309472</v>
@@ -30885,7 +30885,7 @@
         <v>391.3635864257812</v>
       </c>
       <c r="F56">
-        <v>145.9790496826172</v>
+        <v>145.9790344238281</v>
       </c>
       <c r="G56">
         <v>3179865</v>
@@ -30954,7 +30954,7 @@
         <v>413.6362915039062</v>
       </c>
       <c r="F59">
-        <v>154.2867889404297</v>
+        <v>154.2867736816406</v>
       </c>
       <c r="G59">
         <v>4601362</v>
@@ -31138,7 +31138,7 @@
         <v>448</v>
       </c>
       <c r="F67">
-        <v>167.1044921875</v>
+        <v>167.1044769287109</v>
       </c>
       <c r="G67">
         <v>11152404</v>
@@ -31161,7 +31161,7 @@
         <v>405.3635864257812</v>
       </c>
       <c r="F68">
-        <v>151.2010498046875</v>
+        <v>151.2010650634766</v>
       </c>
       <c r="G68">
         <v>11960717</v>
@@ -31230,7 +31230,7 @@
         <v>476.848388671875</v>
       </c>
       <c r="F71">
-        <v>177.8649597167969</v>
+        <v>177.8649749755859</v>
       </c>
       <c r="G71">
         <v>10497256</v>
@@ -31276,7 +31276,7 @@
         <v>441.6362915039062</v>
       </c>
       <c r="F73">
-        <v>164.7308044433594</v>
+        <v>164.7308197021484</v>
       </c>
       <c r="G73">
         <v>8490843</v>
@@ -31368,7 +31368,7 @@
         <v>428.9089965820312</v>
       </c>
       <c r="F77">
-        <v>159.9835052490234</v>
+        <v>159.9835205078125</v>
       </c>
       <c r="G77">
         <v>7592904</v>
@@ -31391,7 +31391,7 @@
         <v>428.4848022460938</v>
       </c>
       <c r="F78">
-        <v>159.8252868652344</v>
+        <v>159.8253021240234</v>
       </c>
       <c r="G78">
         <v>4193080</v>
@@ -31414,7 +31414,7 @@
         <v>416.818115234375</v>
       </c>
       <c r="F79">
-        <v>155.4736022949219</v>
+        <v>155.4736175537109</v>
       </c>
       <c r="G79">
         <v>4727180</v>
@@ -31529,7 +31529,7 @@
         <v>452.6665954589844</v>
       </c>
       <c r="F84">
-        <v>168.8451232910156</v>
+        <v>168.8451385498047</v>
       </c>
       <c r="G84">
         <v>2196335</v>
@@ -31598,7 +31598,7 @@
         <v>458.1817932128906</v>
       </c>
       <c r="F87">
-        <v>170.9023132324219</v>
+        <v>170.9022979736328</v>
       </c>
       <c r="G87">
         <v>1885086</v>
@@ -31736,7 +31736,7 @@
         <v>498.4848022460938</v>
       </c>
       <c r="F93">
-        <v>185.9353637695312</v>
+        <v>185.9353790283203</v>
       </c>
       <c r="G93">
         <v>1276157</v>
@@ -31782,7 +31782,7 @@
         <v>500.1817932128906</v>
       </c>
       <c r="F95">
-        <v>186.5683441162109</v>
+        <v>186.568359375</v>
       </c>
       <c r="G95">
         <v>3556637</v>
@@ -31805,7 +31805,7 @@
         <v>500.6059875488281</v>
       </c>
       <c r="F96">
-        <v>186.7265625</v>
+        <v>186.7265777587891</v>
       </c>
       <c r="G96">
         <v>1551097</v>
@@ -32035,7 +32035,7 @@
         <v>529.4545288085938</v>
       </c>
       <c r="F106">
-        <v>197.4871215820312</v>
+        <v>197.4871063232422</v>
       </c>
       <c r="G106">
         <v>19652237</v>
@@ -32127,7 +32127,7 @@
         <v>555.3333129882812</v>
       </c>
       <c r="F110">
-        <v>207.1399230957031</v>
+        <v>207.1399383544922</v>
       </c>
       <c r="G110">
         <v>2244806</v>
@@ -32219,7 +32219,7 @@
         <v>518</v>
       </c>
       <c r="F114">
-        <v>193.2145690917969</v>
+        <v>193.2145538330078</v>
       </c>
       <c r="G114">
         <v>2187476</v>
@@ -32380,7 +32380,7 @@
         <v>494.6665954589844</v>
       </c>
       <c r="F121">
-        <v>184.5111846923828</v>
+        <v>184.5111694335938</v>
       </c>
       <c r="G121">
         <v>3487041</v>
@@ -32472,7 +32472,7 @@
         <v>520.9696044921875</v>
       </c>
       <c r="F125">
-        <v>194.3222351074219</v>
+        <v>194.3222198486328</v>
       </c>
       <c r="G125">
         <v>1305878</v>
@@ -32541,7 +32541,7 @@
         <v>476</v>
       </c>
       <c r="F128">
-        <v>177.5485076904297</v>
+        <v>177.5485229492188</v>
       </c>
       <c r="G128">
         <v>1782145</v>
@@ -32587,7 +32587,7 @@
         <v>195</v>
       </c>
       <c r="F130">
-        <v>72.73520660400391</v>
+        <v>72.73521423339844</v>
       </c>
       <c r="G130">
         <v>3458985</v>
@@ -40584,7 +40584,7 @@
         <v>8.390999794006348</v>
       </c>
       <c r="F2">
-        <v>6.798795223236084</v>
+        <v>6.798794746398926</v>
       </c>
       <c r="G2">
         <v>80769388</v>
@@ -40653,7 +40653,7 @@
         <v>7.916999816894531</v>
       </c>
       <c r="F5">
-        <v>6.414737224578857</v>
+        <v>6.414737701416016</v>
       </c>
       <c r="G5">
         <v>70864487</v>
@@ -40676,7 +40676,7 @@
         <v>7.640999794006348</v>
       </c>
       <c r="F6">
-        <v>6.191108703613281</v>
+        <v>6.191108226776123</v>
       </c>
       <c r="G6">
         <v>32818385</v>
@@ -40699,7 +40699,7 @@
         <v>8.293000221252441</v>
       </c>
       <c r="F7">
-        <v>6.719390869140625</v>
+        <v>6.719390392303467</v>
       </c>
       <c r="G7">
         <v>108492291</v>
@@ -40745,7 +40745,7 @@
         <v>7.710000038146973</v>
       </c>
       <c r="F9">
-        <v>6.247015953063965</v>
+        <v>6.247015476226807</v>
       </c>
       <c r="G9">
         <v>71666487</v>
@@ -40768,7 +40768,7 @@
         <v>7.375</v>
       </c>
       <c r="F10">
-        <v>5.975582599639893</v>
+        <v>5.975583076477051</v>
       </c>
       <c r="G10">
         <v>113387625</v>
@@ -40837,7 +40837,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F13">
-        <v>7.251724243164062</v>
+        <v>7.251723766326904</v>
       </c>
       <c r="G13">
         <v>136337639</v>
@@ -40860,7 +40860,7 @@
         <v>9.038999557495117</v>
       </c>
       <c r="F14">
-        <v>7.424025535583496</v>
+        <v>7.424025058746338</v>
       </c>
       <c r="G14">
         <v>118263554</v>
@@ -40906,7 +40906,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="F16">
-        <v>8.295459747314453</v>
+        <v>8.29545783996582</v>
       </c>
       <c r="G16">
         <v>118584830</v>
@@ -40952,7 +40952,7 @@
         <v>10.14599990844727</v>
       </c>
       <c r="F18">
-        <v>8.333239555358887</v>
+        <v>8.333240509033203</v>
       </c>
       <c r="G18">
         <v>77954116</v>
@@ -40998,7 +40998,7 @@
         <v>10.44600009918213</v>
       </c>
       <c r="F20">
-        <v>8.57964038848877</v>
+        <v>8.579639434814453</v>
       </c>
       <c r="G20">
         <v>63983251</v>
@@ -41021,7 +41021,7 @@
         <v>10.55599975585938</v>
       </c>
       <c r="F21">
-        <v>8.669987678527832</v>
+        <v>8.669986724853516</v>
       </c>
       <c r="G21">
         <v>73281621</v>
@@ -41044,7 +41044,7 @@
         <v>10.20400047302246</v>
       </c>
       <c r="F22">
-        <v>8.380877494812012</v>
+        <v>8.380878448486328</v>
       </c>
       <c r="G22">
         <v>74572984</v>
@@ -41090,7 +41090,7 @@
         <v>10.81400012969971</v>
       </c>
       <c r="F24">
-        <v>8.881890296936035</v>
+        <v>8.881891250610352</v>
       </c>
       <c r="G24">
         <v>84913835</v>
@@ -41159,7 +41159,7 @@
         <v>11.41600036621094</v>
       </c>
       <c r="F27">
-        <v>9.37633228302002</v>
+        <v>9.376334190368652</v>
       </c>
       <c r="G27">
         <v>89538717</v>
@@ -41205,7 +41205,7 @@
         <v>11.13799953460693</v>
       </c>
       <c r="F29">
-        <v>9.148001670837402</v>
+        <v>9.148000717163086</v>
       </c>
       <c r="G29">
         <v>68994881</v>
@@ -41297,7 +41297,7 @@
         <v>10.87600040435791</v>
       </c>
       <c r="F33">
-        <v>8.93281364440918</v>
+        <v>8.932812690734863</v>
       </c>
       <c r="G33">
         <v>71678252</v>
@@ -41320,7 +41320,7 @@
         <v>10.45600032806396</v>
       </c>
       <c r="F34">
-        <v>8.58785343170166</v>
+        <v>8.587854385375977</v>
       </c>
       <c r="G34">
         <v>61493490</v>
@@ -41389,7 +41389,7 @@
         <v>11.54199981689453</v>
       </c>
       <c r="F37">
-        <v>9.47982120513916</v>
+        <v>9.479820251464844</v>
       </c>
       <c r="G37">
         <v>72263104</v>
@@ -41458,7 +41458,7 @@
         <v>11.66199970245361</v>
       </c>
       <c r="F40">
-        <v>9.578380584716797</v>
+        <v>9.578381538391113</v>
       </c>
       <c r="G40">
         <v>47617541</v>
@@ -41527,7 +41527,7 @@
         <v>11.69799995422363</v>
       </c>
       <c r="F43">
-        <v>9.607948303222656</v>
+        <v>9.607950210571289</v>
       </c>
       <c r="G43">
         <v>91358027</v>
@@ -41665,7 +41665,7 @@
         <v>13.11999988555908</v>
       </c>
       <c r="F49">
-        <v>11.2060604095459</v>
+        <v>11.20605850219727</v>
       </c>
       <c r="G49">
         <v>71974180</v>
@@ -41734,7 +41734,7 @@
         <v>12.82999992370605</v>
       </c>
       <c r="F52">
-        <v>10.95836353302002</v>
+        <v>10.95836448669434</v>
       </c>
       <c r="G52">
         <v>83969673</v>
@@ -41757,7 +41757,7 @@
         <v>12.0959997177124</v>
       </c>
       <c r="F53">
-        <v>10.33143997192383</v>
+        <v>10.33143901824951</v>
       </c>
       <c r="G53">
         <v>96446104</v>
@@ -41780,7 +41780,7 @@
         <v>12.28800010681152</v>
       </c>
       <c r="F54">
-        <v>10.49542999267578</v>
+        <v>10.4954309463501</v>
       </c>
       <c r="G54">
         <v>121222387</v>
@@ -41826,7 +41826,7 @@
         <v>11.92399978637695</v>
       </c>
       <c r="F56">
-        <v>10.18453025817871</v>
+        <v>10.18453121185303</v>
       </c>
       <c r="G56">
         <v>88859845</v>
@@ -41849,7 +41849,7 @@
         <v>12.21000003814697</v>
       </c>
       <c r="F57">
-        <v>10.42880821228027</v>
+        <v>10.42881011962891</v>
       </c>
       <c r="G57">
         <v>58898039</v>
@@ -41872,7 +41872,7 @@
         <v>12.24199962615967</v>
       </c>
       <c r="F58">
-        <v>10.45614051818848</v>
+        <v>10.45614147186279</v>
       </c>
       <c r="G58">
         <v>28675317</v>
@@ -41918,7 +41918,7 @@
         <v>13.52000045776367</v>
       </c>
       <c r="F60">
-        <v>11.54770660400391</v>
+        <v>11.54770755767822</v>
       </c>
       <c r="G60">
         <v>66370498</v>
@@ -41941,7 +41941,7 @@
         <v>12.97799968719482</v>
       </c>
       <c r="F61">
-        <v>11.08477210998535</v>
+        <v>11.08477306365967</v>
       </c>
       <c r="G61">
         <v>58612761</v>
@@ -42010,7 +42010,7 @@
         <v>13.4060001373291</v>
       </c>
       <c r="F64">
-        <v>11.45033645629883</v>
+        <v>11.45033740997314</v>
       </c>
       <c r="G64">
         <v>93196125</v>
@@ -42033,7 +42033,7 @@
         <v>12.60999965667725</v>
       </c>
       <c r="F65">
-        <v>10.77045726776123</v>
+        <v>10.77045631408691</v>
       </c>
       <c r="G65">
         <v>76629029</v>
@@ -42125,7 +42125,7 @@
         <v>9.510000228881836</v>
       </c>
       <c r="F69">
-        <v>8.122685432434082</v>
+        <v>8.122684478759766</v>
       </c>
       <c r="G69">
         <v>135385738</v>
@@ -42171,7 +42171,7 @@
         <v>9.611000061035156</v>
       </c>
       <c r="F71">
-        <v>8.208950996398926</v>
+        <v>8.208949089050293</v>
       </c>
       <c r="G71">
         <v>111422505</v>
@@ -42217,7 +42217,7 @@
         <v>9.447999954223633</v>
       </c>
       <c r="F73">
-        <v>8.069727897644043</v>
+        <v>8.069728851318359</v>
       </c>
       <c r="G73">
         <v>58852749</v>
@@ -42240,7 +42240,7 @@
         <v>9.625</v>
       </c>
       <c r="F74">
-        <v>8.220909118652344</v>
+        <v>8.220907211303711</v>
       </c>
       <c r="G74">
         <v>62808783</v>
@@ -42263,7 +42263,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F75">
-        <v>7.772495746612549</v>
+        <v>7.772494792938232</v>
       </c>
       <c r="G75">
         <v>94556471</v>
@@ -42286,7 +42286,7 @@
         <v>8.701999664306641</v>
       </c>
       <c r="F76">
-        <v>7.775223255157471</v>
+        <v>7.775222301483154</v>
       </c>
       <c r="G76">
         <v>95642286</v>
@@ -42355,7 +42355,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="F79">
-        <v>9.354135513305664</v>
+        <v>9.354134559631348</v>
       </c>
       <c r="G79">
         <v>74135048</v>
@@ -42378,7 +42378,7 @@
         <v>10.35400009155273</v>
       </c>
       <c r="F80">
-        <v>9.504682540893555</v>
+        <v>9.504683494567871</v>
       </c>
       <c r="G80">
         <v>86812094</v>
@@ -42424,7 +42424,7 @@
         <v>9.675999641418457</v>
       </c>
       <c r="F82">
-        <v>8.882297515869141</v>
+        <v>8.882298469543457</v>
       </c>
       <c r="G82">
         <v>127870716</v>
@@ -42470,7 +42470,7 @@
         <v>9.435999870300293</v>
       </c>
       <c r="F84">
-        <v>8.661984443664551</v>
+        <v>8.661985397338867</v>
       </c>
       <c r="G84">
         <v>73688941</v>
@@ -42562,7 +42562,7 @@
         <v>9.491000175476074</v>
       </c>
       <c r="F88">
-        <v>8.712472915649414</v>
+        <v>8.712471961975098</v>
       </c>
       <c r="G88">
         <v>76811590</v>
@@ -44300,7 +44300,7 @@
         <v>117</v>
       </c>
       <c r="F5">
-        <v>107.6848983764648</v>
+        <v>107.6849060058594</v>
       </c>
       <c r="G5">
         <v>5462633</v>
@@ -44438,7 +44438,7 @@
         <v>133.3000030517578</v>
       </c>
       <c r="F11">
-        <v>122.6871566772461</v>
+        <v>122.6871490478516</v>
       </c>
       <c r="G11">
         <v>10800293</v>
@@ -44484,7 +44484,7 @@
         <v>132.4799957275391</v>
       </c>
       <c r="F13">
-        <v>125.1533050537109</v>
+        <v>125.1532974243164</v>
       </c>
       <c r="G13">
         <v>7362252</v>
@@ -44507,7 +44507,7 @@
         <v>127.9800033569336</v>
       </c>
       <c r="F14">
-        <v>120.9021835327148</v>
+        <v>120.9021759033203</v>
       </c>
       <c r="G14">
         <v>7436064</v>
@@ -44530,7 +44530,7 @@
         <v>129.1199951171875</v>
       </c>
       <c r="F15">
-        <v>121.9791259765625</v>
+        <v>121.979118347168</v>
       </c>
       <c r="G15">
         <v>7728217</v>
@@ -44553,7 +44553,7 @@
         <v>135.3800048828125</v>
       </c>
       <c r="F16">
-        <v>127.8929214477539</v>
+        <v>127.8929290771484</v>
       </c>
       <c r="G16">
         <v>7913290</v>
@@ -44576,7 +44576,7 @@
         <v>137.7599945068359</v>
       </c>
       <c r="F17">
-        <v>130.1412963867188</v>
+        <v>130.1412811279297</v>
       </c>
       <c r="G17">
         <v>12157431</v>
@@ -44622,7 +44622,7 @@
         <v>140.8000030517578</v>
       </c>
       <c r="F19">
-        <v>133.01318359375</v>
+        <v>133.0131683349609</v>
       </c>
       <c r="G19">
         <v>5683962</v>
@@ -44645,7 +44645,7 @@
         <v>140.3999938964844</v>
       </c>
       <c r="F20">
-        <v>132.6352996826172</v>
+        <v>132.6352844238281</v>
       </c>
       <c r="G20">
         <v>4906034</v>
@@ -44668,7 +44668,7 @@
         <v>145.9600067138672</v>
       </c>
       <c r="F21">
-        <v>137.8878021240234</v>
+        <v>137.8878173828125</v>
       </c>
       <c r="G21">
         <v>7684058</v>
@@ -44806,7 +44806,7 @@
         <v>134.8999938964844</v>
       </c>
       <c r="F27">
-        <v>127.4394607543945</v>
+        <v>127.439453125</v>
       </c>
       <c r="G27">
         <v>12559757</v>
@@ -44829,7 +44829,7 @@
         <v>136</v>
       </c>
       <c r="F28">
-        <v>128.4786376953125</v>
+        <v>128.4786224365234</v>
       </c>
       <c r="G28">
         <v>5153152</v>
@@ -44898,7 +44898,7 @@
         <v>136.9199981689453</v>
       </c>
       <c r="F31">
-        <v>129.3477630615234</v>
+        <v>129.3477478027344</v>
       </c>
       <c r="G31">
         <v>7191392</v>
@@ -44921,7 +44921,7 @@
         <v>133.8600006103516</v>
       </c>
       <c r="F32">
-        <v>126.4569931030273</v>
+        <v>126.4569854736328</v>
       </c>
       <c r="G32">
         <v>6160148</v>
@@ -44990,7 +44990,7 @@
         <v>134.5599975585938</v>
       </c>
       <c r="F35">
-        <v>127.1182708740234</v>
+        <v>127.118278503418</v>
       </c>
       <c r="G35">
         <v>7213830</v>
@@ -45013,7 +45013,7 @@
         <v>131.5800018310547</v>
       </c>
       <c r="F36">
-        <v>124.3030776977539</v>
+        <v>124.3030853271484</v>
       </c>
       <c r="G36">
         <v>5067522</v>
@@ -45059,7 +45059,7 @@
         <v>142.1199951171875</v>
       </c>
       <c r="F38">
-        <v>134.2601623535156</v>
+        <v>134.2601776123047</v>
       </c>
       <c r="G38">
         <v>4180476</v>
@@ -45174,7 +45174,7 @@
         <v>149.5200042724609</v>
       </c>
       <c r="F43">
-        <v>141.2509155273438</v>
+        <v>141.2509307861328</v>
       </c>
       <c r="G43">
         <v>11286481</v>
@@ -45220,7 +45220,7 @@
         <v>137.6999969482422</v>
       </c>
       <c r="F45">
-        <v>130.0846252441406</v>
+        <v>130.0846099853516</v>
       </c>
       <c r="G45">
         <v>7039741</v>
@@ -45243,7 +45243,7 @@
         <v>137.6600036621094</v>
       </c>
       <c r="F46">
-        <v>130.0468292236328</v>
+        <v>130.0468444824219</v>
       </c>
       <c r="G46">
         <v>6009373</v>
@@ -45289,7 +45289,7 @@
         <v>139.5599975585938</v>
       </c>
       <c r="F48">
-        <v>131.8417358398438</v>
+        <v>131.8417510986328</v>
       </c>
       <c r="G48">
         <v>5356529</v>
@@ -45312,7 +45312,7 @@
         <v>140.2799987792969</v>
       </c>
       <c r="F49">
-        <v>132.5219268798828</v>
+        <v>132.5219421386719</v>
       </c>
       <c r="G49">
         <v>5708814</v>
@@ -45381,7 +45381,7 @@
         <v>155.1999969482422</v>
       </c>
       <c r="F52">
-        <v>146.6168060302734</v>
+        <v>146.6167907714844</v>
       </c>
       <c r="G52">
         <v>7817675</v>
@@ -45496,7 +45496,7 @@
         <v>150.2200012207031</v>
       </c>
       <c r="F57">
-        <v>141.9122161865234</v>
+        <v>141.9122009277344</v>
       </c>
       <c r="G57">
         <v>3639889</v>
@@ -45519,7 +45519,7 @@
         <v>152.6799926757812</v>
       </c>
       <c r="F58">
-        <v>144.2361602783203</v>
+        <v>144.2361450195312</v>
       </c>
       <c r="G58">
         <v>2633095</v>
@@ -47947,7 +47947,7 @@
         <v>28.81999969482422</v>
       </c>
       <c r="F5">
-        <v>24.97199821472168</v>
+        <v>24.97200012207031</v>
       </c>
       <c r="G5">
         <v>282798</v>
@@ -48039,7 +48039,7 @@
         <v>32.43999862670898</v>
       </c>
       <c r="F9">
-        <v>28.10866546630859</v>
+        <v>28.10866355895996</v>
       </c>
       <c r="G9">
         <v>800167</v>
@@ -48062,7 +48062,7 @@
         <v>30.05999946594238</v>
       </c>
       <c r="F10">
-        <v>26.04643821716309</v>
+        <v>26.04643630981445</v>
       </c>
       <c r="G10">
         <v>1215821</v>
@@ -48108,7 +48108,7 @@
         <v>36.70000076293945</v>
       </c>
       <c r="F12">
-        <v>31.79987525939941</v>
+        <v>31.79987907409668</v>
       </c>
       <c r="G12">
         <v>1036656</v>
@@ -48177,7 +48177,7 @@
         <v>36.04000091552734</v>
       </c>
       <c r="F15">
-        <v>31.22799682617188</v>
+        <v>31.22800064086914</v>
       </c>
       <c r="G15">
         <v>773573</v>
@@ -48246,7 +48246,7 @@
         <v>38.29999923706055</v>
       </c>
       <c r="F18">
-        <v>33.18624496459961</v>
+        <v>33.18624877929688</v>
       </c>
       <c r="G18">
         <v>902574</v>
@@ -48269,7 +48269,7 @@
         <v>38.09999847412109</v>
       </c>
       <c r="F19">
-        <v>33.0129508972168</v>
+        <v>33.01294708251953</v>
       </c>
       <c r="G19">
         <v>541152</v>
@@ -51525,7 +51525,7 @@
         <v>75.52999877929688</v>
       </c>
       <c r="F2">
-        <v>74.14845275878906</v>
+        <v>74.1484375</v>
       </c>
       <c r="G2">
         <v>4192700</v>
@@ -51548,7 +51548,7 @@
         <v>74.84999847412109</v>
       </c>
       <c r="F3">
-        <v>73.48088836669922</v>
+        <v>73.48087310791016</v>
       </c>
       <c r="G3">
         <v>6307900</v>
@@ -51571,7 +51571,7 @@
         <v>73.44000244140625</v>
       </c>
       <c r="F4">
-        <v>72.09666442871094</v>
+        <v>72.09667205810547</v>
       </c>
       <c r="G4">
         <v>6747100</v>
@@ -51594,7 +51594,7 @@
         <v>73.30999755859375</v>
       </c>
       <c r="F5">
-        <v>71.96905517578125</v>
+        <v>71.96903228759766</v>
       </c>
       <c r="G5">
         <v>2861700</v>
@@ -51617,7 +51617,7 @@
         <v>73.19999694824219</v>
       </c>
       <c r="F6">
-        <v>71.86104583740234</v>
+        <v>71.86106109619141</v>
       </c>
       <c r="G6">
         <v>2858000</v>
@@ -51640,7 +51640,7 @@
         <v>81.23000335693359</v>
       </c>
       <c r="F7">
-        <v>79.74417114257812</v>
+        <v>79.74417877197266</v>
       </c>
       <c r="G7">
         <v>7963500</v>
@@ -51663,7 +51663,7 @@
         <v>81.90000152587891</v>
       </c>
       <c r="F8">
-        <v>80.40190887451172</v>
+        <v>80.40192413330078</v>
       </c>
       <c r="G8">
         <v>5841400</v>
@@ -51686,7 +51686,7 @@
         <v>80.47000122070312</v>
       </c>
       <c r="F9">
-        <v>78.99808502197266</v>
+        <v>78.99807739257812</v>
       </c>
       <c r="G9">
         <v>3345900</v>
@@ -51732,7 +51732,7 @@
         <v>80.58999633789062</v>
       </c>
       <c r="F11">
-        <v>79.11589813232422</v>
+        <v>79.11589050292969</v>
       </c>
       <c r="G11">
         <v>4360400</v>
@@ -51755,7 +51755,7 @@
         <v>80.52999877929688</v>
       </c>
       <c r="F12">
-        <v>79.05698394775391</v>
+        <v>79.05697631835938</v>
       </c>
       <c r="G12">
         <v>5075500</v>
@@ -51778,7 +51778,7 @@
         <v>73.95999908447266</v>
       </c>
       <c r="F13">
-        <v>72.71221923828125</v>
+        <v>72.71222686767578</v>
       </c>
       <c r="G13">
         <v>7571600</v>
@@ -51801,7 +51801,7 @@
         <v>72.43000030517578</v>
       </c>
       <c r="F14">
-        <v>71.20804595947266</v>
+        <v>71.20803070068359</v>
       </c>
       <c r="G14">
         <v>8016600</v>
@@ -51847,7 +51847,7 @@
         <v>78.08000183105469</v>
       </c>
       <c r="F16">
-        <v>76.76271057128906</v>
+        <v>76.76271820068359</v>
       </c>
       <c r="G16">
         <v>9707700</v>
@@ -51870,7 +51870,7 @@
         <v>75.65000152587891</v>
       </c>
       <c r="F17">
-        <v>74.37371063232422</v>
+        <v>74.37371826171875</v>
       </c>
       <c r="G17">
         <v>6925100</v>
@@ -51893,7 +51893,7 @@
         <v>78.5</v>
       </c>
       <c r="F18">
-        <v>77.17562103271484</v>
+        <v>77.17562866210938</v>
       </c>
       <c r="G18">
         <v>8766700</v>
@@ -51916,7 +51916,7 @@
         <v>78.98999786376953</v>
       </c>
       <c r="F19">
-        <v>77.65736389160156</v>
+        <v>77.65735626220703</v>
       </c>
       <c r="G19">
         <v>4611900</v>
@@ -51985,7 +51985,7 @@
         <v>85.41000366210938</v>
       </c>
       <c r="F22">
-        <v>83.96904754638672</v>
+        <v>83.96906280517578</v>
       </c>
       <c r="G22">
         <v>6831600</v>
@@ -52008,7 +52008,7 @@
         <v>82.06999969482422</v>
       </c>
       <c r="F23">
-        <v>80.68540954589844</v>
+        <v>80.68540191650391</v>
       </c>
       <c r="G23">
         <v>8549400</v>
@@ -52031,7 +52031,7 @@
         <v>81.87000274658203</v>
       </c>
       <c r="F24">
-        <v>80.48876953125</v>
+        <v>80.48876190185547</v>
       </c>
       <c r="G24">
         <v>7878800</v>
@@ -52054,7 +52054,7 @@
         <v>80.52999877929688</v>
       </c>
       <c r="F25">
-        <v>79.28862762451172</v>
+        <v>79.28861999511719</v>
       </c>
       <c r="G25">
         <v>4735500</v>
@@ -52077,7 +52077,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="F26">
-        <v>78.72742462158203</v>
+        <v>78.72740936279297</v>
       </c>
       <c r="G26">
         <v>5403500</v>
@@ -52100,7 +52100,7 @@
         <v>82.76000213623047</v>
       </c>
       <c r="F27">
-        <v>81.48426055908203</v>
+        <v>81.48424530029297</v>
       </c>
       <c r="G27">
         <v>8750200</v>
@@ -52123,7 +52123,7 @@
         <v>82.81999969482422</v>
       </c>
       <c r="F28">
-        <v>81.54331970214844</v>
+        <v>81.5433349609375</v>
       </c>
       <c r="G28">
         <v>3578200</v>
@@ -52146,7 +52146,7 @@
         <v>81.58999633789062</v>
       </c>
       <c r="F29">
-        <v>80.332275390625</v>
+        <v>80.33228302001953</v>
       </c>
       <c r="G29">
         <v>3626800</v>
@@ -52169,7 +52169,7 @@
         <v>77.62999725341797</v>
       </c>
       <c r="F30">
-        <v>76.43333435058594</v>
+        <v>76.43331909179688</v>
       </c>
       <c r="G30">
         <v>6683600</v>
@@ -52192,7 +52192,7 @@
         <v>82.91000366210938</v>
       </c>
       <c r="F31">
-        <v>81.63195037841797</v>
+        <v>81.63193511962891</v>
       </c>
       <c r="G31">
         <v>6746700</v>
@@ -52330,7 +52330,7 @@
         <v>86.12999725341797</v>
       </c>
       <c r="F37">
-        <v>84.80229949951172</v>
+        <v>84.80229187011719</v>
       </c>
       <c r="G37">
         <v>4375200</v>
@@ -52353,7 +52353,7 @@
         <v>88.91000366210938</v>
       </c>
       <c r="F38">
-        <v>87.53945922851562</v>
+        <v>87.53945159912109</v>
       </c>
       <c r="G38">
         <v>4076200</v>
@@ -52376,7 +52376,7 @@
         <v>85.73999786376953</v>
       </c>
       <c r="F39">
-        <v>84.53166961669922</v>
+        <v>84.53166198730469</v>
       </c>
       <c r="G39">
         <v>5888700</v>
@@ -52399,7 +52399,7 @@
         <v>90.11000061035156</v>
       </c>
       <c r="F40">
-        <v>88.84008026123047</v>
+        <v>88.84006500244141</v>
       </c>
       <c r="G40">
         <v>8838600</v>
@@ -52445,7 +52445,7 @@
         <v>89.38999938964844</v>
       </c>
       <c r="F42">
-        <v>88.13022613525391</v>
+        <v>88.13023376464844</v>
       </c>
       <c r="G42">
         <v>3355300</v>
@@ -52468,7 +52468,7 @@
         <v>87.48000335693359</v>
       </c>
       <c r="F43">
-        <v>86.24714660644531</v>
+        <v>86.24713897705078</v>
       </c>
       <c r="G43">
         <v>7589900</v>
@@ -52514,7 +52514,7 @@
         <v>88.59999847412109</v>
       </c>
       <c r="F45">
-        <v>87.35136413574219</v>
+        <v>87.35135650634766</v>
       </c>
       <c r="G45">
         <v>5173400</v>
@@ -52560,7 +52560,7 @@
         <v>92</v>
       </c>
       <c r="F47">
-        <v>90.70344543457031</v>
+        <v>90.70343780517578</v>
       </c>
       <c r="G47">
         <v>3459000</v>
@@ -52583,7 +52583,7 @@
         <v>92.40000152587891</v>
       </c>
       <c r="F48">
-        <v>91.09781646728516</v>
+        <v>91.09780883789062</v>
       </c>
       <c r="G48">
         <v>3074700</v>
@@ -52629,7 +52629,7 @@
         <v>94.20999908447266</v>
       </c>
       <c r="F50">
-        <v>92.88230133056641</v>
+        <v>92.88230895996094</v>
       </c>
       <c r="G50">
         <v>3930800</v>
@@ -52652,7 +52652,7 @@
         <v>97.11000061035156</v>
       </c>
       <c r="F51">
-        <v>95.74142456054688</v>
+        <v>95.74143218994141</v>
       </c>
       <c r="G51">
         <v>4631000</v>
@@ -52698,7 +52698,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="F53">
-        <v>91.82257843017578</v>
+        <v>91.82258605957031</v>
       </c>
       <c r="G53">
         <v>4884100</v>
@@ -52744,7 +52744,7 @@
         <v>90.94000244140625</v>
       </c>
       <c r="F55">
-        <v>89.76937103271484</v>
+        <v>89.76936340332031</v>
       </c>
       <c r="G55">
         <v>4171200</v>
@@ -52767,7 +52767,7 @@
         <v>88.95999908447266</v>
       </c>
       <c r="F56">
-        <v>87.81484985351562</v>
+        <v>87.81485748291016</v>
       </c>
       <c r="G56">
         <v>4597300</v>
@@ -52790,7 +52790,7 @@
         <v>89.84999847412109</v>
       </c>
       <c r="F57">
-        <v>88.69339752197266</v>
+        <v>88.69338989257812</v>
       </c>
       <c r="G57">
         <v>2375700</v>
@@ -52813,7 +52813,7 @@
         <v>92.11000061035156</v>
       </c>
       <c r="F58">
-        <v>90.92430114746094</v>
+        <v>90.92430877685547</v>
       </c>
       <c r="G58">
         <v>1869200</v>
@@ -52836,7 +52836,7 @@
         <v>95.09999847412109</v>
       </c>
       <c r="F59">
-        <v>93.87582397460938</v>
+        <v>93.87580871582031</v>
       </c>
       <c r="G59">
         <v>5172000</v>
@@ -52882,7 +52882,7 @@
         <v>90.33000183105469</v>
       </c>
       <c r="F61">
-        <v>89.16721343994141</v>
+        <v>89.16722106933594</v>
       </c>
       <c r="G61">
         <v>3998400</v>
@@ -52905,7 +52905,7 @@
         <v>87.87999725341797</v>
       </c>
       <c r="F62">
-        <v>86.74875640869141</v>
+        <v>86.74874877929688</v>
       </c>
       <c r="G62">
         <v>4648100</v>
@@ -52928,7 +52928,7 @@
         <v>87.94000244140625</v>
       </c>
       <c r="F63">
-        <v>86.80799865722656</v>
+        <v>86.80799102783203</v>
       </c>
       <c r="G63">
         <v>3663000</v>
@@ -52974,7 +52974,7 @@
         <v>96.86000061035156</v>
       </c>
       <c r="F65">
-        <v>95.61317443847656</v>
+        <v>95.6131591796875</v>
       </c>
       <c r="G65">
         <v>8922200</v>
@@ -52997,7 +52997,7 @@
         <v>94.37999725341797</v>
       </c>
       <c r="F66">
-        <v>93.16507720947266</v>
+        <v>93.16508483886719</v>
       </c>
       <c r="G66">
         <v>6101300</v>
@@ -53020,7 +53020,7 @@
         <v>91.55999755859375</v>
       </c>
       <c r="F67">
-        <v>90.5299072265625</v>
+        <v>90.52989959716797</v>
       </c>
       <c r="G67">
         <v>7486300</v>
@@ -53043,7 +53043,7 @@
         <v>89.04000091552734</v>
       </c>
       <c r="F68">
-        <v>88.03825378417969</v>
+        <v>88.03826904296875</v>
       </c>
       <c r="G68">
         <v>7614000</v>
@@ -53066,7 +53066,7 @@
         <v>96.16000366210938</v>
       </c>
       <c r="F69">
-        <v>95.07816314697266</v>
+        <v>95.07815551757812</v>
       </c>
       <c r="G69">
         <v>7033200</v>
@@ -53181,7 +53181,7 @@
         <v>89.12999725341797</v>
       </c>
       <c r="F74">
-        <v>88.12723541259766</v>
+        <v>88.12725067138672</v>
       </c>
       <c r="G74">
         <v>4023600</v>
@@ -53204,7 +53204,7 @@
         <v>89.91000366210938</v>
       </c>
       <c r="F75">
-        <v>88.89847564697266</v>
+        <v>88.89846801757812</v>
       </c>
       <c r="G75">
         <v>6217000</v>
@@ -53273,7 +53273,7 @@
         <v>86.95999908447266</v>
       </c>
       <c r="F78">
-        <v>85.98165893554688</v>
+        <v>85.98166656494141</v>
       </c>
       <c r="G78">
         <v>3220200</v>
@@ -53296,7 +53296,7 @@
         <v>94.93000030517578</v>
       </c>
       <c r="F79">
-        <v>94.02374267578125</v>
+        <v>94.02375793457031</v>
       </c>
       <c r="G79">
         <v>4435300</v>
@@ -53342,7 +53342,7 @@
         <v>90.25</v>
       </c>
       <c r="F81">
-        <v>89.38842010498047</v>
+        <v>89.38843536376953</v>
       </c>
       <c r="G81">
         <v>3305600</v>
@@ -53411,7 +53411,7 @@
         <v>83.09999847412109</v>
       </c>
       <c r="F84">
-        <v>82.30667877197266</v>
+        <v>82.30668640136719</v>
       </c>
       <c r="G84">
         <v>4345200</v>
@@ -53457,7 +53457,7 @@
         <v>83.16999816894531</v>
       </c>
       <c r="F86">
-        <v>82.37601470947266</v>
+        <v>82.37602233886719</v>
       </c>
       <c r="G86">
         <v>4475800</v>
@@ -53549,7 +53549,7 @@
         <v>96.23999786376953</v>
       </c>
       <c r="F90">
-        <v>95.32123565673828</v>
+        <v>95.32124328613281</v>
       </c>
       <c r="G90">
         <v>3775100</v>
@@ -53572,7 +53572,7 @@
         <v>93.55999755859375</v>
       </c>
       <c r="F91">
-        <v>92.81416320800781</v>
+        <v>92.81414031982422</v>
       </c>
       <c r="G91">
         <v>3635500</v>
@@ -53595,7 +53595,7 @@
         <v>90.44000244140625</v>
       </c>
       <c r="F92">
-        <v>89.71901702880859</v>
+        <v>89.71902465820312</v>
       </c>
       <c r="G92">
         <v>2517300</v>
@@ -53802,7 +53802,7 @@
         <v>93.55999755859375</v>
       </c>
       <c r="F101">
-        <v>92.81416320800781</v>
+        <v>92.81414031982422</v>
       </c>
       <c r="G101">
         <v>4773600</v>
@@ -53963,7 +53963,7 @@
         <v>99.25</v>
       </c>
       <c r="F108">
-        <v>98.61211395263672</v>
+        <v>98.61210632324219</v>
       </c>
       <c r="G108">
         <v>6068100</v>
@@ -53986,7 +53986,7 @@
         <v>100.4899978637695</v>
       </c>
       <c r="F109">
-        <v>99.84414672851562</v>
+        <v>99.84413909912109</v>
       </c>
       <c r="G109">
         <v>3563200</v>
@@ -54009,7 +54009,7 @@
         <v>99.80999755859375</v>
       </c>
       <c r="F110">
-        <v>99.16851806640625</v>
+        <v>99.16850280761719</v>
       </c>
       <c r="G110">
         <v>1634400</v>
@@ -54032,7 +54032,7 @@
         <v>101.5400009155273</v>
       </c>
       <c r="F111">
-        <v>100.8873977661133</v>
+        <v>100.8873901367188</v>
       </c>
       <c r="G111">
         <v>3110700</v>
@@ -54101,7 +54101,7 @@
         <v>103.129997253418</v>
       </c>
       <c r="F114">
-        <v>102.4671783447266</v>
+        <v>102.467170715332</v>
       </c>
       <c r="G114">
         <v>5005700</v>
@@ -54124,7 +54124,7 @@
         <v>105.5299987792969</v>
       </c>
       <c r="F115">
-        <v>104.8517456054688</v>
+        <v>104.8517532348633</v>
       </c>
       <c r="G115">
         <v>6822600</v>
@@ -54193,7 +54193,7 @@
         <v>103.5</v>
       </c>
       <c r="F118">
-        <v>102.8348007202148</v>
+        <v>102.8347930908203</v>
       </c>
       <c r="G118">
         <v>4895100</v>
@@ -54216,7 +54216,7 @@
         <v>107.3199996948242</v>
       </c>
       <c r="F119">
-        <v>106.8049545288086</v>
+        <v>106.8049621582031</v>
       </c>
       <c r="G119">
         <v>5111100</v>
@@ -54239,7 +54239,7 @@
         <v>99.95999908447266</v>
       </c>
       <c r="F120">
-        <v>99.48027801513672</v>
+        <v>99.48028564453125</v>
       </c>
       <c r="G120">
         <v>4172300</v>
@@ -54423,7 +54423,7 @@
         <v>99.16999816894531</v>
       </c>
       <c r="F128">
-        <v>98.69407653808594</v>
+        <v>98.69406890869141</v>
       </c>
       <c r="G128">
         <v>6986800</v>
@@ -54538,7 +54538,7 @@
         <v>99.05000305175781</v>
       </c>
       <c r="F133">
-        <v>98.75349426269531</v>
+        <v>98.75350189208984</v>
       </c>
       <c r="G133">
         <v>4075900</v>
@@ -54561,7 +54561,7 @@
         <v>103.6399993896484</v>
       </c>
       <c r="F134">
-        <v>103.3297500610352</v>
+        <v>103.3297576904297</v>
       </c>
       <c r="G134">
         <v>6961300</v>
@@ -54630,7 +54630,7 @@
         <v>109.6399993896484</v>
       </c>
       <c r="F137">
-        <v>109.3117904663086</v>
+        <v>109.3117980957031</v>
       </c>
       <c r="G137">
         <v>2959700</v>
@@ -54653,7 +54653,7 @@
         <v>111.9300003051758</v>
       </c>
       <c r="F138">
-        <v>111.5949325561523</v>
+        <v>111.5949401855469</v>
       </c>
       <c r="G138">
         <v>5108100</v>
@@ -54676,7 +54676,7 @@
         <v>112.8899993896484</v>
       </c>
       <c r="F139">
-        <v>112.5520629882812</v>
+        <v>112.5520706176758</v>
       </c>
       <c r="G139">
         <v>4154000</v>
@@ -54699,7 +54699,7 @@
         <v>118.5800018310547</v>
       </c>
       <c r="F140">
-        <v>118.2250366210938</v>
+        <v>118.2250289916992</v>
       </c>
       <c r="G140">
         <v>6737900</v>
@@ -54722,7 +54722,7 @@
         <v>114.6999969482422</v>
       </c>
       <c r="F141">
-        <v>114.3566436767578</v>
+        <v>114.3566513061523</v>
       </c>
       <c r="G141">
         <v>5079500</v>
@@ -58865,7 +58865,7 @@
         <v>17.75</v>
       </c>
       <c r="F4">
-        <v>16.62590789794922</v>
+        <v>16.62590980529785</v>
       </c>
       <c r="G4">
         <v>12658519</v>
@@ -58911,7 +58911,7 @@
         <v>17.47999954223633</v>
       </c>
       <c r="F6">
-        <v>16.37300682067871</v>
+        <v>16.37301063537598</v>
       </c>
       <c r="G6">
         <v>1891432</v>
@@ -58934,7 +58934,7 @@
         <v>18.60000038146973</v>
       </c>
       <c r="F7">
-        <v>17.42207908630371</v>
+        <v>17.42208099365234</v>
       </c>
       <c r="G7">
         <v>5899533</v>
@@ -58980,7 +58980,7 @@
         <v>17.01000022888184</v>
       </c>
       <c r="F9">
-        <v>15.93277359008789</v>
+        <v>15.93277168273926</v>
       </c>
       <c r="G9">
         <v>8142514</v>
@@ -59003,7 +59003,7 @@
         <v>16.59000015258789</v>
       </c>
       <c r="F10">
-        <v>15.53937244415283</v>
+        <v>15.5393705368042</v>
       </c>
       <c r="G10">
         <v>11659099</v>
@@ -59049,7 +59049,7 @@
         <v>17</v>
       </c>
       <c r="F12">
-        <v>15.92340850830078</v>
+        <v>15.92340660095215</v>
       </c>
       <c r="G12">
         <v>8015256</v>
@@ -59072,7 +59072,7 @@
         <v>17.28000068664551</v>
       </c>
       <c r="F13">
-        <v>16.18567657470703</v>
+        <v>16.1856746673584</v>
       </c>
       <c r="G13">
         <v>6726025</v>
@@ -59095,7 +59095,7 @@
         <v>16.68000030517578</v>
       </c>
       <c r="F14">
-        <v>15.62367153167725</v>
+        <v>15.62367057800293</v>
       </c>
       <c r="G14">
         <v>12877275</v>
@@ -59164,7 +59164,7 @@
         <v>18.75</v>
       </c>
       <c r="F17">
-        <v>17.62324714660645</v>
+        <v>17.62324523925781</v>
       </c>
       <c r="G17">
         <v>10145595</v>
@@ -59187,7 +59187,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="F18">
-        <v>18.21538734436035</v>
+        <v>18.21538543701172</v>
       </c>
       <c r="G18">
         <v>6376128</v>
@@ -59210,7 +59210,7 @@
         <v>20.02000045776367</v>
       </c>
       <c r="F19">
-        <v>18.81692886352539</v>
+        <v>18.81692695617676</v>
       </c>
       <c r="G19">
         <v>7654382</v>
@@ -59256,7 +59256,7 @@
         <v>20.94000053405762</v>
       </c>
       <c r="F21">
-        <v>19.681640625</v>
+        <v>19.68164253234863</v>
       </c>
       <c r="G21">
         <v>6272555</v>
@@ -59279,7 +59279,7 @@
         <v>21.84000015258789</v>
       </c>
       <c r="F22">
-        <v>20.52755928039551</v>
+        <v>20.52755737304688</v>
       </c>
       <c r="G22">
         <v>8471801</v>
@@ -59325,7 +59325,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F24">
-        <v>21.29827880859375</v>
+        <v>21.29828071594238</v>
       </c>
       <c r="G24">
         <v>8860847</v>
@@ -59463,7 +59463,7 @@
         <v>21.20999908447266</v>
       </c>
       <c r="F30">
-        <v>19.93541526794434</v>
+        <v>19.9354133605957</v>
       </c>
       <c r="G30">
         <v>9797130</v>
@@ -59509,7 +59509,7 @@
         <v>22.25</v>
       </c>
       <c r="F32">
-        <v>20.91291999816895</v>
+        <v>20.91291809082031</v>
       </c>
       <c r="G32">
         <v>5475770</v>
@@ -59555,7 +59555,7 @@
         <v>22.85000038146973</v>
       </c>
       <c r="F34">
-        <v>21.47686386108398</v>
+        <v>21.47686195373535</v>
       </c>
       <c r="G34">
         <v>10363747</v>
@@ -59601,7 +59601,7 @@
         <v>24.19000053405762</v>
       </c>
       <c r="F36">
-        <v>22.73633575439453</v>
+        <v>22.73633766174316</v>
       </c>
       <c r="G36">
         <v>10709913</v>
@@ -59647,7 +59647,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F38">
-        <v>23.95821571350098</v>
+        <v>23.95821380615234</v>
       </c>
       <c r="G38">
         <v>10393822</v>
@@ -59670,7 +59670,7 @@
         <v>23.3700008392334</v>
       </c>
       <c r="F39">
-        <v>21.96561431884766</v>
+        <v>21.96561622619629</v>
       </c>
       <c r="G39">
         <v>12693071</v>
@@ -59808,7 +59808,7 @@
         <v>19.8700008392334</v>
       </c>
       <c r="F45">
-        <v>18.82610893249512</v>
+        <v>18.82610511779785</v>
       </c>
       <c r="G45">
         <v>12766709</v>
@@ -59831,7 +59831,7 @@
         <v>20.28000068664551</v>
       </c>
       <c r="F46">
-        <v>19.21456909179688</v>
+        <v>19.21456718444824</v>
       </c>
       <c r="G46">
         <v>12343429</v>
@@ -59854,7 +59854,7 @@
         <v>20.96999931335449</v>
       </c>
       <c r="F47">
-        <v>19.86831665039062</v>
+        <v>19.86831855773926</v>
       </c>
       <c r="G47">
         <v>9022708</v>
@@ -59900,7 +59900,7 @@
         <v>20.6200008392334</v>
       </c>
       <c r="F49">
-        <v>19.53670692443848</v>
+        <v>19.53670501708984</v>
       </c>
       <c r="G49">
         <v>12674344</v>
@@ -59946,7 +59946,7 @@
         <v>20.94000053405762</v>
       </c>
       <c r="F51">
-        <v>19.83989334106445</v>
+        <v>19.83989524841309</v>
       </c>
       <c r="G51">
         <v>9575117</v>
@@ -59969,7 +59969,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F52">
-        <v>19.62197685241699</v>
+        <v>19.62197494506836</v>
       </c>
       <c r="G52">
         <v>9461769</v>
@@ -60015,7 +60015,7 @@
         <v>20.46999931335449</v>
       </c>
       <c r="F54">
-        <v>19.39458656311035</v>
+        <v>19.39458465576172</v>
       </c>
       <c r="G54">
         <v>16384257</v>
@@ -60038,7 +60038,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F55">
-        <v>20.06728553771973</v>
+        <v>20.06728363037109</v>
       </c>
       <c r="G55">
         <v>10968969</v>
@@ -60061,7 +60061,7 @@
         <v>21.04999923706055</v>
       </c>
       <c r="F56">
-        <v>19.94411659240723</v>
+        <v>19.94411277770996</v>
       </c>
       <c r="G56">
         <v>12210313</v>
@@ -60107,7 +60107,7 @@
         <v>20.89999961853027</v>
       </c>
       <c r="F58">
-        <v>19.8019962310791</v>
+        <v>19.80199432373047</v>
       </c>
       <c r="G58">
         <v>2106360</v>
@@ -60199,7 +60199,7 @@
         <v>18.27000045776367</v>
       </c>
       <c r="F62">
-        <v>17.31016540527344</v>
+        <v>17.31016731262207</v>
       </c>
       <c r="G62">
         <v>13762542</v>
@@ -60222,7 +60222,7 @@
         <v>19.15999984741211</v>
       </c>
       <c r="F63">
-        <v>18.15340614318848</v>
+        <v>18.15340805053711</v>
       </c>
       <c r="G63">
         <v>8578299</v>
@@ -60268,7 +60268,7 @@
         <v>19.07999992370605</v>
       </c>
       <c r="F65">
-        <v>18.07761192321777</v>
+        <v>18.07761001586914</v>
       </c>
       <c r="G65">
         <v>9628987</v>
@@ -60314,7 +60314,7 @@
         <v>20.98999977111816</v>
       </c>
       <c r="F67">
-        <v>20.15116500854492</v>
+        <v>20.15116310119629</v>
       </c>
       <c r="G67">
         <v>16093649</v>
@@ -60498,7 +60498,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F75">
-        <v>19.71914863586426</v>
+        <v>19.71914672851562</v>
       </c>
       <c r="G75">
         <v>10166133</v>
@@ -60567,7 +60567,7 @@
         <v>18.10000038146973</v>
       </c>
       <c r="F78">
-        <v>17.37666130065918</v>
+        <v>17.37665939331055</v>
       </c>
       <c r="G78">
         <v>8943765</v>
@@ -60636,7 +60636,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F81">
-        <v>16.81023788452148</v>
+        <v>16.81023979187012</v>
       </c>
       <c r="G81">
         <v>8441942</v>
@@ -60659,7 +60659,7 @@
         <v>15.67000007629395</v>
       </c>
       <c r="F82">
-        <v>15.04376983642578</v>
+        <v>15.0437707901001</v>
       </c>
       <c r="G82">
         <v>13787438</v>
@@ -60682,7 +60682,7 @@
         <v>15.63000011444092</v>
       </c>
       <c r="F83">
-        <v>15.00536918640137</v>
+        <v>15.00536823272705</v>
       </c>
       <c r="G83">
         <v>10178563</v>
@@ -60705,7 +60705,7 @@
         <v>15.76000022888184</v>
       </c>
       <c r="F84">
-        <v>15.1301736831665</v>
+        <v>15.13017463684082</v>
       </c>
       <c r="G84">
         <v>11293575</v>
@@ -60912,7 +60912,7 @@
         <v>16.10000038146973</v>
       </c>
       <c r="F93">
-        <v>15.45658683776855</v>
+        <v>15.45658588409424</v>
       </c>
       <c r="G93">
         <v>11739695</v>
@@ -60981,7 +60981,7 @@
         <v>15.67000007629395</v>
       </c>
       <c r="F96">
-        <v>15.27592658996582</v>
+        <v>15.27592754364014</v>
       </c>
       <c r="G96">
         <v>5120456</v>
@@ -61050,7 +61050,7 @@
         <v>16.27000045776367</v>
       </c>
       <c r="F99">
-        <v>15.86083793640137</v>
+        <v>15.86083984375</v>
       </c>
       <c r="G99">
         <v>7043232</v>
@@ -61096,7 +61096,7 @@
         <v>15.69999980926514</v>
       </c>
       <c r="F101">
-        <v>15.30517196655273</v>
+        <v>15.30517292022705</v>
       </c>
       <c r="G101">
         <v>7825064</v>
@@ -61165,7 +61165,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="F104">
-        <v>16.2020378112793</v>
+        <v>16.20203590393066</v>
       </c>
       <c r="G104">
         <v>8478036</v>
@@ -61234,7 +61234,7 @@
         <v>18.21999931335449</v>
       </c>
       <c r="F107">
-        <v>17.76179695129395</v>
+        <v>17.76179885864258</v>
       </c>
       <c r="G107">
         <v>10426608</v>
@@ -61303,7 +61303,7 @@
         <v>16.84000015258789</v>
       </c>
       <c r="F110">
-        <v>16.41650390625</v>
+        <v>16.41650581359863</v>
       </c>
       <c r="G110">
         <v>2941882</v>
@@ -61395,7 +61395,7 @@
         <v>19.44000053405762</v>
       </c>
       <c r="F114">
-        <v>18.95112037658691</v>
+        <v>18.95111846923828</v>
       </c>
       <c r="G114">
         <v>5940070</v>
@@ -61441,7 +61441,7 @@
         <v>18.8700008392334</v>
       </c>
       <c r="F116">
-        <v>18.39545440673828</v>
+        <v>18.39545249938965</v>
       </c>
       <c r="G116">
         <v>7581686</v>
@@ -61487,7 +61487,7 @@
         <v>18.45999908447266</v>
       </c>
       <c r="F118">
-        <v>17.99576187133789</v>
+        <v>17.99576377868652</v>
       </c>
       <c r="G118">
         <v>13805094</v>
@@ -62489,7 +62489,7 @@
         <v>7.563766956329346</v>
       </c>
       <c r="F3">
-        <v>6.345871925354004</v>
+        <v>6.345871448516846</v>
       </c>
       <c r="G3">
         <v>8648482</v>
@@ -62512,7 +62512,7 @@
         <v>7.534637928009033</v>
       </c>
       <c r="F4">
-        <v>6.321433067321777</v>
+        <v>6.321432590484619</v>
       </c>
       <c r="G4">
         <v>8923233</v>
@@ -62535,7 +62535,7 @@
         <v>7.602605819702148</v>
       </c>
       <c r="F5">
-        <v>6.378457546234131</v>
+        <v>6.378456592559814</v>
       </c>
       <c r="G5">
         <v>3051992</v>
@@ -62558,7 +62558,7 @@
         <v>7.515219211578369</v>
       </c>
       <c r="F6">
-        <v>6.305140495300293</v>
+        <v>6.305140972137451</v>
       </c>
       <c r="G6">
         <v>1886560</v>
@@ -62581,7 +62581,7 @@
         <v>7.796796798706055</v>
       </c>
       <c r="F7">
-        <v>6.541380405426025</v>
+        <v>6.541379451751709</v>
       </c>
       <c r="G7">
         <v>7934846</v>
@@ -62604,7 +62604,7 @@
         <v>8.068666458129883</v>
       </c>
       <c r="F8">
-        <v>6.769474029541016</v>
+        <v>6.769474506378174</v>
       </c>
       <c r="G8">
         <v>7948980</v>
@@ -62627,7 +62627,7 @@
         <v>8.058956146240234</v>
       </c>
       <c r="F9">
-        <v>6.761327266693115</v>
+        <v>6.761326789855957</v>
       </c>
       <c r="G9">
         <v>6869518</v>
@@ -62650,7 +62650,7 @@
         <v>7.738540172576904</v>
       </c>
       <c r="F10">
-        <v>6.492503643035889</v>
+        <v>6.49250316619873</v>
       </c>
       <c r="G10">
         <v>8927116</v>
@@ -62696,7 +62696,7 @@
         <v>7.923021793365479</v>
       </c>
       <c r="F12">
-        <v>6.647280216217041</v>
+        <v>6.647280693054199</v>
       </c>
       <c r="G12">
         <v>5610996</v>
@@ -62719,7 +62719,7 @@
         <v>8.165761947631836</v>
       </c>
       <c r="F13">
-        <v>6.850935935974121</v>
+        <v>6.850935459136963</v>
       </c>
       <c r="G13">
         <v>11368884</v>
@@ -62788,7 +62788,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F16">
-        <v>7.458558559417725</v>
+        <v>7.458559036254883</v>
       </c>
       <c r="G16">
         <v>14576966</v>
@@ -62811,7 +62811,7 @@
         <v>8.489999771118164</v>
       </c>
       <c r="F17">
-        <v>7.122965335845947</v>
+        <v>7.122966289520264</v>
       </c>
       <c r="G17">
         <v>21072248</v>
@@ -62834,7 +62834,7 @@
         <v>8.699999809265137</v>
       </c>
       <c r="F18">
-        <v>7.299152374267578</v>
+        <v>7.299151420593262</v>
       </c>
       <c r="G18">
         <v>10568076</v>
@@ -62857,7 +62857,7 @@
         <v>8.649999618530273</v>
       </c>
       <c r="F19">
-        <v>7.257203102111816</v>
+        <v>7.2572021484375</v>
       </c>
       <c r="G19">
         <v>14798586</v>
@@ -62880,7 +62880,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F20">
-        <v>7.324320793151855</v>
+        <v>7.324321269989014</v>
       </c>
       <c r="G20">
         <v>7930634</v>
@@ -62903,7 +62903,7 @@
         <v>8.909999847412109</v>
       </c>
       <c r="F21">
-        <v>7.475339412689209</v>
+        <v>7.475338935852051</v>
       </c>
       <c r="G21">
         <v>16363301</v>
@@ -62926,7 +62926,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F22">
-        <v>7.651525020599365</v>
+        <v>7.651524543762207</v>
       </c>
       <c r="G22">
         <v>20225671</v>
@@ -62949,7 +62949,7 @@
         <v>9.020000457763672</v>
       </c>
       <c r="F23">
-        <v>7.567627429962158</v>
+        <v>7.567626953125</v>
       </c>
       <c r="G23">
         <v>12396888</v>
@@ -62972,7 +62972,7 @@
         <v>8.979999542236328</v>
       </c>
       <c r="F24">
-        <v>7.534067153930664</v>
+        <v>7.534066200256348</v>
       </c>
       <c r="G24">
         <v>16427924</v>
@@ -62995,7 +62995,7 @@
         <v>8.819999694824219</v>
       </c>
       <c r="F25">
-        <v>7.539916515350342</v>
+        <v>7.539915561676025</v>
       </c>
       <c r="G25">
         <v>8478868</v>
@@ -63018,7 +63018,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F26">
-        <v>7.505721569061279</v>
+        <v>7.505721092224121</v>
       </c>
       <c r="G26">
         <v>6437959</v>
@@ -63041,7 +63041,7 @@
         <v>9.020000457763672</v>
       </c>
       <c r="F27">
-        <v>7.71088981628418</v>
+        <v>7.710890293121338</v>
       </c>
       <c r="G27">
         <v>8760244</v>
@@ -63064,7 +63064,7 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>7.693792343139648</v>
+        <v>7.69379186630249</v>
       </c>
       <c r="G28">
         <v>10578398</v>
@@ -63110,7 +63110,7 @@
         <v>9.239999771118164</v>
       </c>
       <c r="F30">
-        <v>7.898958683013916</v>
+        <v>7.898959636688232</v>
       </c>
       <c r="G30">
         <v>18346473</v>
@@ -63133,7 +63133,7 @@
         <v>9.029999732971191</v>
       </c>
       <c r="F31">
-        <v>7.719437599182129</v>
+        <v>7.719438076019287</v>
       </c>
       <c r="G31">
         <v>16769495</v>
@@ -63156,7 +63156,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F32">
-        <v>7.822021484375</v>
+        <v>7.822021961212158</v>
       </c>
       <c r="G32">
         <v>9091809</v>
@@ -63179,7 +63179,7 @@
         <v>8.909999847412109</v>
       </c>
       <c r="F33">
-        <v>7.616853713989258</v>
+        <v>7.616854190826416</v>
       </c>
       <c r="G33">
         <v>9473612</v>
@@ -63202,7 +63202,7 @@
         <v>8.850000381469727</v>
       </c>
       <c r="F34">
-        <v>7.565561771392822</v>
+        <v>7.56556224822998</v>
       </c>
       <c r="G34">
         <v>13167693</v>
@@ -63225,7 +63225,7 @@
         <v>8.920000076293945</v>
       </c>
       <c r="F35">
-        <v>7.625402450561523</v>
+        <v>7.62540340423584</v>
       </c>
       <c r="G35">
         <v>11608231</v>
@@ -63248,7 +63248,7 @@
         <v>9.020000457763672</v>
       </c>
       <c r="F36">
-        <v>7.71088981628418</v>
+        <v>7.710890293121338</v>
       </c>
       <c r="G36">
         <v>10437905</v>
@@ -63271,7 +63271,7 @@
         <v>9.289999961853027</v>
       </c>
       <c r="F37">
-        <v>7.941702842712402</v>
+        <v>7.941702365875244</v>
       </c>
       <c r="G37">
         <v>11004880</v>
@@ -63340,7 +63340,7 @@
         <v>9.470000267028809</v>
       </c>
       <c r="F40">
-        <v>8.095578193664551</v>
+        <v>8.095579147338867</v>
       </c>
       <c r="G40">
         <v>9024188</v>
@@ -63363,7 +63363,7 @@
         <v>9.520000457763672</v>
       </c>
       <c r="F41">
-        <v>8.138322830200195</v>
+        <v>8.138321876525879</v>
       </c>
       <c r="G41">
         <v>8900363</v>
@@ -63386,7 +63386,7 @@
         <v>9.380000114440918</v>
       </c>
       <c r="F42">
-        <v>8.018641471862793</v>
+        <v>8.018640518188477</v>
       </c>
       <c r="G42">
         <v>10453370</v>
@@ -63432,7 +63432,7 @@
         <v>9.210000038146973</v>
       </c>
       <c r="F44">
-        <v>7.873313426971436</v>
+        <v>7.873312473297119</v>
       </c>
       <c r="G44">
         <v>9038516</v>
@@ -63501,7 +63501,7 @@
         <v>9.329999923706055</v>
       </c>
       <c r="F47">
-        <v>7.975898265838623</v>
+        <v>7.975897789001465</v>
       </c>
       <c r="G47">
         <v>20710295</v>
@@ -63524,7 +63524,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F48">
-        <v>7.77927827835083</v>
+        <v>7.779278755187988</v>
       </c>
       <c r="G48">
         <v>15707567</v>
@@ -63570,7 +63570,7 @@
         <v>8.699999809265137</v>
       </c>
       <c r="F50">
-        <v>7.619336605072021</v>
+        <v>7.619335174560547</v>
       </c>
       <c r="G50">
         <v>14609017</v>
@@ -63593,7 +63593,7 @@
         <v>8.600000381469727</v>
       </c>
       <c r="F51">
-        <v>7.531757831573486</v>
+        <v>7.531757354736328</v>
       </c>
       <c r="G51">
         <v>9613087</v>
@@ -63662,7 +63662,7 @@
         <v>7.630000114440918</v>
       </c>
       <c r="F54">
-        <v>6.682245254516602</v>
+        <v>6.68224573135376</v>
       </c>
       <c r="G54">
         <v>16225655</v>
@@ -63685,7 +63685,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F55">
-        <v>6.953738689422607</v>
+        <v>6.953739166259766</v>
       </c>
       <c r="G55">
         <v>13430926</v>
@@ -63754,7 +63754,7 @@
         <v>8.090000152587891</v>
       </c>
       <c r="F58">
-        <v>7.085106372833252</v>
+        <v>7.08510684967041</v>
       </c>
       <c r="G58">
         <v>3219486</v>
@@ -63915,7 +63915,7 @@
         <v>8.430000305175781</v>
       </c>
       <c r="F65">
-        <v>7.38287353515625</v>
+        <v>7.382874011993408</v>
       </c>
       <c r="G65">
         <v>12957167</v>
@@ -64007,7 +64007,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F69">
-        <v>7.365358352661133</v>
+        <v>7.365357875823975</v>
       </c>
       <c r="G69">
         <v>15893812</v>
@@ -64030,7 +64030,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F70">
-        <v>7.365358352661133</v>
+        <v>7.365357875823975</v>
       </c>
       <c r="G70">
         <v>7522294</v>
@@ -64076,7 +64076,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F72">
-        <v>7.356600284576416</v>
+        <v>7.356599807739258</v>
       </c>
       <c r="G72">
         <v>13293100</v>
@@ -64099,7 +64099,7 @@
         <v>7.989999771118164</v>
       </c>
       <c r="F73">
-        <v>6.997527599334717</v>
+        <v>6.997528076171875</v>
       </c>
       <c r="G73">
         <v>23096718</v>
@@ -64214,7 +64214,7 @@
         <v>7.5</v>
       </c>
       <c r="F78">
-        <v>6.751310348510742</v>
+        <v>6.7513108253479</v>
       </c>
       <c r="G78">
         <v>10806750</v>
@@ -64237,7 +64237,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F79">
-        <v>6.814322948455811</v>
+        <v>6.814322471618652</v>
       </c>
       <c r="G79">
         <v>11031103</v>
@@ -64306,7 +64306,7 @@
         <v>6.480000019073486</v>
       </c>
       <c r="F82">
-        <v>5.833131790161133</v>
+        <v>5.833132266998291</v>
       </c>
       <c r="G82">
         <v>18965893</v>
@@ -64375,7 +64375,7 @@
         <v>6.909999847412109</v>
       </c>
       <c r="F85">
-        <v>6.220207214355469</v>
+        <v>6.220206737518311</v>
       </c>
       <c r="G85">
         <v>7359657</v>
@@ -64398,7 +64398,7 @@
         <v>6.909999847412109</v>
       </c>
       <c r="F86">
-        <v>6.220207214355469</v>
+        <v>6.220206737518311</v>
       </c>
       <c r="G86">
         <v>8003479</v>
@@ -64467,7 +64467,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F89">
-        <v>6.814322948455811</v>
+        <v>6.814322471618652</v>
       </c>
       <c r="G89">
         <v>7485077</v>
@@ -64720,7 +64720,7 @@
         <v>7.510000228881836</v>
       </c>
       <c r="F100">
-        <v>6.760312557220459</v>
+        <v>6.760312080383301</v>
       </c>
       <c r="G100">
         <v>15360146</v>
@@ -66113,7 +66113,7 @@
         <v>187</v>
       </c>
       <c r="F2">
-        <v>148.9344177246094</v>
+        <v>148.9344329833984</v>
       </c>
       <c r="G2">
         <v>9300</v>
@@ -66136,7 +66136,7 @@
         <v>189.9600067138672</v>
       </c>
       <c r="F3">
-        <v>153.8843383789062</v>
+        <v>153.8842926025391</v>
       </c>
       <c r="G3">
         <v>2500</v>
@@ -66159,7 +66159,7 @@
         <v>187.25</v>
       </c>
       <c r="F4">
-        <v>151.68896484375</v>
+        <v>151.6889953613281</v>
       </c>
       <c r="G4">
         <v>3000</v>
@@ -66182,7 +66182,7 @@
         <v>186</v>
       </c>
       <c r="F5">
-        <v>150.6763610839844</v>
+        <v>150.6763763427734</v>
       </c>
       <c r="G5">
         <v>1800</v>
@@ -66251,7 +66251,7 @@
         <v>210</v>
       </c>
       <c r="F8">
-        <v>170.1184692382812</v>
+        <v>170.1184844970703</v>
       </c>
       <c r="G8">
         <v>10200</v>
@@ -66297,7 +66297,7 @@
         <v>213</v>
       </c>
       <c r="F10">
-        <v>172.5487365722656</v>
+        <v>172.5487670898438</v>
       </c>
       <c r="G10">
         <v>800</v>
@@ -66320,7 +66320,7 @@
         <v>208</v>
       </c>
       <c r="F11">
-        <v>168.4983215332031</v>
+        <v>168.4983062744141</v>
       </c>
       <c r="G11">
         <v>1300</v>
@@ -66343,7 +66343,7 @@
         <v>214</v>
       </c>
       <c r="F12">
-        <v>173.3588104248047</v>
+        <v>173.3588409423828</v>
       </c>
       <c r="G12">
         <v>3100</v>
@@ -66412,7 +66412,7 @@
         <v>214.5</v>
       </c>
       <c r="F15">
-        <v>176.3471374511719</v>
+        <v>176.3471069335938</v>
       </c>
       <c r="G15">
         <v>900</v>
@@ -66458,7 +66458,7 @@
         <v>218</v>
       </c>
       <c r="F17">
-        <v>179.2245788574219</v>
+        <v>179.2245941162109</v>
       </c>
       <c r="G17">
         <v>2800</v>
@@ -66481,7 +66481,7 @@
         <v>219</v>
       </c>
       <c r="F18">
-        <v>180.0466918945312</v>
+        <v>180.0467376708984</v>
       </c>
       <c r="G18">
         <v>1300</v>
@@ -66504,7 +66504,7 @@
         <v>219</v>
       </c>
       <c r="F19">
-        <v>180.0466918945312</v>
+        <v>180.0467376708984</v>
       </c>
       <c r="G19">
         <v>600</v>
@@ -66527,7 +66527,7 @@
         <v>225.1000061035156</v>
       </c>
       <c r="F20">
-        <v>185.0617218017578</v>
+        <v>185.0617065429688</v>
       </c>
       <c r="G20">
         <v>1900</v>
@@ -66550,7 +66550,7 @@
         <v>232</v>
       </c>
       <c r="F21">
-        <v>190.7344207763672</v>
+        <v>190.7344055175781</v>
       </c>
       <c r="G21">
         <v>700</v>
@@ -66573,7 +66573,7 @@
         <v>238.0399932861328</v>
       </c>
       <c r="F22">
-        <v>195.7000885009766</v>
+        <v>195.7000732421875</v>
       </c>
       <c r="G22">
         <v>700</v>
@@ -66596,7 +66596,7 @@
         <v>240</v>
       </c>
       <c r="F23">
-        <v>197.3114776611328</v>
+        <v>197.3114929199219</v>
       </c>
       <c r="G23">
         <v>900</v>
@@ -66619,7 +66619,7 @@
         <v>240</v>
       </c>
       <c r="F24">
-        <v>197.3114776611328</v>
+        <v>197.3114929199219</v>
       </c>
       <c r="G24">
         <v>1300</v>
@@ -66642,7 +66642,7 @@
         <v>235</v>
       </c>
       <c r="F25">
-        <v>193.2008056640625</v>
+        <v>193.2008209228516</v>
       </c>
       <c r="G25">
         <v>2600</v>
@@ -66665,7 +66665,7 @@
         <v>239</v>
       </c>
       <c r="F26">
-        <v>196.4893493652344</v>
+        <v>196.4893341064453</v>
       </c>
       <c r="G26">
         <v>1200</v>
@@ -66688,7 +66688,7 @@
         <v>235.1499938964844</v>
       </c>
       <c r="F27">
-        <v>193.3241271972656</v>
+        <v>193.3241119384766</v>
       </c>
       <c r="G27">
         <v>2700</v>
@@ -66711,7 +66711,7 @@
         <v>236.4600067138672</v>
       </c>
       <c r="F28">
-        <v>197.0561828613281</v>
+        <v>197.0562133789062</v>
       </c>
       <c r="G28">
         <v>900</v>
@@ -66734,7 +66734,7 @@
         <v>234.9100036621094</v>
       </c>
       <c r="F29">
-        <v>195.7644653320312</v>
+        <v>195.7644805908203</v>
       </c>
       <c r="G29">
         <v>1400</v>
@@ -66757,7 +66757,7 @@
         <v>230</v>
       </c>
       <c r="F30">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="G30">
         <v>2800</v>
@@ -66780,7 +66780,7 @@
         <v>230</v>
       </c>
       <c r="F31">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="G31">
         <v>1500</v>
@@ -66803,7 +66803,7 @@
         <v>233</v>
       </c>
       <c r="F32">
-        <v>194.1727600097656</v>
+        <v>194.1727752685547</v>
       </c>
       <c r="G32">
         <v>3600</v>
@@ -66826,7 +66826,7 @@
         <v>231.0800018310547</v>
       </c>
       <c r="F33">
-        <v>192.5727386474609</v>
+        <v>192.5727233886719</v>
       </c>
       <c r="G33">
         <v>1200</v>
@@ -66849,7 +66849,7 @@
         <v>228.75</v>
       </c>
       <c r="F34">
-        <v>190.6310119628906</v>
+        <v>190.6309967041016</v>
       </c>
       <c r="G34">
         <v>2200</v>
@@ -66872,7 +66872,7 @@
         <v>232.5</v>
       </c>
       <c r="F35">
-        <v>193.7560882568359</v>
+        <v>193.7561187744141</v>
       </c>
       <c r="G35">
         <v>2700</v>
@@ -66895,7 +66895,7 @@
         <v>234</v>
       </c>
       <c r="F36">
-        <v>195.0061187744141</v>
+        <v>195.0061340332031</v>
       </c>
       <c r="G36">
         <v>4600</v>
@@ -66918,7 +66918,7 @@
         <v>233.8500061035156</v>
       </c>
       <c r="F37">
-        <v>194.8811340332031</v>
+        <v>194.8811492919922</v>
       </c>
       <c r="G37">
         <v>1600</v>
@@ -66941,7 +66941,7 @@
         <v>234</v>
       </c>
       <c r="F38">
-        <v>195.0061187744141</v>
+        <v>195.0061340332031</v>
       </c>
       <c r="G38">
         <v>3000</v>
@@ -66964,7 +66964,7 @@
         <v>233.9600067138672</v>
       </c>
       <c r="F39">
-        <v>194.9727783203125</v>
+        <v>194.9727935791016</v>
       </c>
       <c r="G39">
         <v>1400</v>
@@ -66987,7 +66987,7 @@
         <v>235.8500061035156</v>
       </c>
       <c r="F40">
-        <v>196.5478515625</v>
+        <v>196.5478668212891</v>
       </c>
       <c r="G40">
         <v>1100</v>
@@ -67010,7 +67010,7 @@
         <v>230</v>
       </c>
       <c r="F41">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="G41">
         <v>2100</v>
@@ -67033,7 +67033,7 @@
         <v>233.6000061035156</v>
       </c>
       <c r="F42">
-        <v>197.3602294921875</v>
+        <v>197.3602447509766</v>
       </c>
       <c r="G42">
         <v>1000</v>
@@ -67056,7 +67056,7 @@
         <v>231.4499969482422</v>
       </c>
       <c r="F43">
-        <v>195.5437927246094</v>
+        <v>195.5437774658203</v>
       </c>
       <c r="G43">
         <v>1300</v>
@@ -67079,7 +67079,7 @@
         <v>226.1000061035156</v>
       </c>
       <c r="F44">
-        <v>191.0237731933594</v>
+        <v>191.0237579345703</v>
       </c>
       <c r="G44">
         <v>900</v>
@@ -67102,7 +67102,7 @@
         <v>233.7400054931641</v>
       </c>
       <c r="F45">
-        <v>197.4785461425781</v>
+        <v>197.4785308837891</v>
       </c>
       <c r="G45">
         <v>1100</v>
@@ -67125,7 +67125,7 @@
         <v>233.9900054931641</v>
       </c>
       <c r="F46">
-        <v>197.6897583007812</v>
+        <v>197.6897735595703</v>
       </c>
       <c r="G46">
         <v>1100</v>
@@ -67171,7 +67171,7 @@
         <v>236.8899993896484</v>
       </c>
       <c r="F48">
-        <v>200.1398468017578</v>
+        <v>200.1398620605469</v>
       </c>
       <c r="G48">
         <v>1400</v>
@@ -67194,7 +67194,7 @@
         <v>230</v>
       </c>
       <c r="F49">
-        <v>194.3187408447266</v>
+        <v>194.3187255859375</v>
       </c>
       <c r="G49">
         <v>1100</v>
@@ -67240,7 +67240,7 @@
         <v>235</v>
       </c>
       <c r="F51">
-        <v>201.2609558105469</v>
+        <v>201.2609710693359</v>
       </c>
       <c r="G51">
         <v>1200</v>
@@ -67263,7 +67263,7 @@
         <v>235.8500061035156</v>
       </c>
       <c r="F52">
-        <v>201.9889221191406</v>
+        <v>201.9889526367188</v>
       </c>
       <c r="G52">
         <v>1200</v>
@@ -67309,7 +67309,7 @@
         <v>237.5</v>
       </c>
       <c r="F54">
-        <v>203.4020538330078</v>
+        <v>203.4020233154297</v>
       </c>
       <c r="G54">
         <v>2300</v>
@@ -67355,7 +67355,7 @@
         <v>230.25</v>
       </c>
       <c r="F56">
-        <v>199.8576812744141</v>
+        <v>199.857666015625</v>
       </c>
       <c r="G56">
         <v>1300</v>
@@ -67378,7 +67378,7 @@
         <v>231.25</v>
       </c>
       <c r="F57">
-        <v>200.7257080078125</v>
+        <v>200.7256927490234</v>
       </c>
       <c r="G57">
         <v>1200</v>
@@ -67424,7 +67424,7 @@
         <v>237.5</v>
       </c>
       <c r="F59">
-        <v>206.1507263183594</v>
+        <v>206.1507110595703</v>
       </c>
       <c r="G59">
         <v>2200</v>
@@ -67516,7 +67516,7 @@
         <v>252.0200042724609</v>
       </c>
       <c r="F63">
-        <v>218.7541198730469</v>
+        <v>218.7541046142578</v>
       </c>
       <c r="G63">
         <v>4500</v>
@@ -67539,7 +67539,7 @@
         <v>255</v>
       </c>
       <c r="F64">
-        <v>221.3407745361328</v>
+        <v>221.3407592773438</v>
       </c>
       <c r="G64">
         <v>1800</v>
@@ -67562,7 +67562,7 @@
         <v>259.9599914550781</v>
       </c>
       <c r="F65">
-        <v>225.6460723876953</v>
+        <v>225.6460571289062</v>
       </c>
       <c r="G65">
         <v>2400</v>
@@ -67631,7 +67631,7 @@
         <v>255.0200042724609</v>
       </c>
       <c r="F68">
-        <v>224.0902862548828</v>
+        <v>224.09033203125</v>
       </c>
       <c r="G68">
         <v>800</v>
@@ -67654,7 +67654,7 @@
         <v>261.9599914550781</v>
       </c>
       <c r="F69">
-        <v>230.1885986328125</v>
+        <v>230.1885833740234</v>
       </c>
       <c r="G69">
         <v>700</v>
@@ -67677,7 +67677,7 @@
         <v>262.0199890136719</v>
       </c>
       <c r="F70">
-        <v>230.2413024902344</v>
+        <v>230.2413177490234</v>
       </c>
       <c r="G70">
         <v>1000</v>
@@ -67700,7 +67700,7 @@
         <v>267</v>
       </c>
       <c r="F71">
-        <v>234.6173095703125</v>
+        <v>234.6173400878906</v>
       </c>
       <c r="G71">
         <v>600</v>
@@ -67746,7 +67746,7 @@
         <v>260</v>
       </c>
       <c r="F73">
-        <v>228.46630859375</v>
+        <v>228.4662933349609</v>
       </c>
       <c r="G73">
         <v>1100</v>
@@ -67792,7 +67792,7 @@
         <v>255</v>
       </c>
       <c r="F75">
-        <v>224.0727386474609</v>
+        <v>224.0727233886719</v>
       </c>
       <c r="G75">
         <v>2900</v>
@@ -67884,7 +67884,7 @@
         <v>249.5</v>
       </c>
       <c r="F79">
-        <v>219.2397918701172</v>
+        <v>219.2397613525391</v>
       </c>
       <c r="G79">
         <v>700</v>
@@ -67907,7 +67907,7 @@
         <v>249.25</v>
       </c>
       <c r="F80">
-        <v>219.0200958251953</v>
+        <v>219.0201110839844</v>
       </c>
       <c r="G80">
         <v>400</v>
@@ -67930,7 +67930,7 @@
         <v>240</v>
       </c>
       <c r="F81">
-        <v>213.6319580078125</v>
+        <v>213.6319732666016</v>
       </c>
       <c r="G81">
         <v>400</v>
@@ -67953,7 +67953,7 @@
         <v>240.5</v>
       </c>
       <c r="F82">
-        <v>214.0770263671875</v>
+        <v>214.0770111083984</v>
       </c>
       <c r="G82">
         <v>700</v>
@@ -67976,7 +67976,7 @@
         <v>235.5</v>
       </c>
       <c r="F83">
-        <v>209.6263427734375</v>
+        <v>209.6263732910156</v>
       </c>
       <c r="G83">
         <v>2400</v>
@@ -67999,7 +67999,7 @@
         <v>242.4600067138672</v>
       </c>
       <c r="F84">
-        <v>215.8217010498047</v>
+        <v>215.8216857910156</v>
       </c>
       <c r="G84">
         <v>800</v>
@@ -68045,7 +68045,7 @@
         <v>245</v>
       </c>
       <c r="F86">
-        <v>218.0826110839844</v>
+        <v>218.0826263427734</v>
       </c>
       <c r="G86">
         <v>1400</v>
@@ -68068,7 +68068,7 @@
         <v>248</v>
       </c>
       <c r="F87">
-        <v>220.7530059814453</v>
+        <v>220.7530212402344</v>
       </c>
       <c r="G87">
         <v>700</v>
@@ -68114,7 +68114,7 @@
         <v>245</v>
       </c>
       <c r="F89">
-        <v>218.0826110839844</v>
+        <v>218.0826263427734</v>
       </c>
       <c r="G89">
         <v>500</v>
@@ -68137,7 +68137,7 @@
         <v>255</v>
       </c>
       <c r="F90">
-        <v>226.9839630126953</v>
+        <v>226.9839477539062</v>
       </c>
       <c r="G90">
         <v>500</v>
@@ -68160,7 +68160,7 @@
         <v>259.5</v>
       </c>
       <c r="F91">
-        <v>230.9895477294922</v>
+        <v>230.9895629882812</v>
       </c>
       <c r="G91">
         <v>1200</v>
@@ -68183,7 +68183,7 @@
         <v>257</v>
       </c>
       <c r="F92">
-        <v>228.7642059326172</v>
+        <v>228.7641906738281</v>
       </c>
       <c r="G92">
         <v>600</v>
@@ -68206,7 +68206,7 @@
         <v>255</v>
       </c>
       <c r="F93">
-        <v>226.9839630126953</v>
+        <v>226.9839477539062</v>
       </c>
       <c r="G93">
         <v>600</v>
@@ -68229,7 +68229,7 @@
         <v>247</v>
       </c>
       <c r="F94">
-        <v>222.6025085449219</v>
+        <v>222.6025238037109</v>
       </c>
       <c r="G94">
         <v>400</v>
@@ -68298,7 +68298,7 @@
         <v>241.0500030517578</v>
       </c>
       <c r="F97">
-        <v>217.240234375</v>
+        <v>217.2402191162109</v>
       </c>
       <c r="G97">
         <v>1200</v>
@@ -68321,7 +68321,7 @@
         <v>240.7899932861328</v>
       </c>
       <c r="F98">
-        <v>217.0059051513672</v>
+        <v>217.0058898925781</v>
       </c>
       <c r="G98">
         <v>1700</v>
@@ -68344,7 +68344,7 @@
         <v>240.5099945068359</v>
       </c>
       <c r="F99">
-        <v>216.7535705566406</v>
+        <v>216.7535552978516</v>
       </c>
       <c r="G99">
         <v>1000</v>
@@ -68390,7 +68390,7 @@
         <v>244.9600067138672</v>
       </c>
       <c r="F101">
-        <v>220.7640075683594</v>
+        <v>220.7640228271484</v>
       </c>
       <c r="G101">
         <v>1500</v>
@@ -68413,7 +68413,7 @@
         <v>247.0299987792969</v>
       </c>
       <c r="F102">
-        <v>222.6295471191406</v>
+        <v>222.6295623779297</v>
       </c>
       <c r="G102">
         <v>1200</v>
@@ -68436,7 +68436,7 @@
         <v>241.9900054931641</v>
       </c>
       <c r="F103">
-        <v>218.0873718261719</v>
+        <v>218.0873870849609</v>
       </c>
       <c r="G103">
         <v>800</v>
@@ -68482,7 +68482,7 @@
         <v>244</v>
       </c>
       <c r="F105">
-        <v>219.8988189697266</v>
+        <v>219.8988342285156</v>
       </c>
       <c r="G105">
         <v>1100</v>
@@ -68620,7 +68620,7 @@
         <v>231</v>
       </c>
       <c r="F111">
-        <v>213.7205963134766</v>
+        <v>213.7206115722656</v>
       </c>
       <c r="G111">
         <v>600</v>
@@ -68643,7 +68643,7 @@
         <v>237.0899963378906</v>
       </c>
       <c r="F112">
-        <v>219.3550415039062</v>
+        <v>219.3550720214844</v>
       </c>
       <c r="G112">
         <v>700</v>
@@ -68689,7 +68689,7 @@
         <v>233.5299987792969</v>
       </c>
       <c r="F114">
-        <v>216.0613555908203</v>
+        <v>216.0613708496094</v>
       </c>
       <c r="G114">
         <v>1200</v>
@@ -68712,7 +68712,7 @@
         <v>232.9799957275391</v>
       </c>
       <c r="F115">
-        <v>215.552490234375</v>
+        <v>215.5525054931641</v>
       </c>
       <c r="G115">
         <v>600</v>
@@ -68804,7 +68804,7 @@
         <v>228.8099975585938</v>
       </c>
       <c r="F119">
-        <v>211.6944274902344</v>
+        <v>211.6944122314453</v>
       </c>
       <c r="G119">
         <v>800</v>
@@ -68827,7 +68827,7 @@
         <v>221.1600036621094</v>
       </c>
       <c r="F120">
-        <v>207.4954071044922</v>
+        <v>207.4954223632812</v>
       </c>
       <c r="G120">
         <v>2800</v>
@@ -68850,7 +68850,7 @@
         <v>195.7200012207031</v>
       </c>
       <c r="F121">
-        <v>183.6272430419922</v>
+        <v>183.6272583007812</v>
       </c>
       <c r="G121">
         <v>5900</v>
@@ -69011,7 +69011,7 @@
         <v>197.9900054931641</v>
       </c>
       <c r="F128">
-        <v>185.7569885253906</v>
+        <v>185.7570037841797</v>
       </c>
       <c r="G128">
         <v>1000</v>
@@ -69034,7 +69034,7 @@
         <v>202.3399963378906</v>
       </c>
       <c r="F129">
-        <v>189.8382415771484</v>
+        <v>189.8382110595703</v>
       </c>
       <c r="G129">
         <v>1000</v>
@@ -69149,7 +69149,7 @@
         <v>199</v>
       </c>
       <c r="F134">
-        <v>189.7289123535156</v>
+        <v>189.7289276123047</v>
       </c>
       <c r="G134">
         <v>1000</v>
@@ -69172,7 +69172,7 @@
         <v>195</v>
       </c>
       <c r="F135">
-        <v>185.9152679443359</v>
+        <v>185.915283203125</v>
       </c>
       <c r="G135">
         <v>500</v>
@@ -69195,7 +69195,7 @@
         <v>196.0500030517578</v>
       </c>
       <c r="F136">
-        <v>186.9163665771484</v>
+        <v>186.9163513183594</v>
       </c>
       <c r="G136">
         <v>700</v>
@@ -69287,7 +69287,7 @@
         <v>193.5500030517578</v>
       </c>
       <c r="F140">
-        <v>184.5328369140625</v>
+        <v>184.5328216552734</v>
       </c>
       <c r="G140">
         <v>1900</v>
@@ -69310,7 +69310,7 @@
         <v>194</v>
       </c>
       <c r="F141">
-        <v>184.9618682861328</v>
+        <v>184.9618530273438</v>
       </c>
       <c r="G141">
         <v>1700</v>
@@ -73430,7 +73430,7 @@
         <v>136.5099945068359</v>
       </c>
       <c r="F3">
-        <v>126.7180938720703</v>
+        <v>126.718132019043</v>
       </c>
       <c r="G3">
         <v>33533400</v>
@@ -73453,7 +73453,7 @@
         <v>139.0399932861328</v>
       </c>
       <c r="F4">
-        <v>129.0666656494141</v>
+        <v>129.066650390625</v>
       </c>
       <c r="G4">
         <v>44658900</v>
@@ -73476,7 +73476,7 @@
         <v>137.7200012207031</v>
       </c>
       <c r="F5">
-        <v>127.8413467407227</v>
+        <v>127.8413162231445</v>
       </c>
       <c r="G5">
         <v>20347900</v>
@@ -73522,7 +73522,7 @@
         <v>138.7899932861328</v>
       </c>
       <c r="F7">
-        <v>128.8345794677734</v>
+        <v>128.8345642089844</v>
       </c>
       <c r="G7">
         <v>40569200</v>
@@ -73545,7 +73545,7 @@
         <v>134.7799987792969</v>
       </c>
       <c r="F8">
-        <v>125.1122283935547</v>
+        <v>125.1122207641602</v>
       </c>
       <c r="G8">
         <v>33582600</v>
@@ -73568,7 +73568,7 @@
         <v>130</v>
       </c>
       <c r="F9">
-        <v>120.6750946044922</v>
+        <v>120.6750869750977</v>
       </c>
       <c r="G9">
         <v>37655900</v>
@@ -73637,7 +73637,7 @@
         <v>127.620002746582</v>
       </c>
       <c r="F12">
-        <v>119.1803741455078</v>
+        <v>119.1803665161133</v>
       </c>
       <c r="G12">
         <v>36069600</v>
@@ -73660,7 +73660,7 @@
         <v>127.120002746582</v>
       </c>
       <c r="F13">
-        <v>118.7134246826172</v>
+        <v>118.7134323120117</v>
       </c>
       <c r="G13">
         <v>32305500</v>
@@ -73683,7 +73683,7 @@
         <v>123.5299987792969</v>
       </c>
       <c r="F14">
-        <v>115.36083984375</v>
+        <v>115.3608322143555</v>
       </c>
       <c r="G14">
         <v>49893400</v>
@@ -73706,7 +73706,7 @@
         <v>125.9800033569336</v>
       </c>
       <c r="F15">
-        <v>117.6488265991211</v>
+        <v>117.6488342285156</v>
       </c>
       <c r="G15">
         <v>46202700</v>
@@ -73775,7 +73775,7 @@
         <v>135.4499969482422</v>
       </c>
       <c r="F18">
-        <v>126.4925537109375</v>
+        <v>126.4925384521484</v>
       </c>
       <c r="G18">
         <v>44237900</v>
@@ -73821,7 +73821,7 @@
         <v>136.3699951171875</v>
       </c>
       <c r="F20">
-        <v>127.3517150878906</v>
+        <v>127.3517303466797</v>
       </c>
       <c r="G20">
         <v>36749900</v>
@@ -73844,7 +73844,7 @@
         <v>137.25</v>
       </c>
       <c r="F21">
-        <v>128.1735076904297</v>
+        <v>128.1735382080078</v>
       </c>
       <c r="G21">
         <v>38839900</v>
@@ -73867,7 +73867,7 @@
         <v>133.9400024414062</v>
       </c>
       <c r="F22">
-        <v>125.082389831543</v>
+        <v>125.0824356079102</v>
       </c>
       <c r="G22">
         <v>41702400</v>
@@ -73936,7 +73936,7 @@
         <v>138.0099945068359</v>
       </c>
       <c r="F25">
-        <v>129.7078704833984</v>
+        <v>129.7078552246094</v>
       </c>
       <c r="G25">
         <v>43423200</v>
@@ -73959,7 +73959,7 @@
         <v>138</v>
       </c>
       <c r="F26">
-        <v>129.6984710693359</v>
+        <v>129.6984558105469</v>
       </c>
       <c r="G26">
         <v>45665800</v>
@@ -73982,7 +73982,7 @@
         <v>134.8500061035156</v>
       </c>
       <c r="F27">
-        <v>126.7379684448242</v>
+        <v>126.7379379272461</v>
       </c>
       <c r="G27">
         <v>66819400</v>
@@ -74005,7 +74005,7 @@
         <v>135.9499969482422</v>
       </c>
       <c r="F28">
-        <v>127.7717819213867</v>
+        <v>127.7717666625977</v>
       </c>
       <c r="G28">
         <v>36392200</v>
@@ -74028,7 +74028,7 @@
         <v>134.8600006103516</v>
       </c>
       <c r="F29">
-        <v>126.7473602294922</v>
+        <v>126.7473297119141</v>
       </c>
       <c r="G29">
         <v>38687100</v>
@@ -74051,7 +74051,7 @@
         <v>132.0299987792969</v>
       </c>
       <c r="F30">
-        <v>124.0875930786133</v>
+        <v>124.0876007080078</v>
       </c>
       <c r="G30">
         <v>42655000</v>
@@ -74097,7 +74097,7 @@
         <v>135.8999938964844</v>
       </c>
       <c r="F32">
-        <v>127.7247695922852</v>
+        <v>127.7247924804688</v>
       </c>
       <c r="G32">
         <v>29128600</v>
@@ -74143,7 +74143,7 @@
         <v>140.5099945068359</v>
       </c>
       <c r="F34">
-        <v>132.0574340820312</v>
+        <v>132.0574645996094</v>
       </c>
       <c r="G34">
         <v>35018100</v>
@@ -74166,7 +74166,7 @@
         <v>139.7899932861328</v>
       </c>
       <c r="F35">
-        <v>131.3807830810547</v>
+        <v>131.3807525634766</v>
       </c>
       <c r="G35">
         <v>38554900</v>
@@ -74235,7 +74235,7 @@
         <v>143.6399993896484</v>
       </c>
       <c r="F38">
-        <v>135.8482360839844</v>
+        <v>135.8482513427734</v>
       </c>
       <c r="G38">
         <v>24047200</v>
@@ -74258,7 +74258,7 @@
         <v>145.0899963378906</v>
       </c>
       <c r="F39">
-        <v>137.2195892333984</v>
+        <v>137.2195587158203</v>
       </c>
       <c r="G39">
         <v>31840800</v>
@@ -74281,7 +74281,7 @@
         <v>142.3099975585938</v>
       </c>
       <c r="F40">
-        <v>134.5903930664062</v>
+        <v>134.5903778076172</v>
       </c>
       <c r="G40">
         <v>22434700</v>
@@ -74327,7 +74327,7 @@
         <v>144.1300048828125</v>
       </c>
       <c r="F42">
-        <v>136.3116760253906</v>
+        <v>136.3116455078125</v>
       </c>
       <c r="G42">
         <v>25523100</v>
@@ -74396,7 +74396,7 @@
         <v>139.5800018310547</v>
       </c>
       <c r="F45">
-        <v>132.0084686279297</v>
+        <v>132.0084838867188</v>
       </c>
       <c r="G45">
         <v>30747100</v>
@@ -74419,7 +74419,7 @@
         <v>141.7299957275391</v>
       </c>
       <c r="F46">
-        <v>134.0418548583984</v>
+        <v>134.0418243408203</v>
       </c>
       <c r="G46">
         <v>29518000</v>
@@ -74488,7 +74488,7 @@
         <v>142.9900054931641</v>
       </c>
       <c r="F49">
-        <v>136.0718383789062</v>
+        <v>136.0718688964844</v>
       </c>
       <c r="G49">
         <v>32038500</v>
@@ -74511,7 +74511,7 @@
         <v>146.0399932861328</v>
       </c>
       <c r="F50">
-        <v>138.9742584228516</v>
+        <v>138.9742889404297</v>
       </c>
       <c r="G50">
         <v>35078500</v>
@@ -74534,7 +74534,7 @@
         <v>146.5599975585938</v>
       </c>
       <c r="F51">
-        <v>139.4691009521484</v>
+        <v>139.4691162109375</v>
       </c>
       <c r="G51">
         <v>27846100</v>
@@ -74557,7 +74557,7 @@
         <v>146.8200073242188</v>
       </c>
       <c r="F52">
-        <v>139.7165374755859</v>
+        <v>139.716552734375</v>
       </c>
       <c r="G52">
         <v>29797900</v>
@@ -74580,7 +74580,7 @@
         <v>147.4700012207031</v>
       </c>
       <c r="F53">
-        <v>140.3350982666016</v>
+        <v>140.3350830078125</v>
       </c>
       <c r="G53">
         <v>26503200</v>
@@ -74626,7 +74626,7 @@
         <v>155.4600067138672</v>
       </c>
       <c r="F55">
-        <v>147.9385070800781</v>
+        <v>147.9385223388672</v>
       </c>
       <c r="G55">
         <v>43684400</v>
@@ -74649,7 +74649,7 @@
         <v>157.4600067138672</v>
       </c>
       <c r="F56">
-        <v>149.8417663574219</v>
+        <v>149.8417510986328</v>
       </c>
       <c r="G56">
         <v>61976400</v>
@@ -74672,7 +74672,7 @@
         <v>160.1000061035156</v>
       </c>
       <c r="F57">
-        <v>152.3540344238281</v>
+        <v>152.3540191650391</v>
       </c>
       <c r="G57">
         <v>28415800</v>
@@ -74695,7 +74695,7 @@
         <v>163.5800018310547</v>
       </c>
       <c r="F58">
-        <v>155.6656799316406</v>
+        <v>155.6656494140625</v>
       </c>
       <c r="G58">
         <v>27062600</v>
@@ -74718,7 +74718,7 @@
         <v>162.7400054931641</v>
       </c>
       <c r="F59">
-        <v>154.8662719726562</v>
+        <v>154.8662872314453</v>
       </c>
       <c r="G59">
         <v>41555800</v>
@@ -74741,7 +74741,7 @@
         <v>159.8099975585938</v>
       </c>
       <c r="F60">
-        <v>152.0780639648438</v>
+        <v>152.0780487060547</v>
       </c>
       <c r="G60">
         <v>44399400</v>
@@ -74764,7 +74764,7 @@
         <v>162.6199951171875</v>
       </c>
       <c r="F61">
-        <v>154.7520904541016</v>
+        <v>154.7521057128906</v>
       </c>
       <c r="G61">
         <v>46776200</v>
@@ -74810,7 +74810,7 @@
         <v>161.5299987792969</v>
       </c>
       <c r="F63">
-        <v>154.5447845458984</v>
+        <v>154.5448150634766</v>
       </c>
       <c r="G63">
         <v>42227400</v>
@@ -74833,7 +74833,7 @@
         <v>156.2899932861328</v>
       </c>
       <c r="F64">
-        <v>149.5313720703125</v>
+        <v>149.5314025878906</v>
       </c>
       <c r="G64">
         <v>35931000</v>
@@ -74856,7 +74856,7 @@
         <v>159.8999938964844</v>
       </c>
       <c r="F65">
-        <v>152.9852600097656</v>
+        <v>152.9852905273438</v>
       </c>
       <c r="G65">
         <v>41435800</v>
@@ -74902,7 +74902,7 @@
         <v>155.1399993896484</v>
       </c>
       <c r="F67">
-        <v>148.4311218261719</v>
+        <v>148.4311370849609</v>
       </c>
       <c r="G67">
         <v>39182700</v>
@@ -74925,7 +74925,7 @@
         <v>143.2200012207031</v>
       </c>
       <c r="F68">
-        <v>137.0265960693359</v>
+        <v>137.0265808105469</v>
       </c>
       <c r="G68">
         <v>41242900</v>
@@ -74994,7 +74994,7 @@
         <v>155.0899963378906</v>
       </c>
       <c r="F71">
-        <v>148.3832702636719</v>
+        <v>148.38330078125</v>
       </c>
       <c r="G71">
         <v>28937900</v>
@@ -75017,7 +75017,7 @@
         <v>160.1000061035156</v>
       </c>
       <c r="F72">
-        <v>153.1766510009766</v>
+        <v>153.1766357421875</v>
       </c>
       <c r="G72">
         <v>35464800</v>
@@ -75040,7 +75040,7 @@
         <v>158.5700073242188</v>
       </c>
       <c r="F73">
-        <v>151.7128143310547</v>
+        <v>151.7127990722656</v>
       </c>
       <c r="G73">
         <v>26434100</v>
@@ -75132,7 +75132,7 @@
         <v>153.6199951171875</v>
       </c>
       <c r="F77">
-        <v>147.8014373779297</v>
+        <v>147.8014221191406</v>
       </c>
       <c r="G77">
         <v>38956700</v>
@@ -75155,7 +75155,7 @@
         <v>141.7899932861328</v>
       </c>
       <c r="F78">
-        <v>136.4195098876953</v>
+        <v>136.4194946289062</v>
       </c>
       <c r="G78">
         <v>39631800</v>
@@ -75178,7 +75178,7 @@
         <v>148.7200012207031</v>
       </c>
       <c r="F79">
-        <v>143.0870208740234</v>
+        <v>143.0870361328125</v>
       </c>
       <c r="G79">
         <v>34291100</v>
@@ -75224,7 +75224,7 @@
         <v>141.9499969482422</v>
       </c>
       <c r="F81">
-        <v>136.5734710693359</v>
+        <v>136.5734558105469</v>
       </c>
       <c r="G81">
         <v>25295800</v>
@@ -75293,7 +75293,7 @@
         <v>146.1100006103516</v>
       </c>
       <c r="F84">
-        <v>140.5758972167969</v>
+        <v>140.5758819580078</v>
       </c>
       <c r="G84">
         <v>30217700</v>
@@ -75316,7 +75316,7 @@
         <v>145.0200042724609</v>
       </c>
       <c r="F85">
-        <v>139.5271759033203</v>
+        <v>139.5271911621094</v>
       </c>
       <c r="G85">
         <v>22163700</v>
@@ -75339,7 +75339,7 @@
         <v>145.0700073242188</v>
       </c>
       <c r="F86">
-        <v>139.5752868652344</v>
+        <v>139.5753021240234</v>
       </c>
       <c r="G86">
         <v>26894500</v>
@@ -75408,7 +75408,7 @@
         <v>144.7200012207031</v>
       </c>
       <c r="F89">
-        <v>140.1424407958984</v>
+        <v>140.1424560546875</v>
       </c>
       <c r="G89">
         <v>37601000</v>
@@ -75454,7 +75454,7 @@
         <v>149.7299957275391</v>
       </c>
       <c r="F91">
-        <v>144.9939880371094</v>
+        <v>144.9939727783203</v>
       </c>
       <c r="G91">
         <v>28267100</v>
@@ -75477,7 +75477,7 @@
         <v>142.2899932861328</v>
       </c>
       <c r="F92">
-        <v>137.7893371582031</v>
+        <v>137.7893218994141</v>
       </c>
       <c r="G92">
         <v>28736300</v>
@@ -75500,7 +75500,7 @@
         <v>137.1600036621094</v>
       </c>
       <c r="F93">
-        <v>132.8215789794922</v>
+        <v>132.8216094970703</v>
       </c>
       <c r="G93">
         <v>33407000</v>
@@ -75569,7 +75569,7 @@
         <v>135.5800018310547</v>
       </c>
       <c r="F96">
-        <v>131.2915649414062</v>
+        <v>131.2915496826172</v>
       </c>
       <c r="G96">
         <v>29644900</v>
@@ -75615,7 +75615,7 @@
         <v>124.2699966430664</v>
       </c>
       <c r="F98">
-        <v>120.3393020629883</v>
+        <v>120.3392944335938</v>
       </c>
       <c r="G98">
         <v>32386600</v>
@@ -75638,7 +75638,7 @@
         <v>125.0800018310547</v>
       </c>
       <c r="F99">
-        <v>121.1236801147461</v>
+        <v>121.1236724853516</v>
       </c>
       <c r="G99">
         <v>31690300</v>
@@ -75684,7 +75684,7 @@
         <v>135.2200012207031</v>
       </c>
       <c r="F101">
-        <v>131.8722534179688</v>
+        <v>131.8722381591797</v>
       </c>
       <c r="G101">
         <v>34007900</v>
@@ -75707,7 +75707,7 @@
         <v>134.4400024414062</v>
       </c>
       <c r="F102">
-        <v>131.1115570068359</v>
+        <v>131.1115417480469</v>
       </c>
       <c r="G102">
         <v>32852100</v>
@@ -75799,7 +75799,7 @@
         <v>150.6100006103516</v>
       </c>
       <c r="F106">
-        <v>146.8812255859375</v>
+        <v>146.8812103271484</v>
       </c>
       <c r="G106">
         <v>36524900</v>
@@ -75868,7 +75868,7 @@
         <v>152.6199951171875</v>
       </c>
       <c r="F109">
-        <v>148.8414459228516</v>
+        <v>148.8414611816406</v>
       </c>
       <c r="G109">
         <v>25859300</v>
@@ -75937,7 +75937,7 @@
         <v>150.8800048828125</v>
       </c>
       <c r="F112">
-        <v>147.14453125</v>
+        <v>147.1445465087891</v>
       </c>
       <c r="G112">
         <v>32472100</v>
@@ -75960,7 +75960,7 @@
         <v>142.9700012207031</v>
       </c>
       <c r="F113">
-        <v>139.4303588867188</v>
+        <v>139.4303741455078</v>
       </c>
       <c r="G113">
         <v>41360000</v>
@@ -76052,7 +76052,7 @@
         <v>140.0099945068359</v>
       </c>
       <c r="F117">
-        <v>137.4004516601562</v>
+        <v>137.4004669189453</v>
       </c>
       <c r="G117">
         <v>31495800</v>
@@ -76098,7 +76098,7 @@
         <v>140.9499969482422</v>
       </c>
       <c r="F119">
-        <v>138.3229522705078</v>
+        <v>138.3229370117188</v>
       </c>
       <c r="G119">
         <v>30816600</v>
@@ -76167,7 +76167,7 @@
         <v>146.7200012207031</v>
       </c>
       <c r="F122">
-        <v>143.9853973388672</v>
+        <v>143.9854125976562</v>
       </c>
       <c r="G122">
         <v>33794700</v>
@@ -76236,7 +76236,7 @@
         <v>151</v>
       </c>
       <c r="F125">
-        <v>148.1856384277344</v>
+        <v>148.1856231689453</v>
       </c>
       <c r="G125">
         <v>27309800</v>
@@ -76259,7 +76259,7 @@
         <v>156.0700073242188</v>
       </c>
       <c r="F126">
-        <v>153.1611328125</v>
+        <v>153.1611480712891</v>
       </c>
       <c r="G126">
         <v>32540200</v>
@@ -76282,7 +76282,7 @@
         <v>156.3800048828125</v>
       </c>
       <c r="F127">
-        <v>154.4261779785156</v>
+        <v>154.4261932373047</v>
       </c>
       <c r="G127">
         <v>31854900</v>
@@ -76328,7 +76328,7 @@
         <v>155.9600067138672</v>
       </c>
       <c r="F129">
-        <v>154.0114288330078</v>
+        <v>154.0114440917969</v>
       </c>
       <c r="G129">
         <v>22925200</v>
@@ -76535,7 +76535,7 @@
         <v>150.0500030517578</v>
       </c>
       <c r="F138">
-        <v>148.1752624511719</v>
+        <v>148.1752777099609</v>
       </c>
       <c r="G138">
         <v>29134000</v>
@@ -76558,7 +76558,7 @@
         <v>152.9299926757812</v>
       </c>
       <c r="F139">
-        <v>151.019287109375</v>
+        <v>151.0192718505859</v>
       </c>
       <c r="G139">
         <v>32567600</v>
@@ -77077,7 +77077,7 @@
         <v>835</v>
       </c>
       <c r="F3">
-        <v>820.306884765625</v>
+        <v>820.3069458007812</v>
       </c>
       <c r="G3">
         <v>268689</v>
@@ -77100,7 +77100,7 @@
         <v>859.7999877929688</v>
       </c>
       <c r="F4">
-        <v>844.6705322265625</v>
+        <v>844.6705932617188</v>
       </c>
       <c r="G4">
         <v>350407</v>
@@ -77123,7 +77123,7 @@
         <v>851.4000244140625</v>
       </c>
       <c r="F5">
-        <v>836.4182739257812</v>
+        <v>836.4183959960938</v>
       </c>
       <c r="G5">
         <v>147117</v>
@@ -77146,7 +77146,7 @@
         <v>879.5999755859375</v>
       </c>
       <c r="F6">
-        <v>864.1221313476562</v>
+        <v>864.1220703125</v>
       </c>
       <c r="G6">
         <v>93278</v>
@@ -77215,7 +77215,7 @@
         <v>875.5999755859375</v>
       </c>
       <c r="F9">
-        <v>860.1924438476562</v>
+        <v>860.1925048828125</v>
       </c>
       <c r="G9">
         <v>204694</v>
@@ -77238,7 +77238,7 @@
         <v>842.5999755859375</v>
       </c>
       <c r="F10">
-        <v>827.7731323242188</v>
+        <v>827.773193359375</v>
       </c>
       <c r="G10">
         <v>271145</v>
@@ -77261,7 +77261,7 @@
         <v>900.5999755859375</v>
       </c>
       <c r="F11">
-        <v>884.7525634765625</v>
+        <v>884.7525024414062</v>
       </c>
       <c r="G11">
         <v>253019</v>
@@ -77284,7 +77284,7 @@
         <v>924.4000244140625</v>
       </c>
       <c r="F12">
-        <v>908.1337890625</v>
+        <v>908.1338500976562</v>
       </c>
       <c r="G12">
         <v>185257</v>
@@ -77330,7 +77330,7 @@
         <v>923.2000122070312</v>
       </c>
       <c r="F14">
-        <v>906.9549560546875</v>
+        <v>906.954833984375</v>
       </c>
       <c r="G14">
         <v>252421</v>
@@ -77353,7 +77353,7 @@
         <v>890</v>
       </c>
       <c r="F15">
-        <v>874.3390502929688</v>
+        <v>874.339111328125</v>
       </c>
       <c r="G15">
         <v>223097</v>
@@ -77376,7 +77376,7 @@
         <v>954.2000122070312</v>
       </c>
       <c r="F16">
-        <v>938.9257202148438</v>
+        <v>938.92578125</v>
       </c>
       <c r="G16">
         <v>283645</v>
@@ -77399,7 +77399,7 @@
         <v>947.2000122070312</v>
       </c>
       <c r="F17">
-        <v>932.037841796875</v>
+        <v>932.0379028320312</v>
       </c>
       <c r="G17">
         <v>378307</v>
@@ -77422,7 +77422,7 @@
         <v>943.2000122070312</v>
       </c>
       <c r="F18">
-        <v>928.101806640625</v>
+        <v>928.1017456054688</v>
       </c>
       <c r="G18">
         <v>221186</v>
@@ -77445,7 +77445,7 @@
         <v>956.5999755859375</v>
       </c>
       <c r="F19">
-        <v>941.2872924804688</v>
+        <v>941.287353515625</v>
       </c>
       <c r="G19">
         <v>173849</v>
@@ -77468,7 +77468,7 @@
         <v>989.5999755859375</v>
       </c>
       <c r="F20">
-        <v>973.7591552734375</v>
+        <v>973.759033203125</v>
       </c>
       <c r="G20">
         <v>207645</v>
@@ -77514,7 +77514,7 @@
         <v>1050</v>
       </c>
       <c r="F22">
-        <v>1033.192138671875</v>
+        <v>1033.1923828125</v>
       </c>
       <c r="G22">
         <v>253309</v>
@@ -77537,7 +77537,7 @@
         <v>1044</v>
       </c>
       <c r="F23">
-        <v>1027.288330078125</v>
+        <v>1027.288452148438</v>
       </c>
       <c r="G23">
         <v>201199</v>
@@ -77560,7 +77560,7 @@
         <v>1073</v>
       </c>
       <c r="F24">
-        <v>1055.82421875</v>
+        <v>1055.823974609375</v>
       </c>
       <c r="G24">
         <v>226158</v>
@@ -77583,7 +77583,7 @@
         <v>1068</v>
       </c>
       <c r="F25">
-        <v>1053.904052734375</v>
+        <v>1053.903930664062</v>
       </c>
       <c r="G25">
         <v>232049</v>
@@ -77629,7 +77629,7 @@
         <v>1144</v>
       </c>
       <c r="F27">
-        <v>1128.901000976562</v>
+        <v>1128.901123046875</v>
       </c>
       <c r="G27">
         <v>287168</v>
@@ -77652,7 +77652,7 @@
         <v>1158.5</v>
       </c>
       <c r="F28">
-        <v>1143.209716796875</v>
+        <v>1143.209594726562</v>
       </c>
       <c r="G28">
         <v>215396</v>
@@ -77675,7 +77675,7 @@
         <v>1197.5</v>
       </c>
       <c r="F29">
-        <v>1181.694702148438</v>
+        <v>1181.69482421875</v>
       </c>
       <c r="G29">
         <v>236823</v>
@@ -77721,7 +77721,7 @@
         <v>1227</v>
       </c>
       <c r="F31">
-        <v>1210.805419921875</v>
+        <v>1210.805541992188</v>
       </c>
       <c r="G31">
         <v>236149</v>
@@ -77744,7 +77744,7 @@
         <v>1218</v>
       </c>
       <c r="F32">
-        <v>1201.924194335938</v>
+        <v>1201.924438476562</v>
       </c>
       <c r="G32">
         <v>215354</v>
@@ -77767,7 +77767,7 @@
         <v>1235.5</v>
       </c>
       <c r="F33">
-        <v>1219.193359375</v>
+        <v>1219.193237304688</v>
       </c>
       <c r="G33">
         <v>232957</v>
@@ -77836,7 +77836,7 @@
         <v>1289</v>
       </c>
       <c r="F36">
-        <v>1271.9873046875</v>
+        <v>1271.987182617188</v>
       </c>
       <c r="G36">
         <v>211540</v>
@@ -77859,7 +77859,7 @@
         <v>1340.5</v>
       </c>
       <c r="F37">
-        <v>1322.807495117188</v>
+        <v>1322.807373046875</v>
       </c>
       <c r="G37">
         <v>186788</v>
@@ -77882,7 +77882,7 @@
         <v>1347.5</v>
       </c>
       <c r="F38">
-        <v>1329.715209960938</v>
+        <v>1329.715087890625</v>
       </c>
       <c r="G38">
         <v>160413</v>
@@ -77905,7 +77905,7 @@
         <v>1233</v>
       </c>
       <c r="F39">
-        <v>1216.726318359375</v>
+        <v>1216.726196289062</v>
       </c>
       <c r="G39">
         <v>361114</v>
@@ -77928,7 +77928,7 @@
         <v>1241</v>
       </c>
       <c r="F40">
-        <v>1224.620727539062</v>
+        <v>1224.62060546875</v>
       </c>
       <c r="G40">
         <v>239678</v>
@@ -78043,7 +78043,7 @@
         <v>1195.5</v>
       </c>
       <c r="F45">
-        <v>1179.72119140625</v>
+        <v>1179.721313476562</v>
       </c>
       <c r="G45">
         <v>336296</v>
@@ -78066,7 +78066,7 @@
         <v>1212.5</v>
       </c>
       <c r="F46">
-        <v>1196.496948242188</v>
+        <v>1196.496826171875</v>
       </c>
       <c r="G46">
         <v>264236</v>
@@ -78158,7 +78158,7 @@
         <v>1459</v>
       </c>
       <c r="F50">
-        <v>1439.743530273438</v>
+        <v>1439.743286132812</v>
       </c>
       <c r="G50">
         <v>245932</v>
@@ -78181,7 +78181,7 @@
         <v>1478.5</v>
       </c>
       <c r="F51">
-        <v>1458.986083984375</v>
+        <v>1458.985961914062</v>
       </c>
       <c r="G51">
         <v>235243</v>
@@ -78273,7 +78273,7 @@
         <v>1592.5</v>
       </c>
       <c r="F55">
-        <v>1571.481567382812</v>
+        <v>1571.4814453125</v>
       </c>
       <c r="G55">
         <v>386697</v>
@@ -78342,7 +78342,7 @@
         <v>1536</v>
       </c>
       <c r="F58">
-        <v>1515.727172851562</v>
+        <v>1515.72705078125</v>
       </c>
       <c r="G58">
         <v>172515</v>
@@ -78365,7 +78365,7 @@
         <v>1447</v>
       </c>
       <c r="F59">
-        <v>1427.901977539062</v>
+        <v>1427.901733398438</v>
       </c>
       <c r="G59">
         <v>381972</v>
@@ -78388,7 +78388,7 @@
         <v>1298.5</v>
       </c>
       <c r="F60">
-        <v>1281.36181640625</v>
+        <v>1281.361694335938</v>
       </c>
       <c r="G60">
         <v>517087</v>
@@ -78411,7 +78411,7 @@
         <v>1364</v>
       </c>
       <c r="F61">
-        <v>1345.997314453125</v>
+        <v>1345.997192382812</v>
       </c>
       <c r="G61">
         <v>429444</v>
@@ -78457,7 +78457,7 @@
         <v>1310</v>
       </c>
       <c r="F63">
-        <v>1292.7099609375</v>
+        <v>1292.710083007812</v>
       </c>
       <c r="G63">
         <v>360960</v>
@@ -78503,7 +78503,7 @@
         <v>1203</v>
       </c>
       <c r="F65">
-        <v>1187.1220703125</v>
+        <v>1187.122192382812</v>
       </c>
       <c r="G65">
         <v>613173</v>
@@ -78526,7 +78526,7 @@
         <v>1230</v>
       </c>
       <c r="F66">
-        <v>1213.765869140625</v>
+        <v>1213.765991210938</v>
       </c>
       <c r="G66">
         <v>572229</v>
@@ -80701,7 +80701,7 @@
         <v>37.95999908447266</v>
       </c>
       <c r="F2">
-        <v>36.42457580566406</v>
+        <v>36.4245719909668</v>
       </c>
       <c r="G2">
         <v>532139</v>
@@ -80724,7 +80724,7 @@
         <v>37.97999954223633</v>
       </c>
       <c r="F3">
-        <v>36.44376754760742</v>
+        <v>36.44376373291016</v>
       </c>
       <c r="G3">
         <v>950386</v>
@@ -80793,7 +80793,7 @@
         <v>38.81999969482422</v>
       </c>
       <c r="F6">
-        <v>37.24979019165039</v>
+        <v>37.24979400634766</v>
       </c>
       <c r="G6">
         <v>342189</v>
@@ -80839,7 +80839,7 @@
         <v>37.45999908447266</v>
       </c>
       <c r="F8">
-        <v>35.94480133056641</v>
+        <v>35.94479751586914</v>
       </c>
       <c r="G8">
         <v>540898</v>
@@ -80885,7 +80885,7 @@
         <v>40.95999908447266</v>
       </c>
       <c r="F10">
-        <v>39.3032341003418</v>
+        <v>39.30323028564453</v>
       </c>
       <c r="G10">
         <v>1160130</v>
@@ -80931,7 +80931,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>30.70565032958984</v>
+        <v>30.70564842224121</v>
       </c>
       <c r="G12">
         <v>4896697</v>
@@ -80977,7 +80977,7 @@
         <v>34.63999938964844</v>
       </c>
       <c r="F14">
-        <v>33.23886108398438</v>
+        <v>33.23886489868164</v>
       </c>
       <c r="G14">
         <v>1344813</v>
@@ -81092,7 +81092,7 @@
         <v>34.63999938964844</v>
       </c>
       <c r="F19">
-        <v>33.23886108398438</v>
+        <v>33.23886489868164</v>
       </c>
       <c r="G19">
         <v>519165</v>
@@ -81115,7 +81115,7 @@
         <v>32.84999847412109</v>
       </c>
       <c r="F20">
-        <v>31.52126312255859</v>
+        <v>31.52126502990723</v>
       </c>
       <c r="G20">
         <v>510427</v>
@@ -81138,7 +81138,7 @@
         <v>33.38999938964844</v>
       </c>
       <c r="F21">
-        <v>32.0394287109375</v>
+        <v>32.03942489624023</v>
       </c>
       <c r="G21">
         <v>422434</v>
@@ -81184,7 +81184,7 @@
         <v>33.7400016784668</v>
       </c>
       <c r="F23">
-        <v>32.37527084350586</v>
+        <v>32.37526702880859</v>
       </c>
       <c r="G23">
         <v>657899</v>
@@ -81230,7 +81230,7 @@
         <v>32.31000137329102</v>
       </c>
       <c r="F25">
-        <v>31.00311279296875</v>
+        <v>31.00311088562012</v>
       </c>
       <c r="G25">
         <v>287584</v>
@@ -81299,7 +81299,7 @@
         <v>37.66999816894531</v>
       </c>
       <c r="F28">
-        <v>36.14630508422852</v>
+        <v>36.14630126953125</v>
       </c>
       <c r="G28">
         <v>240138</v>
@@ -81437,7 +81437,7 @@
         <v>34.08000183105469</v>
       </c>
       <c r="F34">
-        <v>32.70151901245117</v>
+        <v>32.70151519775391</v>
       </c>
       <c r="G34">
         <v>318289</v>
@@ -81483,7 +81483,7 @@
         <v>36.70999908447266</v>
       </c>
       <c r="F36">
-        <v>35.22513580322266</v>
+        <v>35.22513198852539</v>
       </c>
       <c r="G36">
         <v>405035</v>
@@ -81644,7 +81644,7 @@
         <v>38.02000045776367</v>
       </c>
       <c r="F43">
-        <v>36.73885726928711</v>
+        <v>36.73886108398438</v>
       </c>
       <c r="G43">
         <v>194186</v>
@@ -81690,7 +81690,7 @@
         <v>37</v>
       </c>
       <c r="F45">
-        <v>35.75322723388672</v>
+        <v>35.75323104858398</v>
       </c>
       <c r="G45">
         <v>181126</v>
@@ -81736,7 +81736,7 @@
         <v>31.45000076293945</v>
       </c>
       <c r="F47">
-        <v>30.39024353027344</v>
+        <v>30.39024543762207</v>
       </c>
       <c r="G47">
         <v>212184</v>
@@ -81759,7 +81759,7 @@
         <v>32.79999923706055</v>
       </c>
       <c r="F48">
-        <v>31.69475555419922</v>
+        <v>31.69475173950195</v>
       </c>
       <c r="G48">
         <v>202828</v>
@@ -81920,7 +81920,7 @@
         <v>30.38999938964844</v>
       </c>
       <c r="F55">
-        <v>29.36596298217773</v>
+        <v>29.3659610748291</v>
       </c>
       <c r="G55">
         <v>140898</v>
@@ -81966,7 +81966,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F57">
-        <v>29.85877799987793</v>
+        <v>29.8587760925293</v>
       </c>
       <c r="G57">
         <v>146158</v>
@@ -82035,7 +82035,7 @@
         <v>31.45000076293945</v>
       </c>
       <c r="F60">
-        <v>30.39024353027344</v>
+        <v>30.39024543762207</v>
       </c>
       <c r="G60">
         <v>191702</v>
@@ -82081,7 +82081,7 @@
         <v>28.11000061035156</v>
       </c>
       <c r="F62">
-        <v>27.16279029846191</v>
+        <v>27.16279220581055</v>
       </c>
       <c r="G62">
         <v>225765</v>
@@ -82127,7 +82127,7 @@
         <v>28.31999969482422</v>
       </c>
       <c r="F64">
-        <v>27.36571502685547</v>
+        <v>27.36571311950684</v>
       </c>
       <c r="G64">
         <v>204454</v>
@@ -82150,7 +82150,7 @@
         <v>27.64999961853027</v>
       </c>
       <c r="F65">
-        <v>26.71829032897949</v>
+        <v>26.71829223632812</v>
       </c>
       <c r="G65">
         <v>299335</v>
@@ -82219,7 +82219,7 @@
         <v>24.89999961853027</v>
       </c>
       <c r="F68">
-        <v>24.06095695495605</v>
+        <v>24.06095504760742</v>
       </c>
       <c r="G68">
         <v>305327</v>
@@ -82288,7 +82288,7 @@
         <v>26</v>
       </c>
       <c r="F71">
-        <v>25.12389183044434</v>
+        <v>25.1238899230957</v>
       </c>
       <c r="G71">
         <v>384569</v>
@@ -82334,7 +82334,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F73">
-        <v>25.00793266296387</v>
+        <v>25.0079345703125</v>
       </c>
       <c r="G73">
         <v>175484</v>
@@ -82380,7 +82380,7 @@
         <v>25.20000076293945</v>
       </c>
       <c r="F75">
-        <v>24.35084915161133</v>
+        <v>24.3508472442627</v>
       </c>
       <c r="G75">
         <v>75254</v>
@@ -82403,7 +82403,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="F76">
-        <v>24.52478218078613</v>
+        <v>24.5247802734375</v>
       </c>
       <c r="G76">
         <v>110673</v>
@@ -82426,7 +82426,7 @@
         <v>23.70000076293945</v>
       </c>
       <c r="F77">
-        <v>22.90139389038086</v>
+        <v>22.90139198303223</v>
       </c>
       <c r="G77">
         <v>150505</v>
